--- a/Scala/Reference/Scala_学習.xlsx
+++ b/Scala/Reference/Scala_学習.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Git\Cal_Master\Scala\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033D424-CE3D-49CE-A0F0-468A41D5DC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D7E04D-E32B-4EBD-81E0-E00A4E6D9527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9270" windowHeight="2505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="165" windowWidth="14250" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学習" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -263,13 +263,222 @@
   </si>
   <si>
     <t>はじめてScalaの素晴らしさをプログラムとして反映できる点</t>
+  </si>
+  <si>
+    <t>開発環境</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://www.jetbrains.com/ja-jp/idea/download/#section=windows</t>
+  </si>
+  <si>
+    <t>→コミュニティ版インストーラダウンロード</t>
+    <rPh sb="7" eb="8">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scala 学習前の環境構築 [Windows×IntelliJ×Scala] - Qiita</t>
+  </si>
+  <si>
+    <t>https://qiita.com/haruto167/items/b984532e155947113917</t>
+  </si>
+  <si>
+    <t>JDK</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>手順</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>用語</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ダウンロード IntelliJ IDEA：JetBrainsによるプロ開発者向けJava IDE</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IDE(統合開発環境)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java Development Kit</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>対応言語はJava、Scala、Groovy、Clojure、KotlinなどのJavaプラットフォーム上の言語のみ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>PHP、Python、Rubyなどは非対応</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Javaソフトウェア開発キット(SDK)および開発環境</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Linux、macOSまたはWindows向けのパッケージがそれぞれ用意されている</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JDKがインストールされているか</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コマンドプロンプト-[java -version]実行</t>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>◇入っている場合、以下、例のように表示</t>
+    <rPh sb="1" eb="2">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>java version "1.8.0_211"
+Java(TM) SE Runtime Environment (build 1.8.0_211-b12)
+Java HotSpot(TM) Client VM (build 25.211-b12, mixed mode)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>◇入っていない場合、コマンドエラーとなる</t>
+    <rPh sb="1" eb="2">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java SE - Downloads | Oracle Technology Network | Oracle</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/java/technologies/javase-downloads.html</t>
+  </si>
+  <si>
+    <t>→JDKインストーラダウンロード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JDKインストール</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IntelliJ IDEAインストール</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Scalaプラグインインストール</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>IntelliJ起動-[Configure]展開-[Plugins]-「Scala」-[Install]</t>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IntelliJ起動-[Create New Project]-[Scala]選択-[Next]-</t>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「JDK」-[&lt;No SDK&gt;]展開-[Download JDK]-</t>
+    <rPh sb="16" eb="18">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「Vemdor」-[Open/JDK]選択-「Version」-[14.0.1]選択-[Download]</t>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scalaプロジェクト初回作成</t>
+    <rPh sb="11" eb="13">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +521,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,11 +559,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -620,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -925,9 +1161,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD0DF89-1E31-49AC-94D0-98F20317FDA8}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:BM36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -935,13 +1173,383 @@
     <col min="3" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>環境</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="E5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="E10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="F15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="H16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" s="6" customFormat="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="I17" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" s="6" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="J18" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" s="6" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="K19" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" s="6" customFormat="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="L20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+    </row>
+    <row r="21" spans="1:65" s="6" customFormat="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="9"/>
+      <c r="BH21" s="9"/>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="9"/>
+      <c r="BK21" s="9"/>
+      <c r="BL21" s="9"/>
+      <c r="BM21" s="9"/>
+    </row>
+    <row r="22" spans="1:65" s="6" customFormat="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+    </row>
+    <row r="23" spans="1:65" s="6" customFormat="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="J23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65" s="6" customFormat="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="K24" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65" s="6" customFormat="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="L25" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65" s="6" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="M26" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65">
+      <c r="F27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65">
+      <c r="H28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65">
+      <c r="I29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65">
+      <c r="J30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65">
+      <c r="F31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65">
+      <c r="H32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="H34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="H35" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="H36" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L20:BM22"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Scala/Reference/Scala_学習.xlsx
+++ b/Scala/Reference/Scala_学習.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Git\Cal_Master\Scala\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Git\Cal_Master\Scala\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D7E04D-E32B-4EBD-81E0-E00A4E6D9527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFD353C-6344-4368-9615-2547100874DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="165" windowWidth="14250" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5130" yWindow="3915" windowWidth="2565" windowHeight="2340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学習" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -278,17 +278,7 @@
     <t>https://www.jetbrains.com/ja-jp/idea/download/#section=windows</t>
   </si>
   <si>
-    <t>→コミュニティ版インストーラダウンロード</t>
-    <rPh sb="7" eb="8">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Scala 学習前の環境構築 [Windows×IntelliJ×Scala] - Qiita</t>
-  </si>
-  <si>
-    <t>https://qiita.com/haruto167/items/b984532e155947113917</t>
   </si>
   <si>
     <t>JDK</t>
@@ -430,46 +420,567 @@
     <t>4.</t>
   </si>
   <si>
-    <t>IntelliJ起動-[Configure]展開-[Plugins]-「Scala」-[Install]</t>
-    <rPh sb="8" eb="10">
+    <t>Pleiades - Eclipse、IntelliJ などの日本語化プラグイン</t>
+  </si>
+  <si>
+    <t>https://mergedoc.osdn.jp/#pleiades.html#PLUGIN</t>
+  </si>
+  <si>
+    <t>https://qiita.com/daigoro7/items/00819e5686f6c4d682f8</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEAの日本語化 - Qiita</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IntelliJ IDEAインストール</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IntelliJ IDEA日本語化</t>
+    <rPh sb="13" eb="17">
+      <t>ニホンゴカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ダウンロード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>用語</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウゴ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sbt</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sbt - Wikipedia</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/Sbt</t>
+  </si>
+  <si>
+    <t>ScalaおよびJavaのためのオープンソースのビルドツール</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>→コミュニティ版インストール</t>
+    <rPh sb="7" eb="8">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[Sownload and install 32-bit JetBrains Runtime]チェック</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「Configure your IntelliJ IDEA Community Edition installation」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>初回起動</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>キドウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>IntelliJ起動-[Create New Project]-[Scala]選択-[Next]-</t>
-    <rPh sb="8" eb="10">
+    <t>Import IntelliJ IDEA Settings</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Set UI theme</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Tune IntelliJ IDEA to your tasks</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>設定ファイル取り込み</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>UIテーマ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プラグインカスタマイズ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Download featured plugins</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「Scala」-[Install]</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>おすすめプラグイン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※後から設定可能なため</t>
+    <rPh sb="1" eb="2">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>デフォルト</t>
+  </si>
+  <si>
+    <t>→起動メニュー画面表示</t>
+    <rPh sb="1" eb="3">
       <t>キドウ</t>
     </rPh>
-    <rPh sb="39" eb="41">
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>起動メニュー画面-[Configure]展開-[Plugins]-「Scala」-[Install]</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※手順1でインストール済の場合は不要</t>
+    <rPh sb="1" eb="3">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>起動メニュー画面-[Create New Project]-[Scala]選択-[Next]→</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>「JDK」-[&lt;No SDK&gt;]展開-[Download JDK]-</t>
+    <t>「JDK」-[&lt;No SDK&gt;]展開-[Download JDK]→</t>
     <rPh sb="16" eb="18">
       <t>テンカイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>「Vemdor」-[Open/JDK]選択-「Version」-[14.0.1]選択-[Download]</t>
-    <rPh sb="19" eb="21">
-      <t>センタク</t>
-    </rPh>
+    <t>「Download JDK」ポップアップ-「Vemdor」-[Open/JDK]選択-</t>
     <rPh sb="40" eb="42">
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Scalaプロジェクト初回作成</t>
+    <t>プロジェクト作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロジェクト起動</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「Version」-[14.0.1]選択-[Download]→[Finish]→</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>%USERPROFILE%/.jdks/openjdk-14.0.1/bin/java.exe -Djline.terminal=jline.UnsupportedTerminal -Dsbt.log.noformat=true -Dfile.encoding=UTF-8 -Didea.managed=true -Dfile.encoding=UTF-8 -jar C:/Users/Calacala/AppData/Roaming/JetBrains/IdeaIC2020.1/plugins/Scala/launcher/sbt-launch.jar
+[info] [launcher] getting org.fusesource.jansi jansi 1.11  (this may take some time)...
+downloading https://repo1.maven.org/maven2/org/fusesource/jansi/jansi/1.11/jansi-1.11.jar ...
+:: loading settings :: url = jar:file:/%USERPROFILE%AppData/Roaming/JetBrains/IdeaIC2020.1/plugins/Scala/launcher/sbt-launch.jar!/org/apache/ivy/core/settings/ivysettings.xml
+[SUCCESSFUL ] org.fusesource.jansi#jansi;1.11!jansi.jar (820ms)
+:: retrieving :: org.scala-sbt#boot-jansi
+confs: [default]
+:: loading settings :: url = jar:file:/%USERPROFILE%/AppData/Roaming/JetBrains/IdeaIC2020.1/plugins/Scala/launcher/sbt-launch.jar!/org/apache/ivy/core/settings/ivysettings.xml
+1 artifacts copied, 0 already retrieved
+[info] [launcher] getting org.scala-sbt sbt 1.3.10  (this may take some time)...
+downloading https://repo1.maven.org/maven2/org/scala-sbt/sbt/1.3.10/sbt-1.3.10.jar ...
+downloading https://repo1.maven.org/maven2/org/scala-sbt/main_2.12/1.3.10/main_2.12-1.3.10.jar ...
+downloading https://repo1.maven.org/maven2/org/scala-sbt/io_2.12/1.3.4/io_2.12-1.3.4.jar ...
+downloading https://repo1.maven.org/maven2/org/scala-lang/scala-library/2.12.10/scala-library-2.12.10.jar ...
+:: loading settings :: url = jar:file:/%USERPROFILE%/AppData/Roaming/JetBrains/IdeaIC2020.1/plugins/Scala/launcher/sbt-launch.jar!/org/apache/ivy/core/settings/ivysettings.xml
+:: loading settings :: url = jar:file:/%USERPROFILE%/AppData/Roaming/JetBrains/IdeaIC2020.1/plugins/Scala/launcher/sbt-launch.jar!/org/apache/ivy/core/settings/ivysettings.xml
+[SUCCESSFUL ] org.scala-sbt#sbt;1.3.10!sbt.jar (1054ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/logic_2.12/1.3.10/logic_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#logic_2.12;1.3.10!logic_2.12.jar (664ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/actions_2.12/1.3.10/actions_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#actions_2.12;1.3.10!actions_2.12.jar (875ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/main-settings_2.12/1.3.10/main-settings_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#main-settings_2.12;1.3.10!main-settings_2.12.jar (1416ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/run_2.12/1.3.10/run_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#run_2.12;1.3.10!run_2.12.jar (617ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/command_2.12/1.3.10/command_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#command_2.12;1.3.10!command_2.12.jar (1557ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/collections_2.12/1.3.10/collections_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#main_2.12;1.3.10!main_2.12.jar (6647ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/scripted-sbt-redux_2.12/1.3.10/scripted-sbt-redux_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#io_2.12;1.3.4!io_2.12.jar (6976ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/scripted-plugin_2.12/1.3.10/scripted-plugin_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#scripted-plugin_2.12;1.3.10!scripted-plugin_2.12.jar (502ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/zinc-lm-integration_2.12/1.3.10/zinc-lm-integration_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#scripted-sbt-redux_2.12;1.3.10!scripted-sbt-redux_2.12.jar (1131ms)
+downloading https://repo1.maven.org/maven2/org/scala-lang/modules/scala-xml_2.12/1.2.0/scala-xml_2.12-1.2.0.jar ...
+[SUCCESSFUL ] org.scala-sbt#zinc-lm-integration_2.12;1.3.10!zinc-lm-integration_2.12.jar (1165ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/launcher-interface/1.1.3/launcher-interface-1.1.3.jar ...
+[SUCCESSFUL ] org.scala-sbt#launcher-interface;1.1.3!launcher-interface.jar (620ms)
+downloading https://repo1.maven.org/maven2/org/apache/logging/log4j/log4j-api/2.11.2/log4j-api-2.11.2.jar ...
+[SUCCESSFUL ] org.scala-sbt#collections_2.12;1.3.10!collections_2.12.jar (3506ms)
+downloading https://repo1.maven.org/maven2/org/apache/logging/log4j/log4j-core/2.11.2/log4j-core-2.11.2.jar ...
+[SUCCESSFUL ] org.apache.logging.log4j#log4j-api;2.11.2!log4j-api.jar (2871ms)
+downloading https://repo1.maven.org/maven2/org/apache/logging/log4j/log4j-slf4j-impl/2.11.2/log4j-slf4j-impl-2.11.2.jar ...
+[SUCCESSFUL ] org.apache.logging.log4j#log4j-slf4j-impl;2.11.2!log4j-slf4j-impl.jar (693ms)
+downloading https://repo1.maven.org/maven2/com/github/cb372/scalacache-caffeine_2.12/0.20.0/scalacache-caffeine_2.12-0.20.0.jar ...
+[SUCCESSFUL ] org.scala-lang.modules#scala-xml_2.12;1.2.0!scala-xml_2.12.jar(bundle) (5280ms)
+downloading https://repo1.maven.org/maven2/io/get-coursier/lm-coursier-shaded_2.12/2.0.0-RC6-2/lm-coursier-shaded_2.12-2.0.0-RC6-2.jar ...
+[SUCCESSFUL ] com.github.cb372#scalacache-caffeine_2.12;0.20.0!scalacache-caffeine_2.12.jar (480ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/util-logging_2.12/1.3.3/util-logging_2.12-1.3.3.jar ...
+[SUCCESSFUL ] org.scala-sbt#util-logging_2.12;1.3.3!util-logging_2.12.jar (4477ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/librarymanagement-core_2.12/1.3.2/librarymanagement-core_2.12-1.3.2.jar ...
+[SUCCESSFUL ] org.scala-sbt#librarymanagement-core_2.12;1.3.2!librarymanagement-core_2.12.jar (7886ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/librarymanagement-ivy_2.12/1.3.2/librarymanagement-ivy_2.12-1.3.2.jar ...
+[SUCCESSFUL ] org.apache.logging.log4j#log4j-core;2.11.2!log4j-core.jar (19116ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/compiler-interface/1.3.5/compiler-interface-1.3.5.jar ...
+[SUCCESSFUL ] org.scala-sbt#librarymanagement-ivy_2.12;1.3.2!librarymanagement-ivy_2.12.jar (3851ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/zinc-compile_2.12/1.3.5/zinc-compile_2.12-1.3.5.jar ...
+[SUCCESSFUL ] org.scala-sbt#zinc-compile_2.12;1.3.5!zinc-compile_2.12.jar (776ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/util-relation_2.12/1.3.3/util-relation_2.12-1.3.3.jar ...
+[SUCCESSFUL ] org.scala-sbt#compiler-interface;1.3.5!compiler-interface.jar (2049ms)
+downloading https://repo1.maven.org/maven2/com/eed3si9n/sjson-new-scalajson_2.12/0.8.3/sjson-new-scalajson_2.12-0.8.3.jar ...
+[SUCCESSFUL ] org.scala-sbt#util-relation_2.12;1.3.3!util-relation_2.12.jar (974ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/util-position_2.12/1.3.3/util-position_2.12-1.3.3.jar ...
+[SUCCESSFUL ] org.scala-sbt#util-position_2.12;1.3.3!util-position_2.12.jar (778ms)
+downloading https://repo1.maven.org/maven2/com/eed3si9n/sjson-new-core_2.12/0.8.3/sjson-new-core_2.12-0.8.3.jar ...
+[SUCCESSFUL ] com.eed3si9n#sjson-new-scalajson_2.12;0.8.3!sjson-new-scalajson_2.12.jar (1482ms)
+downloading https://repo1.maven.org/maven2/com/eed3si9n/shaded-scalajson_2.12/1.0.0-M4/shaded-scalajson_2.12-1.0.0-M4.jar ...
+[SUCCESSFUL ] com.eed3si9n#shaded-scalajson_2.12;1.0.0-M4!shaded-scalajson_2.12.jar (1445ms)
+downloading https://repo1.maven.org/maven2/org/spire-math/jawn-parser_2.12/0.10.4/jawn-parser_2.12-0.10.4.jar ...
+[SUCCESSFUL ] org.spire-math#jawn-parser_2.12;0.10.4!jawn-parser_2.12.jar (1589ms)
+downloading https://repo1.maven.org/maven2/org/scala-lang/scala-reflect/2.12.10/scala-reflect-2.12.10.jar ...
+[SUCCESSFUL ] com.eed3si9n#sjson-new-core_2.12;0.8.3!sjson-new-core_2.12.jar (8367ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/completion_2.12/1.3.10/completion_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#completion_2.12;1.3.10!completion_2.12.jar (2316ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/task-system_2.12/1.3.10/task-system_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#task-system_2.12;1.3.10!task-system_2.12.jar (1211ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/tasks_2.12/1.3.10/tasks_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-lang#scala-library;2.12.10!scala-library.jar (44043ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/testing_2.12/1.3.10/testing_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#testing_2.12;1.3.10!testing_2.12.jar (1556ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/util-tracking_2.12/1.3.3/util-tracking_2.12-1.3.3.jar ...
+[SUCCESSFUL ] org.scala-sbt#tasks_2.12;1.3.10!tasks_2.12.jar (1658ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/zinc-classpath_2.12/1.3.5/zinc-classpath_2.12-1.3.5.jar ...
+[SUCCESSFUL ] org.scala-sbt#zinc-classpath_2.12;1.3.5!zinc-classpath_2.12.jar (752ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/zinc-apiinfo_2.12/1.3.5/zinc-apiinfo_2.12-1.3.5.jar ...
+[SUCCESSFUL ] org.scala-sbt#util-tracking_2.12;1.3.3!util-tracking_2.12.jar (1068ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/zinc_2.12/1.3.5/zinc_2.12-1.3.5.jar ...
+[SUCCESSFUL ] org.scala-sbt#zinc-apiinfo_2.12;1.3.5!zinc-apiinfo_2.12.jar (1302ms)
+downloading https://repo1.maven.org/maven2/jline/jline/2.14.6/jline-2.14.6.jar ...
+[SUCCESSFUL ] org.scala-sbt#zinc_2.12;1.3.5!zinc_2.12.jar (1221ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/util-control_2.12/1.3.3/util-control_2.12-1.3.3.jar ...
+[SUCCESSFUL ] org.scala-sbt#util-control_2.12;1.3.3!util-control_2.12.jar (737ms)
+downloading https://repo1.maven.org/maven2/com/swoval/file-tree-views/2.1.3/file-tree-views-2.1.3.jar ...
+[SUCCESSFUL ] jline#jline;2.14.6!jline.jar (2057ms)
+downloading https://repo1.maven.org/maven2/net/java/dev/jna/jna/5.5.0/jna-5.5.0.jar ...
+[SUCCESSFUL ] com.swoval#file-tree-views;2.1.3!file-tree-views.jar (2309ms)
+downloading https://repo1.maven.org/maven2/net/java/dev/jna/jna-platform/5.5.0/jna-platform-5.5.0.jar ...
+[SUCCESSFUL ] org.scala-lang#scala-reflect;2.12.10!scala-reflect.jar (28703ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/util-interface/1.3.3/util-interface-1.3.3.jar ...
+[SUCCESSFUL ] org.scala-sbt#util-interface;1.3.3!util-interface.jar (530ms)
+downloading https://repo1.maven.org/maven2/com/lmax/disruptor/3.4.2/disruptor-3.4.2.jar ...
+[SUCCESSFUL ] com.lmax#disruptor;3.4.2!disruptor.jar (1252ms)
+downloading https://repo1.maven.org/maven2/org/scala-lang/scala-compiler/2.12.10/scala-compiler-2.12.10.jar ...
+[SUCCESSFUL ] net.java.dev.jna#jna;5.5.0!jna.jar (16326ms)
+downloading https://repo1.maven.org/maven2/com/google/protobuf/protobuf-java/3.7.0/protobuf-java-3.7.0.jar ...
+[SUCCESSFUL ] net.java.dev.jna#jna-platform;5.5.0!jna-platform.jar (21380ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/util-cache_2.12/1.3.3/util-cache_2.12-1.3.3.jar ...
+[SUCCESSFUL ] org.scala-sbt#util-cache_2.12;1.3.3!util-cache_2.12.jar (3701ms)
+downloading https://repo1.maven.org/maven2/com/eed3si9n/sjson-new-murmurhash_2.12/0.8.3/sjson-new-murmurhash_2.12-0.8.3.jar ...
+[SUCCESSFUL ] com.eed3si9n#sjson-new-murmurhash_2.12;0.8.3!sjson-new-murmurhash_2.12.jar (718ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/test-agent/1.3.10/test-agent-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#test-agent;1.3.10!test-agent.jar (2084ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/test-interface/1.0/test-interface-1.0.jar ...
+[SUCCESSFUL ] org.scala-sbt#test-interface;1.0!test-interface.jar (2194ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/compiler-bridge_2.12/1.3.5/compiler-bridge_2.12-1.3.5.jar ...
+[SUCCESSFUL ] org.scala-sbt#compiler-bridge_2.12;1.3.5!compiler-bridge_2.12.jar (5060ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/zinc-classfile_2.12/1.3.5/zinc-classfile_2.12-1.3.5.jar ...
+[SUCCESSFUL ] org.scala-sbt#zinc-classfile_2.12;1.3.5!zinc-classfile_2.12.jar (2221ms)
+downloading https://repo1.maven.org/maven2/com/jcraft/jsch/0.1.54/jsch-0.1.54.jar ...
+[SUCCESSFUL ] com.jcraft#jsch;0.1.54!jsch.jar (3407ms)
+downloading https://repo1.maven.org/maven2/com/eed3si9n/gigahorse-okhttp_2.12/0.5.0/gigahorse-okhttp_2.12-0.5.0.jar ...
+[SUCCESSFUL ] com.google.protobuf#protobuf-java;3.7.0!protobuf-java.jar(bundle) (25669ms)
+downloading https://repo1.maven.org/maven2/com/squareup/okhttp3/okhttp-urlconnection/3.7.0/okhttp-urlconnection-3.7.0.jar ...
+[SUCCESSFUL ] com.squareup.okhttp3#okhttp-urlconnection;3.7.0!okhttp-urlconnection.jar (847ms)
+downloading https://repo1.maven.org/maven2/com/eed3si9n/gigahorse-core_2.12/0.5.0/gigahorse-core_2.12-0.5.0.jar ...
+[SUCCESSFUL ] com.eed3si9n#gigahorse-okhttp_2.12;0.5.0!gigahorse-okhttp_2.12.jar (940ms)
+downloading https://repo1.maven.org/maven2/com/squareup/okhttp3/okhttp/3.14.2/okhttp-3.14.2.jar ...
+[SUCCESSFUL ] com.eed3si9n#gigahorse-core_2.12;0.5.0!gigahorse-core_2.12.jar (4011ms)
+downloading https://repo1.maven.org/maven2/com/typesafe/ssl-config-core_2.12/0.4.0/ssl-config-core_2.12-0.4.0.jar ...
+[SUCCESSFUL ] com.squareup.okhttp3#okhttp;3.14.2!okhttp.jar (6406ms)
+downloading https://repo1.maven.org/maven2/org/reactivestreams/reactive-streams/1.0.2/reactive-streams-1.0.2.jar ...
+[SUCCESSFUL ] org.reactivestreams#reactive-streams;1.0.2!reactive-streams.jar (493ms)
+downloading https://repo1.maven.org/maven2/org/slf4j/slf4j-api/1.7.26/slf4j-api-1.7.26.jar ...
+[SUCCESSFUL ] org.slf4j#slf4j-api;1.7.26!slf4j-api.jar (1068ms)
+downloading https://repo1.maven.org/maven2/org/scala-lang/modules/scala-parser-combinators_2.12/1.1.2/scala-parser-combinators_2.12-1.1.2.jar ...
+[SUCCESSFUL ] io.get-coursier#lm-coursier-shaded_2.12;2.0.0-RC6-2!lm-coursier-shaded_2.12.jar (89130ms)
+downloading https://repo1.maven.org/maven2/com/typesafe/config/1.3.3/config-1.3.3.jar ...
+[SUCCESSFUL ] com.typesafe#ssl-config-core_2.12;0.4.0!ssl-config-core_2.12.jar(bundle) (5786ms)
+downloading https://repo1.maven.org/maven2/com/squareup/okio/okio/1.17.2/okio-1.17.2.jar ...
+[SUCCESSFUL ] org.scala-lang.modules#scala-parser-combinators_2.12;1.1.2!scala-parser-combinators_2.12.jar(bundle) (2725ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/zinc-core_2.12/1.3.5/zinc-core_2.12-1.3.5.jar ...
+[SUCCESSFUL ] com.squareup.okio#okio;1.17.2!okio.jar (1322ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/zinc-persist_2.12/1.3.5/zinc-persist_2.12-1.3.5.jar ...
+[SUCCESSFUL ] com.typesafe#config;1.3.3!config.jar(bundle) (2848ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/zinc-compile-core_2.12/1.3.5/zinc-compile-core_2.12-1.3.5.jar ...
+[SUCCESSFUL ] org.scala-sbt#zinc-compile-core_2.12;1.3.5!zinc-compile-core_2.12.jar (2590ms)
+downloading https://repo1.maven.org/maven2/com/trueaccord/scalapb/scalapb-runtime_2.12/0.6.0/scalapb-runtime_2.12-0.6.0.jar ...
+[SUCCESSFUL ] org.scala-sbt#zinc-core_2.12;1.3.5!zinc-core_2.12.jar (4808ms)
+downloading https://repo1.maven.org/maven2/com/trueaccord/lenses/lenses_2.12/0.4.12/lenses_2.12-0.4.12.jar ...
+[SUCCESSFUL ] com.trueaccord.lenses#lenses_2.12;0.4.12!lenses_2.12.jar (813ms)
+downloading https://repo1.maven.org/maven2/com/lihaoyi/fastparse_2.12/0.4.2/fastparse_2.12-0.4.2.jar ...
+[SUCCESSFUL ] com.lihaoyi#fastparse_2.12;0.4.2!fastparse_2.12.jar (3175ms)
+downloading https://repo1.maven.org/maven2/com/lihaoyi/fastparse-utils_2.12/0.4.2/fastparse-utils_2.12-0.4.2.jar ...
+[SUCCESSFUL ] com.lihaoyi#fastparse-utils_2.12;0.4.2!fastparse-utils_2.12.jar (924ms)
+downloading https://repo1.maven.org/maven2/com/lihaoyi/sourcecode_2.12/0.1.3/sourcecode_2.12-0.1.3.jar ...
+[SUCCESSFUL ] com.lihaoyi#sourcecode_2.12;0.1.3!sourcecode_2.12.jar (1588ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/sbinary_2.12/0.5.0/sbinary_2.12-0.5.0.jar ...
+[SUCCESSFUL ] org.scala-sbt#sbinary_2.12;0.5.0!sbinary_2.12.jar (1924ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/core-macros_2.12/1.3.10/core-macros_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#core-macros_2.12;1.3.10!core-macros_2.12.jar (917ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/protocol_2.12/1.3.10/protocol_2.12-1.3.10.jar ...
+[SUCCESSFUL ] org.scala-sbt#protocol_2.12;1.3.10!protocol_2.12.jar (2295ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/template-resolver/0.1/template-resolver-0.1.jar ...
+[SUCCESSFUL ] org.scala-sbt#template-resolver;0.1!template-resolver.jar (499ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/ipcsocket/ipcsocket/1.0.1/ipcsocket-1.0.1.jar ...
+[SUCCESSFUL ] org.scala-sbt.ipcsocket#ipcsocket;1.0.1!ipcsocket.jar (602ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/util-scripted_2.12/1.3.3/util-scripted_2.12-1.3.3.jar ...
+[SUCCESSFUL ] org.scala-sbt#util-scripted_2.12;1.3.3!util-scripted_2.12.jar (689ms)
+downloading https://repo1.maven.org/maven2/com/github/cb372/scalacache-core_2.12/0.20.0/scalacache-core_2.12-0.20.0.jar ...
+[SUCCESSFUL ] org.scala-sbt#zinc-persist_2.12;1.3.5!zinc-persist_2.12.jar (18480ms)
+downloading https://repo1.maven.org/maven2/com/github/ben-manes/caffeine/caffeine/2.5.6/caffeine-2.5.6.jar ...
+[SUCCESSFUL ] com.github.cb372#scalacache-core_2.12;0.20.0!scalacache-core_2.12.jar (944ms)
+downloading https://repo1.maven.org/maven2/org/scala-sbt/ivy/ivy/2.3.0-sbt-fa726854dd30be842ff9e6d2093df6adfe3871f5/ivy-2.3.0-sbt-fa726854dd30be842ff9e6d2093df6adfe3871f5.jar ...
+[SUCCESSFUL ] com.trueaccord.scalapb#scalapb-runtime_2.12;0.6.0!scalapb-runtime_2.12.jar (16045ms)
+[SUCCESSFUL ] com.github.ben-manes.caffeine#caffeine;2.5.6!caffeine.jar (10011ms)
+[SUCCESSFUL ] org.scala-sbt.ivy#ivy;2.3.0-sbt-fa726854dd30be842ff9e6d2093df6adfe3871f5!ivy.jar (9699ms)
+[SUCCESSFUL ] org.scala-lang#scala-compiler;2.12.10!scala-compiler.jar (111238ms)
+:: retrieving :: org.scala-sbt#boot-app
+confs: [default]
+81 artifacts copied, 0 already retrieved
+[info] [launcher] getting Scala 2.12.10 (for sbt)...
+downloading https://repo1.maven.org/maven2/org/fusesource/jansi/jansi/1.12/jansi-1.12.jar ...
+downloading https://repo1.maven.org/maven2/org/scala-lang/modules/scala-xml_2.12/1.0.6/scala-xml_2.12-1.0.6.jar ...
+[SUCCESSFUL ] org.fusesource.jansi#jansi;1.12!jansi.jar (1055ms)
+[SUCCESSFUL ] org.scala-lang.modules#scala-xml_2.12;1.0.6!scala-xml_2.12.jar(bundle) (10885ms)
+:: retrieving :: org.scala-sbt#boot-scala
+confs: [default]
+6 artifacts copied, 0 already retrieved
+[info] Loading project definition from D:\Dtemp\_OneTimeTemp\20200509_1\project
+[info] Loading settings for project root-20200509_1 from build.sbt ...
+[info] Set current project to 20200509_1 (in build file:/D:/Dtemp/_OneTimeTemp/20200509_1/)
+[info] sbt server started at local:sbt-server-d606246f877b33910731
+sbt:20200509_1&gt;
+[info] Defining Global / sbtStructureOptions, Global / sbtStructureOutputFile and 1 others.
+[info] The new values will be used by cleanKeepGlobs
+[info] 	Run `last` for details.
+[info] Reapplying settings...
+[info] Set current project to 20200509_1 (in build file:/D:/Dtemp/_OneTimeTemp/20200509_1/)
+[info] Applying State transformations org.jetbrains.sbt.CreateTasks from %USERPROFILE%/AppData/Roaming/JetBrains/IdeaIC2020.1/plugins/Scala/repo/org.jetbrains/sbt-structure-extractor/scala_2.12/sbt_1.0/2018.2.1+4-88400d3f/jars/sbt-structure-extractor.jar
+[info] Reapplying settings...
+[info] Set current project to 20200509_1 (in build file:/D:/Dtemp/_OneTimeTemp/20200509_1/)
+[info] Writing structure to %USERPROFILE%\AppData\Local\Temp\sbt-structure.xml...
+[info] Done.
+[success] Total time: 451 s (07:31), completed 2020/05/09 13:01:09
+[info] shutting down sbt server</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>初回インストール自動実行</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[Buil]タブ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→15分でインストール完了</t>
+    <rPh sb="3" eb="4">
+      <t>フン</t>
+    </rPh>
     <rPh sb="11" eb="13">
-      <t>ショカイ</t>
-    </rPh>
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※手順4でIntelliJ IDEAからインストール</t>
+    <rPh sb="1" eb="3">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://qiita.com/haruto167/items/b984532e155947113917</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scalaプロジェクト初回作成・起動</t>
     <rPh sb="13" eb="15">
       <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>HelloWorld</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[Project]タブ-位置[プロジェクト.src.main.scala]右クリック-</t>
+    <rPh sb="12" eb="14">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[New]展開-[Scala Class]→任意名称入力-[Object]選択→</t>
+    <rPh sb="5" eb="7">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>object 任意クラス名 {
+  def main(args:Array[String]): Unit ={
+    println("Hello World");
+  }
+}</t>
+    <rPh sb="7" eb="9">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>以下入力-</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[Project]タブ-作成クラス右クリック-[Run'任意クラス名']</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→実行結果表示</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -478,7 +989,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +1049,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -556,10 +1075,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -567,15 +1087,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -589,6 +1117,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76213</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B52B05C-0478-4A46-BCBB-CAC7C7D823E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="9572625"/>
+          <a:ext cx="1790713" cy="771531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -854,16 +1437,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="1.59765625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="1.625" style="2"/>
-    <col min="3" max="16384" width="1.625" style="1"/>
+    <col min="1" max="2" width="1.59765625" style="2"/>
+    <col min="3" max="16384" width="1.59765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1102,54 +1685,79 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="2:6">
       <c r="E49" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="2:6">
       <c r="F50" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="2:6">
       <c r="D51" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="2:6">
       <c r="E52" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="4:6">
+    <row r="53" spans="2:6">
       <c r="F53" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="4:6">
+    <row r="54" spans="2:6">
       <c r="F54" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="4:6">
+    <row r="55" spans="2:6">
       <c r="D55" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="4:6">
+    <row r="56" spans="2:6">
       <c r="E56" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="4:6">
+    <row r="57" spans="2:6">
       <c r="F57" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="4:6">
+    <row r="58" spans="2:6">
       <c r="F58" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="C61" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="D62" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="E63" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="E64" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1161,16 +1769,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD0DF89-1E31-49AC-94D0-98F20317FDA8}">
-  <dimension ref="A1:BM36"/>
+  <dimension ref="A1:BM85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75:BJ77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="1.59765625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="1.625" style="2"/>
-    <col min="3" max="16384" width="1.625" style="1"/>
+    <col min="1" max="2" width="1.59765625" style="2"/>
+    <col min="3" max="16384" width="1.59765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1186,372 +1794,994 @@
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8">
+      <c r="C14" s="2"/>
       <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="F15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="H16" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="2"/>
+      <c r="F15" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="F16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:65" s="6" customFormat="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="I17" s="6" t="s">
-        <v>72</v>
+      <c r="C17" s="5"/>
+      <c r="H17" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:65" s="6" customFormat="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="J18" s="6" t="s">
-        <v>73</v>
+      <c r="C18" s="5"/>
+      <c r="I18" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:65" s="6" customFormat="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="K19" s="6" t="s">
-        <v>75</v>
+      <c r="C19" s="5"/>
+      <c r="J19" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:65" s="6" customFormat="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="L20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-      <c r="BF20" s="9"/>
-      <c r="BG20" s="9"/>
-      <c r="BH20" s="9"/>
-      <c r="BI20" s="9"/>
-      <c r="BJ20" s="9"/>
-      <c r="BK20" s="9"/>
-      <c r="BL20" s="9"/>
-      <c r="BM20" s="9"/>
+      <c r="C20" s="5"/>
+      <c r="K20" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:65" s="6" customFormat="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
-      <c r="BG21" s="9"/>
-      <c r="BH21" s="9"/>
-      <c r="BI21" s="9"/>
-      <c r="BJ21" s="9"/>
-      <c r="BK21" s="9"/>
-      <c r="BL21" s="9"/>
-      <c r="BM21" s="9"/>
+      <c r="C21" s="5"/>
+      <c r="L21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+      <c r="BF21" s="8"/>
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="8"/>
+      <c r="BI21" s="8"/>
+      <c r="BJ21" s="8"/>
+      <c r="BK21" s="8"/>
+      <c r="BL21" s="8"/>
+      <c r="BM21" s="8"/>
     </row>
     <row r="22" spans="1:65" s="6" customFormat="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
-      <c r="BH22" s="9"/>
-      <c r="BI22" s="9"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
-      <c r="BL22" s="9"/>
-      <c r="BM22" s="9"/>
+      <c r="C22" s="5"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="8"/>
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="8"/>
+      <c r="BI22" s="8"/>
+      <c r="BJ22" s="8"/>
+      <c r="BK22" s="8"/>
+      <c r="BL22" s="8"/>
+      <c r="BM22" s="8"/>
     </row>
     <row r="23" spans="1:65" s="6" customFormat="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="J23" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="C23" s="5"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="8"/>
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+      <c r="BI23" s="8"/>
+      <c r="BJ23" s="8"/>
+      <c r="BK23" s="8"/>
+      <c r="BL23" s="8"/>
+      <c r="BM23" s="8"/>
     </row>
     <row r="24" spans="1:65" s="6" customFormat="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="K24" s="6" t="s">
-        <v>77</v>
+      <c r="C24" s="5"/>
+      <c r="J24" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:65" s="6" customFormat="1">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="L25" s="6" t="s">
-        <v>78</v>
+      <c r="C25" s="5"/>
+      <c r="K25" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:65" s="6" customFormat="1">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="M26" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:65">
-      <c r="F27" s="4" t="s">
+      <c r="C26" s="5"/>
+      <c r="L26" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65" s="6" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="L27" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" s="6" customFormat="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="H28" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65">
+      <c r="C29" s="2"/>
+      <c r="F29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65">
+      <c r="C30" s="2"/>
+      <c r="H30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65">
+      <c r="C31" s="2"/>
+      <c r="I31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65">
+      <c r="C32" s="2"/>
+      <c r="I32" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="2"/>
+      <c r="J33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="2"/>
+      <c r="K34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="2"/>
+      <c r="I35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="2"/>
+      <c r="J36" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="2"/>
+      <c r="K37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="2"/>
+      <c r="L38" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="2"/>
+      <c r="J39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" s="2"/>
+      <c r="K40" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" s="2"/>
+      <c r="L41" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" s="2"/>
+      <c r="J42" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" s="2"/>
+      <c r="K43" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" s="2"/>
+      <c r="L44" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="2"/>
+      <c r="M45" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" s="2"/>
+      <c r="J46" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" s="2"/>
+      <c r="K47" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="2"/>
+      <c r="L48" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="C49" s="2"/>
+      <c r="J49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="C50" s="2"/>
+      <c r="F50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:65">
-      <c r="H28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:65">
-      <c r="I29" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:65">
-      <c r="J30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:65">
-      <c r="F31" s="4" t="s">
+    </row>
+    <row r="51" spans="3:14">
+      <c r="C51" s="2"/>
+      <c r="H51" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="C52" s="2"/>
+      <c r="I52" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="C53" s="2"/>
+      <c r="F53" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H53" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14">
+      <c r="C54" s="2"/>
+      <c r="H54" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14">
+      <c r="C55" s="2"/>
+      <c r="I55" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14">
+      <c r="C56" s="2"/>
+      <c r="I56" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14">
+      <c r="C57" s="2"/>
+      <c r="I57" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14">
+      <c r="C58" s="2"/>
+      <c r="I58" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14">
+      <c r="C59" s="2"/>
+      <c r="H59" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14">
+      <c r="C60" s="2"/>
+      <c r="I60" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="3:14">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="3:14">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="3:14">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="3:64">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="3:64">
+      <c r="C66" s="2"/>
+      <c r="J66" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="3:64">
+      <c r="C67" s="2"/>
+      <c r="K67" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="10"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="10"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
+      <c r="AO67" s="10"/>
+      <c r="AP67" s="10"/>
+      <c r="AQ67" s="10"/>
+      <c r="AR67" s="10"/>
+      <c r="AS67" s="10"/>
+      <c r="AT67" s="10"/>
+      <c r="AU67" s="10"/>
+      <c r="AV67" s="10"/>
+      <c r="AW67" s="10"/>
+      <c r="AX67" s="10"/>
+      <c r="AY67" s="10"/>
+      <c r="AZ67" s="10"/>
+      <c r="BA67" s="10"/>
+      <c r="BB67" s="10"/>
+      <c r="BC67" s="10"/>
+      <c r="BD67" s="10"/>
+      <c r="BE67" s="10"/>
+      <c r="BF67" s="10"/>
+      <c r="BG67" s="10"/>
+      <c r="BH67" s="10"/>
+      <c r="BI67" s="10"/>
+      <c r="BJ67" s="10"/>
+      <c r="BK67" s="10"/>
+      <c r="BL67" s="10"/>
+    </row>
+    <row r="68" spans="3:64">
+      <c r="C68" s="2"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="10"/>
+      <c r="AH68" s="10"/>
+      <c r="AI68" s="10"/>
+      <c r="AJ68" s="10"/>
+      <c r="AK68" s="10"/>
+      <c r="AL68" s="10"/>
+      <c r="AM68" s="10"/>
+      <c r="AN68" s="10"/>
+      <c r="AO68" s="10"/>
+      <c r="AP68" s="10"/>
+      <c r="AQ68" s="10"/>
+      <c r="AR68" s="10"/>
+      <c r="AS68" s="10"/>
+      <c r="AT68" s="10"/>
+      <c r="AU68" s="10"/>
+      <c r="AV68" s="10"/>
+      <c r="AW68" s="10"/>
+      <c r="AX68" s="10"/>
+      <c r="AY68" s="10"/>
+      <c r="AZ68" s="10"/>
+      <c r="BA68" s="10"/>
+      <c r="BB68" s="10"/>
+      <c r="BC68" s="10"/>
+      <c r="BD68" s="10"/>
+      <c r="BE68" s="10"/>
+      <c r="BF68" s="10"/>
+      <c r="BG68" s="10"/>
+      <c r="BH68" s="10"/>
+      <c r="BI68" s="10"/>
+      <c r="BJ68" s="10"/>
+      <c r="BK68" s="10"/>
+      <c r="BL68" s="10"/>
+    </row>
+    <row r="69" spans="3:64">
+      <c r="C69" s="2"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="10"/>
+      <c r="AH69" s="10"/>
+      <c r="AI69" s="10"/>
+      <c r="AJ69" s="10"/>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="10"/>
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="10"/>
+      <c r="AO69" s="10"/>
+      <c r="AP69" s="10"/>
+      <c r="AQ69" s="10"/>
+      <c r="AR69" s="10"/>
+      <c r="AS69" s="10"/>
+      <c r="AT69" s="10"/>
+      <c r="AU69" s="10"/>
+      <c r="AV69" s="10"/>
+      <c r="AW69" s="10"/>
+      <c r="AX69" s="10"/>
+      <c r="AY69" s="10"/>
+      <c r="AZ69" s="10"/>
+      <c r="BA69" s="10"/>
+      <c r="BB69" s="10"/>
+      <c r="BC69" s="10"/>
+      <c r="BD69" s="10"/>
+      <c r="BE69" s="10"/>
+      <c r="BF69" s="10"/>
+      <c r="BG69" s="10"/>
+      <c r="BH69" s="10"/>
+      <c r="BI69" s="10"/>
+      <c r="BJ69" s="10"/>
+      <c r="BK69" s="10"/>
+      <c r="BL69" s="10"/>
+    </row>
+    <row r="70" spans="3:64">
+      <c r="C70" s="2"/>
+      <c r="K70" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="3:64">
+      <c r="C71" s="2"/>
+      <c r="F71" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="3:64">
+      <c r="C72" s="2"/>
+      <c r="H72" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="3:64">
+      <c r="C73" s="2"/>
+      <c r="H73" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="3:64">
+      <c r="C74" s="2"/>
+      <c r="H74" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="3:64">
+      <c r="C75" s="2"/>
+      <c r="I75" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="10"/>
+      <c r="AK75" s="10"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="10"/>
+      <c r="AO75" s="10"/>
+      <c r="AP75" s="10"/>
+      <c r="AQ75" s="10"/>
+      <c r="AR75" s="10"/>
+      <c r="AS75" s="10"/>
+      <c r="AT75" s="10"/>
+      <c r="AU75" s="10"/>
+      <c r="AV75" s="10"/>
+      <c r="AW75" s="10"/>
+      <c r="AX75" s="10"/>
+      <c r="AY75" s="10"/>
+      <c r="AZ75" s="10"/>
+      <c r="BA75" s="10"/>
+      <c r="BB75" s="10"/>
+      <c r="BC75" s="10"/>
+      <c r="BD75" s="10"/>
+      <c r="BE75" s="10"/>
+      <c r="BF75" s="10"/>
+      <c r="BG75" s="10"/>
+      <c r="BH75" s="10"/>
+      <c r="BI75" s="10"/>
+      <c r="BJ75" s="10"/>
+    </row>
+    <row r="76" spans="3:64">
+      <c r="C76" s="2"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+      <c r="AF76" s="10"/>
+      <c r="AG76" s="10"/>
+      <c r="AH76" s="10"/>
+      <c r="AI76" s="10"/>
+      <c r="AJ76" s="10"/>
+      <c r="AK76" s="10"/>
+      <c r="AL76" s="10"/>
+      <c r="AM76" s="10"/>
+      <c r="AN76" s="10"/>
+      <c r="AO76" s="10"/>
+      <c r="AP76" s="10"/>
+      <c r="AQ76" s="10"/>
+      <c r="AR76" s="10"/>
+      <c r="AS76" s="10"/>
+      <c r="AT76" s="10"/>
+      <c r="AU76" s="10"/>
+      <c r="AV76" s="10"/>
+      <c r="AW76" s="10"/>
+      <c r="AX76" s="10"/>
+      <c r="AY76" s="10"/>
+      <c r="AZ76" s="10"/>
+      <c r="BA76" s="10"/>
+      <c r="BB76" s="10"/>
+      <c r="BC76" s="10"/>
+      <c r="BD76" s="10"/>
+      <c r="BE76" s="10"/>
+      <c r="BF76" s="10"/>
+      <c r="BG76" s="10"/>
+      <c r="BH76" s="10"/>
+      <c r="BI76" s="10"/>
+      <c r="BJ76" s="10"/>
+    </row>
+    <row r="77" spans="3:64">
+      <c r="C77" s="2"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+      <c r="AF77" s="10"/>
+      <c r="AG77" s="10"/>
+      <c r="AH77" s="10"/>
+      <c r="AI77" s="10"/>
+      <c r="AJ77" s="10"/>
+      <c r="AK77" s="10"/>
+      <c r="AL77" s="10"/>
+      <c r="AM77" s="10"/>
+      <c r="AN77" s="10"/>
+      <c r="AO77" s="10"/>
+      <c r="AP77" s="10"/>
+      <c r="AQ77" s="10"/>
+      <c r="AR77" s="10"/>
+      <c r="AS77" s="10"/>
+      <c r="AT77" s="10"/>
+      <c r="AU77" s="10"/>
+      <c r="AV77" s="10"/>
+      <c r="AW77" s="10"/>
+      <c r="AX77" s="10"/>
+      <c r="AY77" s="10"/>
+      <c r="AZ77" s="10"/>
+      <c r="BA77" s="10"/>
+      <c r="BB77" s="10"/>
+      <c r="BC77" s="10"/>
+      <c r="BD77" s="10"/>
+      <c r="BE77" s="10"/>
+      <c r="BF77" s="10"/>
+      <c r="BG77" s="10"/>
+      <c r="BH77" s="10"/>
+      <c r="BI77" s="10"/>
+      <c r="BJ77" s="10"/>
+    </row>
+    <row r="78" spans="3:64">
+      <c r="C78" s="2"/>
+      <c r="H78" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="3:64">
+      <c r="C79" s="2"/>
+      <c r="H79" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="3:64">
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81" s="2"/>
+      <c r="D81" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8">
+      <c r="C82" s="2"/>
+      <c r="E82" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="C83" s="2"/>
+      <c r="G83" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:65">
-      <c r="H32" s="1" t="s">
+    <row r="84" spans="3:8">
+      <c r="F84" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="4" t="s">
+      <c r="H84" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="1" t="s">
+    </row>
+    <row r="85" spans="3:8">
+      <c r="F85" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="6:8">
-      <c r="H34" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8">
-      <c r="H35" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8">
-      <c r="H36" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L20:BM22"/>
+  <mergeCells count="3">
+    <mergeCell ref="L21:BM23"/>
+    <mergeCell ref="K67:BL69"/>
+    <mergeCell ref="I75:BJ77"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
+  <hyperlinks>
+    <hyperlink ref="F15" r:id="rId1" xr:uid="{846C6FC2-9053-472C-919E-D5634D022ECB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Scala/Reference/Scala_学習.xlsx
+++ b/Scala/Reference/Scala_学習.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Git\Cal_Master\Scala\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Git\Cal_Master\Scala\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFD353C-6344-4368-9615-2547100874DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3214BE-2561-4EDB-BB66-12E4EB74F476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5130" yWindow="3915" windowWidth="2565" windowHeight="2340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19440" yWindow="6930" windowWidth="9360" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学習" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="224">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -265,69 +265,13 @@
     <t>はじめてScalaの素晴らしさをプログラムとして反映できる点</t>
   </si>
   <si>
-    <t>開発環境</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>https://www.jetbrains.com/ja-jp/idea/download/#section=windows</t>
   </si>
   <si>
     <t>Scala 学習前の環境構築 [Windows×IntelliJ×Scala] - Qiita</t>
   </si>
   <si>
-    <t>JDK</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>手順</t>
-    <rPh sb="0" eb="2">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>用語</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウゴ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>ダウンロード IntelliJ IDEA：JetBrainsによるプロ開発者向けJava IDE</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>IntelliJ IDEA</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>IDE(統合開発環境)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Java Development Kit</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>対応言語はJava、Scala、Groovy、Clojure、KotlinなどのJavaプラットフォーム上の言語のみ</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>PHP、Python、Rubyなどは非対応</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Javaソフトウェア開発キット(SDK)および開発環境</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Linux、macOSまたはWindows向けのパッケージがそれぞれ用意されている</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -903,16 +847,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>[Project]タブ-位置[プロジェクト.src.main.scala]右クリック-</t>
-    <rPh sb="12" eb="14">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>[New]展開-[Scala Class]→任意名称入力-[Object]選択→</t>
     <rPh sb="5" eb="7">
       <t>テンカイ</t>
@@ -956,22 +890,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>[Project]タブ-作成クラス右クリック-[Run'任意クラス名']</t>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>→実行結果表示</t>
     <rPh sb="1" eb="3">
       <t>ジッコウ</t>
@@ -983,13 +901,637 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+  </si>
+  <si>
+    <t>IDE(統合開発環境)</t>
+  </si>
+  <si>
+    <t>対応言語はJava、Scala、Groovy、Clojure、KotlinなどのJavaプラットフォーム上の言語のみ</t>
+  </si>
+  <si>
+    <t>PHP、Python、Rubyなどは非対応</t>
+  </si>
+  <si>
+    <t>JDK</t>
+  </si>
+  <si>
+    <t>Java Development Kit</t>
+  </si>
+  <si>
+    <t>Javaソフトウェア開発キット(SDK)および開発環境</t>
+  </si>
+  <si>
+    <t>Linux、macOSまたはWindows向けのパッケージがそれぞれ用意されている</t>
+  </si>
+  <si>
+    <t>手順</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>開発環境構築</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ディレクトリ構造</t>
+  </si>
+  <si>
+    <t>Intellij で sbt を使って Scala プロジェクトをビルドする | Scala Documentation</t>
+  </si>
+  <si>
+    <t>https://docs.scala-lang.org/ja/getting-started/intellij-track/building-a-scala-project-with-intellij-and-sbt.html</t>
+  </si>
+  <si>
+    <t>ディレクトリ構造を理解</t>
+  </si>
+  <si>
+    <t>.idea</t>
+  </si>
+  <si>
+    <t>ルート</t>
+  </si>
+  <si>
+    <t>ルート</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>scala</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>build.sbt</t>
+  </si>
+  <si>
+    <t>IntelliJファイル</t>
+  </si>
+  <si>
+    <t>sbtのプラグインや追加設定</t>
+  </si>
+  <si>
+    <t>ソースファイル</t>
+  </si>
+  <si>
+    <t>アプリケーションコード</t>
+  </si>
+  <si>
+    <t>Scalaソースファイル</t>
+  </si>
+  <si>
+    <t>ユニットテスト</t>
+  </si>
+  <si>
+    <t>生成されたファイル</t>
+  </si>
+  <si>
+    <t>sbtのためのビルド定義ファイル</t>
+  </si>
+  <si>
+    <t>[Project]パネル-作成クラス右クリック-[Run'任意クラス名']</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コマンドラインの sbt で Scala を始める | Scala Documentation</t>
+  </si>
+  <si>
+    <t>https://docs.scala-lang.org/ja/getting-started/sbt-track/getting-started-with-scala-and-sbt-on-the-command-line.html</t>
+  </si>
+  <si>
+    <t>コマンドビルド</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>インストール</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sbt Reference Manual — Installing sbt on Windows</t>
+  </si>
+  <si>
+    <t>https://www.scala-sbt.org/1.x/docs/Installing-sbt-on-Windows.html</t>
+  </si>
+  <si>
+    <t>「Windows installer」インストール</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>コマンド「sbt new scala/hello-world.g8」実行</t>
+  </si>
+  <si>
+    <t>→GitHubから'hello-world'テンプレート取得</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「name [Hello World template]:」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>build.properties</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Main.scala</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→ディレクトリ構造</t>
+    <rPh sb="7" eb="9">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※本サンプルでは対象外</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロジェクト作成(取得)</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サンプル</t>
+  </si>
+  <si>
+    <t>プロジェクト実行</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>任意プロジェクト名</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>任意プロジェクト名入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コマンド「sbt」実行</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→sbtコンソール実行</t>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※初回実行時はダウンロードが走るため入力状態になるまで時間がかかる</t>
+    <rPh sb="1" eb="3">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※「sbt:対象フォルダ名&gt;」表示となったら正常起動</t>
+    <rPh sb="6" eb="8">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>空のフォルダをカレントにコマンドプロンプト起動</t>
+    <rPh sb="21" eb="23">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>対象フォルダをカレントにコマンドプロンプト起動</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コマンド「~run」実行</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※初回実行時は完了までに時間がかかる</t>
+    <rPh sb="1" eb="3">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[info] running Main
+Hello, World!
+[success] Total time: 0 s, completed 2020/05/09 19:50:40
+[info] 1. Monitoring source files for hello-world/run...
+[info]    Press &lt;enter&gt; to interrupt or '?' for more options.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→以下表示</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ソースファイル編集</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>\対象プロジェクト\src\main\scala\Main.scala</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「~」オプション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ファイルが保存されるたびに「sbt」にコマンドを再実行させる</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→保存後にコマンドが再実行される</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サイジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>依存関係追加</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>\対象プロジェクト\build.sbt</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>依存関係配列追加</t>
+    <rPh sb="4" eb="6">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>以下追加</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>libraryDependencies += "org.scala-lang.modules" %% "scala-parser-combinators" % "1.1.2"</t>
+  </si>
+  <si>
+    <t>sbtビルド</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロジェクト作成・開く</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロジェクトの新規作成か既存のプロジェクトを開く</t>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[Project]パネル-[対象プロジェクト=&gt;src=&gt;main=&gt;scala]右クリック-</t>
+    <rPh sb="14" eb="16">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[Project]パネル-[対象プロジェクト=&gt;src=&gt;main]右クリック-</t>
+    <rPh sb="14" eb="16">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パッケージ追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[New]展開-[Package]→任意名称入力</t>
+    <rPh sb="5" eb="7">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パッケージにクラス追加</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[対象プロジェクト=&gt;src=&gt;main=&gt;対象パッケージ]右クリック-</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[New]展開-[Scala class]→任意名称入力-[object]選択</t>
+    <rPh sb="5" eb="7">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ソース修正</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>package 対象パッケージ
+object Main 対象クラス App {
+  val ages = Seq(42, 75, 29, 64)
+  println(s"The oldest person is ${ages.max}")
+}</t>
+    <rPh sb="8" eb="10">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロジェクト実行</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(ツールバー)[Run]展開-[Edit configurations]→</t>
+    <rPh sb="12" eb="14">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「Tasks:」-[~run]入力</t>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[+]-[sbt Task]→「Name:」-任意名称入力-</t>
+    <rPh sb="23" eb="25">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Runメニューから作成したメニューを選択し、実行</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Play Framework - Wikipedia</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/Play_Framework</t>
+  </si>
+  <si>
+    <t>ScalaとJava言語で書かれたオープンソースのWebアプリケーションフレームワーク</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Scala言語のサポートはバージョン1.1より行われていたが、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バージョン2.0ではフレームワークのコア自体がScalaにより書き直されている</t>
+  </si>
+  <si>
+    <t>ビルドとデプロイメントにもScalaベースのビルドツールであるSBTが使用されており、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テンプレートエンジンも以前のGroovyの代わりにScalaが採用されている</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,14 +1591,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1066,7 +1600,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1074,12 +1608,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1087,6 +1664,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1099,11 +1683,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1125,13 +1706,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>76213</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>142881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1437,16 +2018,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.59765625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="1.59765625" style="2"/>
-    <col min="3" max="16384" width="1.59765625" style="1"/>
+    <col min="1" max="2" width="1.625" style="2"/>
+    <col min="3" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1737,27 +2318,107 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="C61" s="1" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="D62" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="E63" s="1" t="s">
-        <v>95</v>
+      <c r="D63" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="E64" s="1" t="s">
-        <v>96</v>
+      <c r="D64" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="D66" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="D67" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="D68" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="D70" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="E71" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="E72" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="D74" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="D75" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="E76" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="E77" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5">
+      <c r="E78" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="E79" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="E80" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1769,1016 +2430,1735 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD0DF89-1E31-49AC-94D0-98F20317FDA8}">
-  <dimension ref="A1:BM85"/>
+  <dimension ref="A1:BM170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75:BJ77"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.59765625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="1.59765625" style="2"/>
-    <col min="3" max="16384" width="1.59765625" style="1"/>
+    <col min="1" max="2" width="1.625" style="2"/>
+    <col min="3" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:65">
       <c r="A1" s="2" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>環境</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:65">
       <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65">
       <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65">
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65">
+      <c r="E5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65">
+      <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" s="3" customFormat="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="F7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" s="6" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="H8" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" s="6" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="I9" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" s="6" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="J10" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="D4" s="1" t="s">
+    <row r="11" spans="1:65" s="6" customFormat="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="K11" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="E5" s="1" t="s">
+    <row r="12" spans="1:65" s="6" customFormat="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="L12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="15"/>
+    </row>
+    <row r="13" spans="1:65" s="6" customFormat="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
+    </row>
+    <row r="14" spans="1:65" s="6" customFormat="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+    </row>
+    <row r="15" spans="1:65" s="6" customFormat="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="J15" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="E6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="E7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="E9" s="1" t="s">
+    <row r="16" spans="1:65" s="6" customFormat="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="K16" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="E10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="D13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="2"/>
-      <c r="E14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" s="2"/>
-      <c r="F15" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="F16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:65" s="6" customFormat="1">
+    <row r="17" spans="1:12" s="6" customFormat="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="H17" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:65" s="6" customFormat="1">
+      <c r="L17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="6" customFormat="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="I18" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:65" s="6" customFormat="1">
+      <c r="L18" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="J19" s="6" t="s">
+      <c r="H19" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="F20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="H21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="I22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="I23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="J24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="K25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="I26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="J27" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="K28" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="L29" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="J30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="K31" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="L32" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
+      <c r="J33" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14">
+      <c r="K34" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14">
+      <c r="L35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14">
+      <c r="M36" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14">
+      <c r="J37" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14">
+      <c r="K38" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14">
+      <c r="L39" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14">
+      <c r="J40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="6:14">
+      <c r="F41" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:65" s="6" customFormat="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="K20" s="6" t="s">
+      <c r="H41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="6:14">
+      <c r="H42" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="6:14">
+      <c r="I43" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="6:14">
+      <c r="F44" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:65" s="6" customFormat="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="L21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="8"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="8"/>
-      <c r="BF21" s="8"/>
-      <c r="BG21" s="8"/>
-      <c r="BH21" s="8"/>
-      <c r="BI21" s="8"/>
-      <c r="BJ21" s="8"/>
-      <c r="BK21" s="8"/>
-      <c r="BL21" s="8"/>
-      <c r="BM21" s="8"/>
-    </row>
-    <row r="22" spans="1:65" s="6" customFormat="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="8"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="8"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="8"/>
-      <c r="BF22" s="8"/>
-      <c r="BG22" s="8"/>
-      <c r="BH22" s="8"/>
-      <c r="BI22" s="8"/>
-      <c r="BJ22" s="8"/>
-      <c r="BK22" s="8"/>
-      <c r="BL22" s="8"/>
-      <c r="BM22" s="8"/>
-    </row>
-    <row r="23" spans="1:65" s="6" customFormat="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="8"/>
-      <c r="AP23" s="8"/>
-      <c r="AQ23" s="8"/>
-      <c r="AR23" s="8"/>
-      <c r="AS23" s="8"/>
-      <c r="AT23" s="8"/>
-      <c r="AU23" s="8"/>
-      <c r="AV23" s="8"/>
-      <c r="AW23" s="8"/>
-      <c r="AX23" s="8"/>
-      <c r="AY23" s="8"/>
-      <c r="AZ23" s="8"/>
-      <c r="BA23" s="8"/>
-      <c r="BB23" s="8"/>
-      <c r="BC23" s="8"/>
-      <c r="BD23" s="8"/>
-      <c r="BE23" s="8"/>
-      <c r="BF23" s="8"/>
-      <c r="BG23" s="8"/>
-      <c r="BH23" s="8"/>
-      <c r="BI23" s="8"/>
-      <c r="BJ23" s="8"/>
-      <c r="BK23" s="8"/>
-      <c r="BL23" s="8"/>
-      <c r="BM23" s="8"/>
-    </row>
-    <row r="24" spans="1:65" s="6" customFormat="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="J24" s="6" t="s">
+      <c r="H44" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="6:14">
+      <c r="H45" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="6:14">
+      <c r="I46" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="6:14">
+      <c r="I47" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="6:14">
+      <c r="I48" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="6:64">
+      <c r="I49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="6:64">
+      <c r="H50" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="6:64">
+      <c r="I51" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="6:64">
+      <c r="J57" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="6:64">
+      <c r="K58" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="17"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="17"/>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="17"/>
+      <c r="AJ58" s="17"/>
+      <c r="AK58" s="17"/>
+      <c r="AL58" s="17"/>
+      <c r="AM58" s="17"/>
+      <c r="AN58" s="17"/>
+      <c r="AO58" s="17"/>
+      <c r="AP58" s="17"/>
+      <c r="AQ58" s="17"/>
+      <c r="AR58" s="17"/>
+      <c r="AS58" s="17"/>
+      <c r="AT58" s="17"/>
+      <c r="AU58" s="17"/>
+      <c r="AV58" s="17"/>
+      <c r="AW58" s="17"/>
+      <c r="AX58" s="17"/>
+      <c r="AY58" s="17"/>
+      <c r="AZ58" s="17"/>
+      <c r="BA58" s="17"/>
+      <c r="BB58" s="17"/>
+      <c r="BC58" s="17"/>
+      <c r="BD58" s="17"/>
+      <c r="BE58" s="17"/>
+      <c r="BF58" s="17"/>
+      <c r="BG58" s="17"/>
+      <c r="BH58" s="17"/>
+      <c r="BI58" s="17"/>
+      <c r="BJ58" s="17"/>
+      <c r="BK58" s="17"/>
+      <c r="BL58" s="17"/>
+    </row>
+    <row r="59" spans="6:64">
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="17"/>
+      <c r="AC59" s="17"/>
+      <c r="AD59" s="17"/>
+      <c r="AE59" s="17"/>
+      <c r="AF59" s="17"/>
+      <c r="AG59" s="17"/>
+      <c r="AH59" s="17"/>
+      <c r="AI59" s="17"/>
+      <c r="AJ59" s="17"/>
+      <c r="AK59" s="17"/>
+      <c r="AL59" s="17"/>
+      <c r="AM59" s="17"/>
+      <c r="AN59" s="17"/>
+      <c r="AO59" s="17"/>
+      <c r="AP59" s="17"/>
+      <c r="AQ59" s="17"/>
+      <c r="AR59" s="17"/>
+      <c r="AS59" s="17"/>
+      <c r="AT59" s="17"/>
+      <c r="AU59" s="17"/>
+      <c r="AV59" s="17"/>
+      <c r="AW59" s="17"/>
+      <c r="AX59" s="17"/>
+      <c r="AY59" s="17"/>
+      <c r="AZ59" s="17"/>
+      <c r="BA59" s="17"/>
+      <c r="BB59" s="17"/>
+      <c r="BC59" s="17"/>
+      <c r="BD59" s="17"/>
+      <c r="BE59" s="17"/>
+      <c r="BF59" s="17"/>
+      <c r="BG59" s="17"/>
+      <c r="BH59" s="17"/>
+      <c r="BI59" s="17"/>
+      <c r="BJ59" s="17"/>
+      <c r="BK59" s="17"/>
+      <c r="BL59" s="17"/>
+    </row>
+    <row r="60" spans="6:64">
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="17"/>
+      <c r="AJ60" s="17"/>
+      <c r="AK60" s="17"/>
+      <c r="AL60" s="17"/>
+      <c r="AM60" s="17"/>
+      <c r="AN60" s="17"/>
+      <c r="AO60" s="17"/>
+      <c r="AP60" s="17"/>
+      <c r="AQ60" s="17"/>
+      <c r="AR60" s="17"/>
+      <c r="AS60" s="17"/>
+      <c r="AT60" s="17"/>
+      <c r="AU60" s="17"/>
+      <c r="AV60" s="17"/>
+      <c r="AW60" s="17"/>
+      <c r="AX60" s="17"/>
+      <c r="AY60" s="17"/>
+      <c r="AZ60" s="17"/>
+      <c r="BA60" s="17"/>
+      <c r="BB60" s="17"/>
+      <c r="BC60" s="17"/>
+      <c r="BD60" s="17"/>
+      <c r="BE60" s="17"/>
+      <c r="BF60" s="17"/>
+      <c r="BG60" s="17"/>
+      <c r="BH60" s="17"/>
+      <c r="BI60" s="17"/>
+      <c r="BJ60" s="17"/>
+      <c r="BK60" s="17"/>
+      <c r="BL60" s="17"/>
+    </row>
+    <row r="61" spans="6:64">
+      <c r="K61" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="6:64">
+      <c r="F62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="6:64">
+      <c r="H63" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="6:64">
+      <c r="H64" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="2:62">
+      <c r="H65" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="2:62">
+      <c r="I66" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="17"/>
+      <c r="AC66" s="17"/>
+      <c r="AD66" s="17"/>
+      <c r="AE66" s="17"/>
+      <c r="AF66" s="17"/>
+      <c r="AG66" s="17"/>
+      <c r="AH66" s="17"/>
+      <c r="AI66" s="17"/>
+      <c r="AJ66" s="17"/>
+      <c r="AK66" s="17"/>
+      <c r="AL66" s="17"/>
+      <c r="AM66" s="17"/>
+      <c r="AN66" s="17"/>
+      <c r="AO66" s="17"/>
+      <c r="AP66" s="17"/>
+      <c r="AQ66" s="17"/>
+      <c r="AR66" s="17"/>
+      <c r="AS66" s="17"/>
+      <c r="AT66" s="17"/>
+      <c r="AU66" s="17"/>
+      <c r="AV66" s="17"/>
+      <c r="AW66" s="17"/>
+      <c r="AX66" s="17"/>
+      <c r="AY66" s="17"/>
+      <c r="AZ66" s="17"/>
+      <c r="BA66" s="17"/>
+      <c r="BB66" s="17"/>
+      <c r="BC66" s="17"/>
+      <c r="BD66" s="17"/>
+      <c r="BE66" s="17"/>
+      <c r="BF66" s="17"/>
+      <c r="BG66" s="17"/>
+      <c r="BH66" s="17"/>
+      <c r="BI66" s="17"/>
+      <c r="BJ66" s="17"/>
+    </row>
+    <row r="67" spans="2:62">
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="17"/>
+      <c r="AC67" s="17"/>
+      <c r="AD67" s="17"/>
+      <c r="AE67" s="17"/>
+      <c r="AF67" s="17"/>
+      <c r="AG67" s="17"/>
+      <c r="AH67" s="17"/>
+      <c r="AI67" s="17"/>
+      <c r="AJ67" s="17"/>
+      <c r="AK67" s="17"/>
+      <c r="AL67" s="17"/>
+      <c r="AM67" s="17"/>
+      <c r="AN67" s="17"/>
+      <c r="AO67" s="17"/>
+      <c r="AP67" s="17"/>
+      <c r="AQ67" s="17"/>
+      <c r="AR67" s="17"/>
+      <c r="AS67" s="17"/>
+      <c r="AT67" s="17"/>
+      <c r="AU67" s="17"/>
+      <c r="AV67" s="17"/>
+      <c r="AW67" s="17"/>
+      <c r="AX67" s="17"/>
+      <c r="AY67" s="17"/>
+      <c r="AZ67" s="17"/>
+      <c r="BA67" s="17"/>
+      <c r="BB67" s="17"/>
+      <c r="BC67" s="17"/>
+      <c r="BD67" s="17"/>
+      <c r="BE67" s="17"/>
+      <c r="BF67" s="17"/>
+      <c r="BG67" s="17"/>
+      <c r="BH67" s="17"/>
+      <c r="BI67" s="17"/>
+      <c r="BJ67" s="17"/>
+    </row>
+    <row r="68" spans="2:62">
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="17"/>
+      <c r="AB68" s="17"/>
+      <c r="AC68" s="17"/>
+      <c r="AD68" s="17"/>
+      <c r="AE68" s="17"/>
+      <c r="AF68" s="17"/>
+      <c r="AG68" s="17"/>
+      <c r="AH68" s="17"/>
+      <c r="AI68" s="17"/>
+      <c r="AJ68" s="17"/>
+      <c r="AK68" s="17"/>
+      <c r="AL68" s="17"/>
+      <c r="AM68" s="17"/>
+      <c r="AN68" s="17"/>
+      <c r="AO68" s="17"/>
+      <c r="AP68" s="17"/>
+      <c r="AQ68" s="17"/>
+      <c r="AR68" s="17"/>
+      <c r="AS68" s="17"/>
+      <c r="AT68" s="17"/>
+      <c r="AU68" s="17"/>
+      <c r="AV68" s="17"/>
+      <c r="AW68" s="17"/>
+      <c r="AX68" s="17"/>
+      <c r="AY68" s="17"/>
+      <c r="AZ68" s="17"/>
+      <c r="BA68" s="17"/>
+      <c r="BB68" s="17"/>
+      <c r="BC68" s="17"/>
+      <c r="BD68" s="17"/>
+      <c r="BE68" s="17"/>
+      <c r="BF68" s="17"/>
+      <c r="BG68" s="17"/>
+      <c r="BH68" s="17"/>
+      <c r="BI68" s="17"/>
+      <c r="BJ68" s="17"/>
+    </row>
+    <row r="69" spans="2:62">
+      <c r="H69" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="2:62">
+      <c r="H70" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="2:62">
+      <c r="C72" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="2:62">
+      <c r="D73" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="2:62">
+      <c r="F74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:65" s="6" customFormat="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="K25" s="6" t="s">
+    <row r="75" spans="2:62">
+      <c r="E75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:65" s="6" customFormat="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="L26" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:65" s="6" customFormat="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="L27" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:65" s="6" customFormat="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="H28" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:65">
-      <c r="C29" s="2"/>
-      <c r="F29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="1" t="s">
+    <row r="76" spans="2:62">
+      <c r="E76" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:65">
-      <c r="C30" s="2"/>
-      <c r="H30" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:65">
-      <c r="C31" s="2"/>
-      <c r="I31" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:65">
-      <c r="C32" s="2"/>
-      <c r="I32" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13">
-      <c r="C33" s="2"/>
-      <c r="J33" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13">
-      <c r="C34" s="2"/>
-      <c r="K34" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13">
-      <c r="C35" s="2"/>
-      <c r="I35" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13">
-      <c r="C36" s="2"/>
-      <c r="J36" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13">
-      <c r="C37" s="2"/>
-      <c r="K37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13">
-      <c r="C38" s="2"/>
-      <c r="L38" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13">
-      <c r="C39" s="2"/>
-      <c r="J39" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13">
-      <c r="C40" s="2"/>
-      <c r="K40" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13">
-      <c r="C41" s="2"/>
-      <c r="L41" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13">
-      <c r="C42" s="2"/>
-      <c r="J42" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13">
-      <c r="C43" s="2"/>
-      <c r="K43" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="3:13">
-      <c r="C44" s="2"/>
-      <c r="L44" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13">
-      <c r="C45" s="2"/>
-      <c r="M45" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13">
-      <c r="C46" s="2"/>
-      <c r="J46" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13">
-      <c r="C47" s="2"/>
-      <c r="K47" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13">
-      <c r="C48" s="2"/>
-      <c r="L48" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14">
-      <c r="C49" s="2"/>
-      <c r="J49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14">
-      <c r="C50" s="2"/>
-      <c r="F50" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14">
-      <c r="C51" s="2"/>
-      <c r="H51" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14">
-      <c r="C52" s="2"/>
-      <c r="I52" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14">
-      <c r="C53" s="2"/>
-      <c r="F53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14">
-      <c r="C54" s="2"/>
-      <c r="H54" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14">
-      <c r="C55" s="2"/>
-      <c r="I55" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14">
-      <c r="C56" s="2"/>
-      <c r="I56" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14">
-      <c r="C57" s="2"/>
-      <c r="I57" s="1" t="s">
+    <row r="78" spans="2:62">
+      <c r="B78" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="2:62">
+      <c r="C79" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="2:62">
+      <c r="D80" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="4:9">
+      <c r="D81" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9">
+      <c r="E82" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9">
+      <c r="F83" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9">
+      <c r="G84" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9">
+      <c r="F85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="4:9">
+      <c r="G86" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="4:9">
+      <c r="F87" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="4:9">
+      <c r="G88" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="4:9">
+      <c r="G89" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="4:9">
+      <c r="G90" s="8"/>
+      <c r="H90" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="4:9">
+      <c r="G91" s="8"/>
+      <c r="H91" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I91" s="8"/>
+    </row>
+    <row r="92" spans="4:9">
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="4:9">
+      <c r="G93" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="4:9">
+      <c r="G94" s="8"/>
+      <c r="H94" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="4:9">
+      <c r="F95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="4:9">
+      <c r="G96" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="F97" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="G98" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="G99" s="11"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="C101" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="D102" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="D103" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="E104" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="F105" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="F106" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="D107" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="E108" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="F109" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="F110" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="H111" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="I112" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="5:14">
+      <c r="J113" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="5:14">
+      <c r="F114" s="7"/>
+      <c r="H114" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="5:14">
+      <c r="I115" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="5:14">
+      <c r="J116" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L116" s="11"/>
+    </row>
+    <row r="117" spans="5:14">
+      <c r="J117" s="8"/>
+      <c r="K117" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L117" s="8"/>
+    </row>
+    <row r="118" spans="5:14">
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="5:14">
+      <c r="J119" s="8"/>
+      <c r="K119" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L119" s="10"/>
+    </row>
+    <row r="120" spans="5:14">
+      <c r="J120" s="8"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="5:14">
+      <c r="J121" s="8"/>
+      <c r="K121" s="11"/>
+      <c r="M121" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="5:14">
+      <c r="J122" s="8"/>
+      <c r="K122" s="11"/>
+      <c r="N122" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="5:14">
+      <c r="J123" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="5:14">
+      <c r="J124" s="10"/>
+      <c r="K124" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="5:14">
+      <c r="J125" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="5:14">
+      <c r="K126" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="5:14">
+      <c r="E127" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="5:14">
+      <c r="F128" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="5:62">
+      <c r="F129" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="5:62">
+      <c r="H130" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="5:62">
+      <c r="I131" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="5:62">
+      <c r="I132" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="5:62">
+      <c r="F133" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="5:62">
+      <c r="F134" s="7"/>
+      <c r="H134" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="5:62">
+      <c r="F135" s="7"/>
+      <c r="I135" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="5:62">
+      <c r="H136" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="5:62">
+      <c r="I137" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
+      <c r="R137" s="17"/>
+      <c r="S137" s="17"/>
+      <c r="T137" s="17"/>
+      <c r="U137" s="17"/>
+      <c r="V137" s="17"/>
+      <c r="W137" s="17"/>
+      <c r="X137" s="17"/>
+      <c r="Y137" s="17"/>
+      <c r="Z137" s="17"/>
+      <c r="AA137" s="17"/>
+      <c r="AB137" s="17"/>
+      <c r="AC137" s="17"/>
+      <c r="AD137" s="17"/>
+      <c r="AE137" s="17"/>
+      <c r="AF137" s="17"/>
+      <c r="AG137" s="17"/>
+      <c r="AH137" s="17"/>
+      <c r="AI137" s="17"/>
+      <c r="AJ137" s="17"/>
+      <c r="AK137" s="17"/>
+      <c r="AL137" s="17"/>
+      <c r="AM137" s="17"/>
+      <c r="AN137" s="17"/>
+      <c r="AO137" s="17"/>
+      <c r="AP137" s="17"/>
+      <c r="AQ137" s="17"/>
+      <c r="AR137" s="17"/>
+      <c r="AS137" s="17"/>
+      <c r="AT137" s="17"/>
+      <c r="AU137" s="17"/>
+      <c r="AV137" s="17"/>
+      <c r="AW137" s="17"/>
+      <c r="AX137" s="17"/>
+      <c r="AY137" s="17"/>
+      <c r="AZ137" s="17"/>
+      <c r="BA137" s="17"/>
+      <c r="BB137" s="17"/>
+      <c r="BC137" s="17"/>
+      <c r="BD137" s="17"/>
+      <c r="BE137" s="17"/>
+      <c r="BF137" s="17"/>
+      <c r="BG137" s="17"/>
+      <c r="BH137" s="17"/>
+      <c r="BI137" s="17"/>
+      <c r="BJ137" s="17"/>
+    </row>
+    <row r="138" spans="5:62">
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
+      <c r="R138" s="17"/>
+      <c r="S138" s="17"/>
+      <c r="T138" s="17"/>
+      <c r="U138" s="17"/>
+      <c r="V138" s="17"/>
+      <c r="W138" s="17"/>
+      <c r="X138" s="17"/>
+      <c r="Y138" s="17"/>
+      <c r="Z138" s="17"/>
+      <c r="AA138" s="17"/>
+      <c r="AB138" s="17"/>
+      <c r="AC138" s="17"/>
+      <c r="AD138" s="17"/>
+      <c r="AE138" s="17"/>
+      <c r="AF138" s="17"/>
+      <c r="AG138" s="17"/>
+      <c r="AH138" s="17"/>
+      <c r="AI138" s="17"/>
+      <c r="AJ138" s="17"/>
+      <c r="AK138" s="17"/>
+      <c r="AL138" s="17"/>
+      <c r="AM138" s="17"/>
+      <c r="AN138" s="17"/>
+      <c r="AO138" s="17"/>
+      <c r="AP138" s="17"/>
+      <c r="AQ138" s="17"/>
+      <c r="AR138" s="17"/>
+      <c r="AS138" s="17"/>
+      <c r="AT138" s="17"/>
+      <c r="AU138" s="17"/>
+      <c r="AV138" s="17"/>
+      <c r="AW138" s="17"/>
+      <c r="AX138" s="17"/>
+      <c r="AY138" s="17"/>
+      <c r="AZ138" s="17"/>
+      <c r="BA138" s="17"/>
+      <c r="BB138" s="17"/>
+      <c r="BC138" s="17"/>
+      <c r="BD138" s="17"/>
+      <c r="BE138" s="17"/>
+      <c r="BF138" s="17"/>
+      <c r="BG138" s="17"/>
+      <c r="BH138" s="17"/>
+      <c r="BI138" s="17"/>
+      <c r="BJ138" s="17"/>
+    </row>
+    <row r="139" spans="5:62">
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
+      <c r="R139" s="17"/>
+      <c r="S139" s="17"/>
+      <c r="T139" s="17"/>
+      <c r="U139" s="17"/>
+      <c r="V139" s="17"/>
+      <c r="W139" s="17"/>
+      <c r="X139" s="17"/>
+      <c r="Y139" s="17"/>
+      <c r="Z139" s="17"/>
+      <c r="AA139" s="17"/>
+      <c r="AB139" s="17"/>
+      <c r="AC139" s="17"/>
+      <c r="AD139" s="17"/>
+      <c r="AE139" s="17"/>
+      <c r="AF139" s="17"/>
+      <c r="AG139" s="17"/>
+      <c r="AH139" s="17"/>
+      <c r="AI139" s="17"/>
+      <c r="AJ139" s="17"/>
+      <c r="AK139" s="17"/>
+      <c r="AL139" s="17"/>
+      <c r="AM139" s="17"/>
+      <c r="AN139" s="17"/>
+      <c r="AO139" s="17"/>
+      <c r="AP139" s="17"/>
+      <c r="AQ139" s="17"/>
+      <c r="AR139" s="17"/>
+      <c r="AS139" s="17"/>
+      <c r="AT139" s="17"/>
+      <c r="AU139" s="17"/>
+      <c r="AV139" s="17"/>
+      <c r="AW139" s="17"/>
+      <c r="AX139" s="17"/>
+      <c r="AY139" s="17"/>
+      <c r="AZ139" s="17"/>
+      <c r="BA139" s="17"/>
+      <c r="BB139" s="17"/>
+      <c r="BC139" s="17"/>
+      <c r="BD139" s="17"/>
+      <c r="BE139" s="17"/>
+      <c r="BF139" s="17"/>
+      <c r="BG139" s="17"/>
+      <c r="BH139" s="17"/>
+      <c r="BI139" s="17"/>
+      <c r="BJ139" s="17"/>
+    </row>
+    <row r="140" spans="5:62">
+      <c r="H140" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="5:62">
+      <c r="F141" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="5:62">
+      <c r="H142" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="5:62">
+      <c r="I143" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="5:62">
+      <c r="E144" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="6" customFormat="1">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="F145" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="6" customFormat="1">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="H146" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="6" customFormat="1">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="I147" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="6" customFormat="1">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="J148" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="B150" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="C151" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="D152" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="D153" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="F154" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="D155" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="F156" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="F157" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="D158" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="F159" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="F160" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="4:59">
+      <c r="D161" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="4:59">
+      <c r="F162" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="17"/>
+      <c r="N162" s="17"/>
+      <c r="O162" s="17"/>
+      <c r="P162" s="17"/>
+      <c r="Q162" s="17"/>
+      <c r="R162" s="17"/>
+      <c r="S162" s="17"/>
+      <c r="T162" s="17"/>
+      <c r="U162" s="17"/>
+      <c r="V162" s="17"/>
+      <c r="W162" s="17"/>
+      <c r="X162" s="17"/>
+      <c r="Y162" s="17"/>
+      <c r="Z162" s="17"/>
+      <c r="AA162" s="17"/>
+      <c r="AB162" s="17"/>
+      <c r="AC162" s="17"/>
+      <c r="AD162" s="17"/>
+      <c r="AE162" s="17"/>
+      <c r="AF162" s="17"/>
+      <c r="AG162" s="17"/>
+      <c r="AH162" s="17"/>
+      <c r="AI162" s="17"/>
+      <c r="AJ162" s="17"/>
+      <c r="AK162" s="17"/>
+      <c r="AL162" s="17"/>
+      <c r="AM162" s="17"/>
+      <c r="AN162" s="17"/>
+      <c r="AO162" s="17"/>
+      <c r="AP162" s="17"/>
+      <c r="AQ162" s="17"/>
+      <c r="AR162" s="17"/>
+      <c r="AS162" s="17"/>
+      <c r="AT162" s="17"/>
+      <c r="AU162" s="17"/>
+      <c r="AV162" s="17"/>
+      <c r="AW162" s="17"/>
+      <c r="AX162" s="17"/>
+      <c r="AY162" s="17"/>
+      <c r="AZ162" s="17"/>
+      <c r="BA162" s="17"/>
+      <c r="BB162" s="17"/>
+      <c r="BC162" s="17"/>
+      <c r="BD162" s="17"/>
+      <c r="BE162" s="17"/>
+      <c r="BF162" s="17"/>
+      <c r="BG162" s="17"/>
+    </row>
+    <row r="163" spans="4:59">
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="17"/>
+      <c r="N163" s="17"/>
+      <c r="O163" s="17"/>
+      <c r="P163" s="17"/>
+      <c r="Q163" s="17"/>
+      <c r="R163" s="17"/>
+      <c r="S163" s="17"/>
+      <c r="T163" s="17"/>
+      <c r="U163" s="17"/>
+      <c r="V163" s="17"/>
+      <c r="W163" s="17"/>
+      <c r="X163" s="17"/>
+      <c r="Y163" s="17"/>
+      <c r="Z163" s="17"/>
+      <c r="AA163" s="17"/>
+      <c r="AB163" s="17"/>
+      <c r="AC163" s="17"/>
+      <c r="AD163" s="17"/>
+      <c r="AE163" s="17"/>
+      <c r="AF163" s="17"/>
+      <c r="AG163" s="17"/>
+      <c r="AH163" s="17"/>
+      <c r="AI163" s="17"/>
+      <c r="AJ163" s="17"/>
+      <c r="AK163" s="17"/>
+      <c r="AL163" s="17"/>
+      <c r="AM163" s="17"/>
+      <c r="AN163" s="17"/>
+      <c r="AO163" s="17"/>
+      <c r="AP163" s="17"/>
+      <c r="AQ163" s="17"/>
+      <c r="AR163" s="17"/>
+      <c r="AS163" s="17"/>
+      <c r="AT163" s="17"/>
+      <c r="AU163" s="17"/>
+      <c r="AV163" s="17"/>
+      <c r="AW163" s="17"/>
+      <c r="AX163" s="17"/>
+      <c r="AY163" s="17"/>
+      <c r="AZ163" s="17"/>
+      <c r="BA163" s="17"/>
+      <c r="BB163" s="17"/>
+      <c r="BC163" s="17"/>
+      <c r="BD163" s="17"/>
+      <c r="BE163" s="17"/>
+      <c r="BF163" s="17"/>
+      <c r="BG163" s="17"/>
+    </row>
+    <row r="164" spans="4:59">
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17"/>
+      <c r="N164" s="17"/>
+      <c r="O164" s="17"/>
+      <c r="P164" s="17"/>
+      <c r="Q164" s="17"/>
+      <c r="R164" s="17"/>
+      <c r="S164" s="17"/>
+      <c r="T164" s="17"/>
+      <c r="U164" s="17"/>
+      <c r="V164" s="17"/>
+      <c r="W164" s="17"/>
+      <c r="X164" s="17"/>
+      <c r="Y164" s="17"/>
+      <c r="Z164" s="17"/>
+      <c r="AA164" s="17"/>
+      <c r="AB164" s="17"/>
+      <c r="AC164" s="17"/>
+      <c r="AD164" s="17"/>
+      <c r="AE164" s="17"/>
+      <c r="AF164" s="17"/>
+      <c r="AG164" s="17"/>
+      <c r="AH164" s="17"/>
+      <c r="AI164" s="17"/>
+      <c r="AJ164" s="17"/>
+      <c r="AK164" s="17"/>
+      <c r="AL164" s="17"/>
+      <c r="AM164" s="17"/>
+      <c r="AN164" s="17"/>
+      <c r="AO164" s="17"/>
+      <c r="AP164" s="17"/>
+      <c r="AQ164" s="17"/>
+      <c r="AR164" s="17"/>
+      <c r="AS164" s="17"/>
+      <c r="AT164" s="17"/>
+      <c r="AU164" s="17"/>
+      <c r="AV164" s="17"/>
+      <c r="AW164" s="17"/>
+      <c r="AX164" s="17"/>
+      <c r="AY164" s="17"/>
+      <c r="AZ164" s="17"/>
+      <c r="BA164" s="17"/>
+      <c r="BB164" s="17"/>
+      <c r="BC164" s="17"/>
+      <c r="BD164" s="17"/>
+      <c r="BE164" s="17"/>
+      <c r="BF164" s="17"/>
+      <c r="BG164" s="17"/>
+    </row>
+    <row r="165" spans="4:59">
+      <c r="D165" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="58" spans="3:14">
-      <c r="C58" s="2"/>
-      <c r="I58" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14">
-      <c r="C59" s="2"/>
-      <c r="H59" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14">
-      <c r="C60" s="2"/>
-      <c r="I60" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14">
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="3:14">
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="3:14">
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="3:14">
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="3:64">
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="3:64">
-      <c r="C66" s="2"/>
-      <c r="J66" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="3:64">
-      <c r="C67" s="2"/>
-      <c r="K67" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
-      <c r="AD67" s="10"/>
-      <c r="AE67" s="10"/>
-      <c r="AF67" s="10"/>
-      <c r="AG67" s="10"/>
-      <c r="AH67" s="10"/>
-      <c r="AI67" s="10"/>
-      <c r="AJ67" s="10"/>
-      <c r="AK67" s="10"/>
-      <c r="AL67" s="10"/>
-      <c r="AM67" s="10"/>
-      <c r="AN67" s="10"/>
-      <c r="AO67" s="10"/>
-      <c r="AP67" s="10"/>
-      <c r="AQ67" s="10"/>
-      <c r="AR67" s="10"/>
-      <c r="AS67" s="10"/>
-      <c r="AT67" s="10"/>
-      <c r="AU67" s="10"/>
-      <c r="AV67" s="10"/>
-      <c r="AW67" s="10"/>
-      <c r="AX67" s="10"/>
-      <c r="AY67" s="10"/>
-      <c r="AZ67" s="10"/>
-      <c r="BA67" s="10"/>
-      <c r="BB67" s="10"/>
-      <c r="BC67" s="10"/>
-      <c r="BD67" s="10"/>
-      <c r="BE67" s="10"/>
-      <c r="BF67" s="10"/>
-      <c r="BG67" s="10"/>
-      <c r="BH67" s="10"/>
-      <c r="BI67" s="10"/>
-      <c r="BJ67" s="10"/>
-      <c r="BK67" s="10"/>
-      <c r="BL67" s="10"/>
-    </row>
-    <row r="68" spans="3:64">
-      <c r="C68" s="2"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="10"/>
-      <c r="AH68" s="10"/>
-      <c r="AI68" s="10"/>
-      <c r="AJ68" s="10"/>
-      <c r="AK68" s="10"/>
-      <c r="AL68" s="10"/>
-      <c r="AM68" s="10"/>
-      <c r="AN68" s="10"/>
-      <c r="AO68" s="10"/>
-      <c r="AP68" s="10"/>
-      <c r="AQ68" s="10"/>
-      <c r="AR68" s="10"/>
-      <c r="AS68" s="10"/>
-      <c r="AT68" s="10"/>
-      <c r="AU68" s="10"/>
-      <c r="AV68" s="10"/>
-      <c r="AW68" s="10"/>
-      <c r="AX68" s="10"/>
-      <c r="AY68" s="10"/>
-      <c r="AZ68" s="10"/>
-      <c r="BA68" s="10"/>
-      <c r="BB68" s="10"/>
-      <c r="BC68" s="10"/>
-      <c r="BD68" s="10"/>
-      <c r="BE68" s="10"/>
-      <c r="BF68" s="10"/>
-      <c r="BG68" s="10"/>
-      <c r="BH68" s="10"/>
-      <c r="BI68" s="10"/>
-      <c r="BJ68" s="10"/>
-      <c r="BK68" s="10"/>
-      <c r="BL68" s="10"/>
-    </row>
-    <row r="69" spans="3:64">
-      <c r="C69" s="2"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
-      <c r="AG69" s="10"/>
-      <c r="AH69" s="10"/>
-      <c r="AI69" s="10"/>
-      <c r="AJ69" s="10"/>
-      <c r="AK69" s="10"/>
-      <c r="AL69" s="10"/>
-      <c r="AM69" s="10"/>
-      <c r="AN69" s="10"/>
-      <c r="AO69" s="10"/>
-      <c r="AP69" s="10"/>
-      <c r="AQ69" s="10"/>
-      <c r="AR69" s="10"/>
-      <c r="AS69" s="10"/>
-      <c r="AT69" s="10"/>
-      <c r="AU69" s="10"/>
-      <c r="AV69" s="10"/>
-      <c r="AW69" s="10"/>
-      <c r="AX69" s="10"/>
-      <c r="AY69" s="10"/>
-      <c r="AZ69" s="10"/>
-      <c r="BA69" s="10"/>
-      <c r="BB69" s="10"/>
-      <c r="BC69" s="10"/>
-      <c r="BD69" s="10"/>
-      <c r="BE69" s="10"/>
-      <c r="BF69" s="10"/>
-      <c r="BG69" s="10"/>
-      <c r="BH69" s="10"/>
-      <c r="BI69" s="10"/>
-      <c r="BJ69" s="10"/>
-      <c r="BK69" s="10"/>
-      <c r="BL69" s="10"/>
-    </row>
-    <row r="70" spans="3:64">
-      <c r="C70" s="2"/>
-      <c r="K70" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="3:64">
-      <c r="C71" s="2"/>
-      <c r="F71" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="3:64">
-      <c r="C72" s="2"/>
-      <c r="H72" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="3:64">
-      <c r="C73" s="2"/>
-      <c r="H73" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="3:64">
-      <c r="C74" s="2"/>
-      <c r="H74" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="3:64">
-      <c r="C75" s="2"/>
-      <c r="I75" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
-      <c r="Y75" s="10"/>
-      <c r="Z75" s="10"/>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="10"/>
-      <c r="AD75" s="10"/>
-      <c r="AE75" s="10"/>
-      <c r="AF75" s="10"/>
-      <c r="AG75" s="10"/>
-      <c r="AH75" s="10"/>
-      <c r="AI75" s="10"/>
-      <c r="AJ75" s="10"/>
-      <c r="AK75" s="10"/>
-      <c r="AL75" s="10"/>
-      <c r="AM75" s="10"/>
-      <c r="AN75" s="10"/>
-      <c r="AO75" s="10"/>
-      <c r="AP75" s="10"/>
-      <c r="AQ75" s="10"/>
-      <c r="AR75" s="10"/>
-      <c r="AS75" s="10"/>
-      <c r="AT75" s="10"/>
-      <c r="AU75" s="10"/>
-      <c r="AV75" s="10"/>
-      <c r="AW75" s="10"/>
-      <c r="AX75" s="10"/>
-      <c r="AY75" s="10"/>
-      <c r="AZ75" s="10"/>
-      <c r="BA75" s="10"/>
-      <c r="BB75" s="10"/>
-      <c r="BC75" s="10"/>
-      <c r="BD75" s="10"/>
-      <c r="BE75" s="10"/>
-      <c r="BF75" s="10"/>
-      <c r="BG75" s="10"/>
-      <c r="BH75" s="10"/>
-      <c r="BI75" s="10"/>
-      <c r="BJ75" s="10"/>
-    </row>
-    <row r="76" spans="3:64">
-      <c r="C76" s="2"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="10"/>
-      <c r="Y76" s="10"/>
-      <c r="Z76" s="10"/>
-      <c r="AA76" s="10"/>
-      <c r="AB76" s="10"/>
-      <c r="AC76" s="10"/>
-      <c r="AD76" s="10"/>
-      <c r="AE76" s="10"/>
-      <c r="AF76" s="10"/>
-      <c r="AG76" s="10"/>
-      <c r="AH76" s="10"/>
-      <c r="AI76" s="10"/>
-      <c r="AJ76" s="10"/>
-      <c r="AK76" s="10"/>
-      <c r="AL76" s="10"/>
-      <c r="AM76" s="10"/>
-      <c r="AN76" s="10"/>
-      <c r="AO76" s="10"/>
-      <c r="AP76" s="10"/>
-      <c r="AQ76" s="10"/>
-      <c r="AR76" s="10"/>
-      <c r="AS76" s="10"/>
-      <c r="AT76" s="10"/>
-      <c r="AU76" s="10"/>
-      <c r="AV76" s="10"/>
-      <c r="AW76" s="10"/>
-      <c r="AX76" s="10"/>
-      <c r="AY76" s="10"/>
-      <c r="AZ76" s="10"/>
-      <c r="BA76" s="10"/>
-      <c r="BB76" s="10"/>
-      <c r="BC76" s="10"/>
-      <c r="BD76" s="10"/>
-      <c r="BE76" s="10"/>
-      <c r="BF76" s="10"/>
-      <c r="BG76" s="10"/>
-      <c r="BH76" s="10"/>
-      <c r="BI76" s="10"/>
-      <c r="BJ76" s="10"/>
-    </row>
-    <row r="77" spans="3:64">
-      <c r="C77" s="2"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-      <c r="X77" s="10"/>
-      <c r="Y77" s="10"/>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="10"/>
-      <c r="AB77" s="10"/>
-      <c r="AC77" s="10"/>
-      <c r="AD77" s="10"/>
-      <c r="AE77" s="10"/>
-      <c r="AF77" s="10"/>
-      <c r="AG77" s="10"/>
-      <c r="AH77" s="10"/>
-      <c r="AI77" s="10"/>
-      <c r="AJ77" s="10"/>
-      <c r="AK77" s="10"/>
-      <c r="AL77" s="10"/>
-      <c r="AM77" s="10"/>
-      <c r="AN77" s="10"/>
-      <c r="AO77" s="10"/>
-      <c r="AP77" s="10"/>
-      <c r="AQ77" s="10"/>
-      <c r="AR77" s="10"/>
-      <c r="AS77" s="10"/>
-      <c r="AT77" s="10"/>
-      <c r="AU77" s="10"/>
-      <c r="AV77" s="10"/>
-      <c r="AW77" s="10"/>
-      <c r="AX77" s="10"/>
-      <c r="AY77" s="10"/>
-      <c r="AZ77" s="10"/>
-      <c r="BA77" s="10"/>
-      <c r="BB77" s="10"/>
-      <c r="BC77" s="10"/>
-      <c r="BD77" s="10"/>
-      <c r="BE77" s="10"/>
-      <c r="BF77" s="10"/>
-      <c r="BG77" s="10"/>
-      <c r="BH77" s="10"/>
-      <c r="BI77" s="10"/>
-      <c r="BJ77" s="10"/>
-    </row>
-    <row r="78" spans="3:64">
-      <c r="C78" s="2"/>
-      <c r="H78" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="3:64">
-      <c r="C79" s="2"/>
-      <c r="H79" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="3:64">
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="3:8">
-      <c r="C81" s="2"/>
-      <c r="D81" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8">
-      <c r="C82" s="2"/>
-      <c r="E82" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8">
-      <c r="C83" s="2"/>
-      <c r="G83" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8">
-      <c r="F84" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8">
-      <c r="F85" s="1" t="s">
-        <v>91</v>
+      <c r="F165" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="4:59">
+      <c r="F166" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="4:59">
+      <c r="F167" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="4:59">
+      <c r="F168" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="169" spans="4:59">
+      <c r="D169" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="4:59">
+      <c r="F170" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="L21:BM23"/>
-    <mergeCell ref="K67:BL69"/>
-    <mergeCell ref="I75:BJ77"/>
+  <mergeCells count="5">
+    <mergeCell ref="L12:BM14"/>
+    <mergeCell ref="K58:BL60"/>
+    <mergeCell ref="I66:BJ68"/>
+    <mergeCell ref="I137:BJ139"/>
+    <mergeCell ref="F162:BG164"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" xr:uid="{846C6FC2-9053-472C-919E-D5634D022ECB}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{846C6FC2-9053-472C-919E-D5634D022ECB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>

--- a/Scala/Reference/Scala_学習.xlsx
+++ b/Scala/Reference/Scala_学習.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Git\Cal_Master\Scala\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3214BE-2561-4EDB-BB66-12E4EB74F476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C0F1F7-D58E-4491-BDD3-6BB38740DA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19440" yWindow="6930" windowWidth="9360" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="376">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -275,10 +275,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>JDKがインストールされているか</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>コマンドプロンプト-[java -version]実行</t>
     <rPh sb="25" eb="27">
       <t>ジッコウ</t>
@@ -334,10 +330,6 @@
     <t>https://www.oracle.com/java/technologies/javase-downloads.html</t>
   </si>
   <si>
-    <t>→JDKインストーラダウンロード</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>JDKインストール</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -554,13 +546,6 @@
     <t>「JDK」-[&lt;No SDK&gt;]展開-[Download JDK]→</t>
     <rPh sb="16" eb="18">
       <t>テンカイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>「Download JDK」ポップアップ-「Vemdor」-[Open/JDK]選択-</t>
-    <rPh sb="40" eb="42">
-      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1496,9 +1481,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Play Framework - Wikipedia</t>
-  </si>
-  <si>
     <t>https://ja.wikipedia.org/wiki/Play_Framework</t>
   </si>
   <si>
@@ -1525,13 +1507,889 @@
   </si>
   <si>
     <t>テンプレートエンジンも以前のGroovyの代わりにScalaが採用されている</t>
+  </si>
+  <si>
+    <t>0からREST APIについて調べてみた - Qiita</t>
+  </si>
+  <si>
+    <t>https://qiita.com/masato44gm/items/dffb8281536ad321fb08</t>
+  </si>
+  <si>
+    <t>REST APIとは</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Webシステムを外部から利用するためのプログラムの呼び出し規約(API)の種類の一つで、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RESTと呼ばれる設計原則に従って策定されたもの</t>
+  </si>
+  <si>
+    <t>RESTそのものは適用範囲の広い抽象的なモデルだが、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RESTful APIでは、URL/URIですべてのリソースを一意に識別し、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セッション管理や状態管理などを行わない(ステートレス)。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>同じURLに対する呼び出しには常に同じ結果が返されることが期待される。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一般的にはRESTの考え方をWeb APIに適用したものをRESTful APIと呼んでいる。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リソースの操作はHTTPメソッドによって指定(取得ならGETメソッド、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>書き込みならPOSTメソッド)され、結果はXMLやHTML、JSONなどで返される。</t>
+  </si>
+  <si>
+    <t>処理結果はHTTPステータスコードで通知するという原則が含まれることもある。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RESTとは</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>REpresentational State Transfer</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RESTの4つの設計原則</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・セッションなどの状態管理を行わない。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・情報を操作する命令の体系が予め定義・共有されている。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・すべての情報は汎用的な構文で一意に識別される。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・情報の内部に、別の情報や(その情報の別の)状態へのリンクを含めることができる。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リソースに対してURLが対応づけられる。</t>
+  </si>
+  <si>
+    <t>そのため、URLが名詞的になることが多い</t>
+  </si>
+  <si>
+    <t>やり取りされる情報はそれ自体で完結して解釈することができる</t>
+  </si>
+  <si>
+    <t>HTTPのGETやPOSTメソッドなど</t>
+  </si>
+  <si>
+    <t>URLやURIなど</t>
+  </si>
+  <si>
+    <t>【Play Framework 2.4】Play Framework導入手順 - もふもふした技術メモ</t>
+  </si>
+  <si>
+    <t>http://mofmof721.hatenablog.com/entry/2015/12/27/002034</t>
+  </si>
+  <si>
+    <t>スタータサンプル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Get started with Lightbend's technologies - Play Scala REST API Example</t>
+  </si>
+  <si>
+    <t>https://developer.lightbend.com/start/?group=play&amp;project=play-samples-play-scala-rest-api-example</t>
+  </si>
+  <si>
+    <t>REST APIサンプル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>JDKのダウンロードとインストール Windows編 | Java好き</t>
+  </si>
+  <si>
+    <t>https://javazuki.com/articles/windows-jdk-install.html</t>
+  </si>
+  <si>
+    <t>JDKは以下を内包する</t>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>JRE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Java Runtime Environment - Wikipedia</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/Java_Runtime_Environment</t>
+  </si>
+  <si>
+    <t>コンピュータシステム上でJavaプラットフォーム用の</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アプリケーションソフトウェア（Javaアプリケーション）を動かせるようにするソフトウェア群</t>
+  </si>
+  <si>
+    <t>JREのソフトウェア群はJava仮想マシン (JVM) と</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アプリケーションプログラミングインタフェース (API) から成り立っている。</t>
+  </si>
+  <si>
+    <t>APIはエディション（プロファイル）に応じて、標準Javaクラスライブラリの集合や</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>拡張ライブラリなどを提供する。</t>
+  </si>
+  <si>
+    <t>javac</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最も基本的なJavaコンパイラ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その他ツール群</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>グン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>→JREだけでもJavaを実行できるが、JDKが無ければコンパイルはできない</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コマンドプロンプト-[javac -version]実行</t>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「Windows x64 Installer」ダウンロード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→インストール</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Installing - 2.3.x</t>
+  </si>
+  <si>
+    <t>https://www.playframework.com/documentation/ja/2.3.x/Installing</t>
+  </si>
+  <si>
+    <t>【初心者でもすぐわかる】JDKのインストール方法 Windows編</t>
+  </si>
+  <si>
+    <t>https://eng-entrance.com/java-install-jdk-windows</t>
+  </si>
+  <si>
+    <t>環境変数設定</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[詳細設定]タブ-[環境変数]-</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コンパネ-[システム]→[システムの詳細設定]→</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[編集]→[新規]-インストールしたbinフォルダパス設定-[OK]→</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「システム環境変数」-[Path]選択-</t>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JAVA_HOME</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「システム環境変数」-「JAVA_HOME」がないことを確認-</t>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[新規]→「変数名:」-[JAVA_HOME]入力-「変数値:」-</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>インストールしたbinフォルダの上位階層までパス設定-[OK]</t>
+    <rPh sb="16" eb="18">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>javac 14.0.1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>◇◇入っている場合、以下、例のように表示</t>
+    <rPh sb="2" eb="3">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>◇◇入っていない場合、コマンドエラーとなる</t>
+    <rPh sb="2" eb="3">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>インストール</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「システム環境変数」-[Path]選択-[編集]に</t>
+    <rPh sb="21" eb="23">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「C:\Program Files (x86)\Common Files\Oracle\Java\javapath」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>以下のような設定が入っていないか確認</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→入っている場合は追加したパスよりも順番を下に設定する</t>
+    <rPh sb="1" eb="2">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JREのみでJDKがインストールされていないか</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java実行確認</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テキストファイルを作成し、名称を「hello.java」に変更、</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>内容を以下とする</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>hello.java</t>
+  </si>
+  <si>
+    <t>public class hello{
+  public static void main(String[] args){
+    System.out.print("Hello");
+  }
+}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コマンドプロンプト-[javac hello.javaファイルパス]実行-</t>
+    <rPh sb="34" eb="36">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[java hello.javaファイルパス]実行-「Hello」表示</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コマンドプロンプトでjavaは通るが，javacが通らない - Qiita</t>
+  </si>
+  <si>
+    <t>https://qiita.com/morifuji551/items/c07815c9905ec21db631</t>
+  </si>
+  <si>
+    <t>※手順後も「javac -version」でエラーとなる場合</t>
+    <rPh sb="1" eb="3">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JAVA_HOMEが効かない！？複数のJDKを切り替えて使うときの問題点 | ぱーくん plus idea</t>
+  </si>
+  <si>
+    <t>https://web.plus-idea.net/2017/04/java_home-swich-jdk/</t>
+  </si>
+  <si>
+    <t>環境変数が設定されていないため、下記の「インストール」手順、</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「環境変数設定」手順を実施する</t>
+    <rPh sb="1" eb="3">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Activatorインストール</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>PlayはTypesafe Activatorと呼ばれるツールを通じて提供されます</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://typesafe.com/platform/getstarted</t>
+  </si>
+  <si>
+    <t>https://www.playframework.com/download</t>
+  </si>
+  <si>
+    <t>Play Framework</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Play Scala Seed Template</t>
+  </si>
+  <si>
+    <t>Scala版のPlay Frameworkテンプレートプロジェクト</t>
+    <rPh sb="5" eb="6">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Getting Started with Play Framework</t>
+  </si>
+  <si>
+    <t>https://www.playframework.com/getting-started</t>
+  </si>
+  <si>
+    <t>コマンドプロンプト-任意ディレクトリ遷移-[sbt new playframework/play-scala-seed.g8]実行-</t>
+    <rPh sb="10" eb="12">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>入力後、Enter押下しても入力値が表示されないが</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>入力は行われている</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※2</t>
+  </si>
+  <si>
+    <t>未入力可</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[error] Use 'last' for the full log.</t>
+  </si>
+  <si>
+    <t>※3</t>
+  </si>
+  <si>
+    <t>[error] java.io.IOException: Unable to delete file: C:～\.gitignore</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>以下エラーが表示されるが無視で可</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「organization [com.example]」-任意入力※2-エラー表示後、完了※3</t>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロジェクト取得</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ルート</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「name [play-scala-seed]:」-任意プロジェクトフォルダ名入力※1-</t>
+    <rPh sb="26" eb="28">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロジェクトフォルダ</t>
+  </si>
+  <si>
+    <t>ディレクトリ構造</t>
+    <rPh sb="6" eb="8">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コマンドプロンプト-プロジェクトフォルダへ移動-</t>
+    <rPh sb="21" eb="23">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[sbt run]実行-(初回のみ)依存関係ダウンロード実施-</t>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「(Server started, use Enter to stop and go back to the console...)」表示→</t>
+    <rPh sb="67" eb="69">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Webブラウザ-「http://localhost:9000」移動→「Welcome to Play!」ページ表示</t>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>GitHub - playframework/play-scala-seed.g8: Play Scala Seed Template: run "sbt new playframework/play-scala-seed.g8"</t>
+  </si>
+  <si>
+    <t>https://github.com/playframework/play-scala-seed.g8</t>
+  </si>
+  <si>
+    <t>REST API</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ビルドツール</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>~2.2.x</t>
+  </si>
+  <si>
+    <t>2.3.x~2.4.x</t>
+  </si>
+  <si>
+    <t>2.5.x~</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>activator</t>
+  </si>
+  <si>
+    <t>sbt</t>
+  </si>
+  <si>
+    <t>Play Framework - Wikipedia</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>play framework 2.7.x の開発環境構築 - たそらぼ</t>
+  </si>
+  <si>
+    <t>https://tasotasoso.hatenablog.com/entry/2019/04/26/004614</t>
+  </si>
+  <si>
+    <t>Play Framework</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Play Frameworkバージョン確認</t>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>build.sbtファイルの「version」項目</t>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://qiita.com/TKR/items/9200ca19e14376b305b5</t>
+  </si>
+  <si>
+    <t>Activator が 2017/05/24 で　EOL を迎える</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>米Typesafe、Webブラウザから利用できるアプリケーション開発ツール「Typesafe Activator 1.0」を公開 | OSDN Magazine</t>
+  </si>
+  <si>
+    <t>https://mag.osdn.jp/13/09/25/160000</t>
+  </si>
+  <si>
+    <t>Activator が EOL を迎えるので、Activator と SBT コマンドの対応表を作成します。 - Qiita</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Activator</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Typesafe Activatorは、JavaおよびScala開発者向けの開発支援ツール</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Webブラウザ経由で操作するGUI、もしくはコマンドラインインターフェイスから利用でき、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>同社の提供する「Typesafe Reactive Platform」や「Play Framework」、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Akkaなどの技術を利用するアプリケーションを開発できる</t>
+  </si>
+  <si>
+    <t>Activatorの終了</t>
+    <rPh sb="10" eb="12">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Play Frameworkビルドツール</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バージョンによってビルドツールが異なる</t>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>上記、Activator終了等により、</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「Download JDK」ポップアップ-「Vemdor」-[Open/JDK]選択※1-</t>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロジェクト作成後のJDK変更</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[Project]パネル-[対象プロジェクト]右クリック-[モジュール設定を開く]-</t>
+    <rPh sb="14" eb="16">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[SDK]-[+]アイコン-[JDKの追加]-対象JDKフォルダ指定</t>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Play Frameworkハンズオン環境構築 - Qiita</t>
+  </si>
+  <si>
+    <t>https://qiita.com/yuichi0301/items/4785e3fe490736d4ee50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1591,16 +2449,28 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1652,11 +2522,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1671,10 +2578,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1683,6 +2590,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1706,13 +2630,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>76213</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>142881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2018,10 +2942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:Z172"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -2318,110 +3242,583 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="C61" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="D62" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="D63" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="D64" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="D66" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="D67" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="3:5">
-      <c r="C65" s="1" t="s">
+    <row r="68" spans="3:8">
+      <c r="D68" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="3:5">
-      <c r="D66" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5">
-      <c r="D67" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5">
-      <c r="D68" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5">
-      <c r="C69" s="1" t="s">
+    <row r="69" spans="3:8">
+      <c r="D69" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="E70" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="E71" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8">
+      <c r="F72" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8">
+      <c r="G73" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8">
+      <c r="H74" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="H75" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="H76" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8">
+      <c r="H77" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="H78" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8">
+      <c r="H79" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8">
+      <c r="H80" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="G81" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8">
+      <c r="H82" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="G83" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="F84" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8">
+      <c r="C85" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
+      <c r="D86" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8">
+      <c r="E87" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="3:5">
-      <c r="D70" s="1" t="s">
+    <row r="88" spans="3:8">
+      <c r="E88" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="3:5">
-      <c r="E71" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="E72" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5">
-      <c r="C73" s="1" t="s">
+    <row r="89" spans="3:8">
+      <c r="C89" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8">
+      <c r="D90" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8">
+      <c r="E91" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8">
+      <c r="C92" s="2"/>
+      <c r="F92" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="C93" s="2"/>
+      <c r="F93" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8">
+      <c r="C94" s="2"/>
+      <c r="F94" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="3:5">
-      <c r="D74" s="1" t="s">
+    <row r="95" spans="3:8">
+      <c r="C95" s="2"/>
+      <c r="F95" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="3:5">
-      <c r="D75" s="1" t="s">
+    <row r="96" spans="3:8">
+      <c r="C96" s="2"/>
+      <c r="F96" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6">
+      <c r="C97" s="2"/>
+      <c r="F97" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="3:5">
-      <c r="E76" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5">
-      <c r="E77" s="1" t="s">
+    <row r="98" spans="3:6">
+      <c r="C98" s="2"/>
+      <c r="D98" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6">
+      <c r="C99" s="2"/>
+      <c r="E99" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6">
+      <c r="C100" s="2"/>
+      <c r="F100" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6">
+      <c r="C101" s="2"/>
+      <c r="F101" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6">
+      <c r="C102" s="2"/>
+      <c r="F102" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6">
+      <c r="C103" s="2"/>
+      <c r="F103" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6">
+      <c r="C104" s="2"/>
+      <c r="F104" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6">
+      <c r="C105" s="2"/>
+      <c r="D105" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6">
+      <c r="C106" s="2"/>
+      <c r="E106" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6">
+      <c r="C107" s="2"/>
+      <c r="F107" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6">
+      <c r="F108" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6">
+      <c r="D109" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6">
+      <c r="E110" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6">
+      <c r="C111" s="2"/>
+      <c r="F111" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6">
+      <c r="C112" s="2"/>
+      <c r="F112" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="3:26">
+      <c r="C113" s="2"/>
+      <c r="F113" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="114" spans="3:26">
+      <c r="C114" s="2"/>
+      <c r="F114" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="115" spans="3:26">
+      <c r="C115" s="2"/>
+      <c r="G115" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="20"/>
+      <c r="Q115" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="19"/>
+      <c r="X115" s="19"/>
+      <c r="Y115" s="19"/>
+      <c r="Z115" s="20"/>
+    </row>
+    <row r="116" spans="3:26">
+      <c r="C116" s="2"/>
+      <c r="G116" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="23"/>
+      <c r="M116" s="23"/>
+      <c r="N116" s="23"/>
+      <c r="O116" s="23"/>
+      <c r="P116" s="24"/>
+      <c r="Q116" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="R116" s="22"/>
+      <c r="S116" s="22"/>
+      <c r="T116" s="22"/>
+      <c r="U116" s="22"/>
+      <c r="V116" s="23"/>
+      <c r="W116" s="23"/>
+      <c r="X116" s="23"/>
+      <c r="Y116" s="23"/>
+      <c r="Z116" s="24"/>
+    </row>
+    <row r="117" spans="3:26">
+      <c r="C117" s="2"/>
+      <c r="G117" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="23"/>
+      <c r="M117" s="23"/>
+      <c r="N117" s="23"/>
+      <c r="O117" s="23"/>
+      <c r="P117" s="24"/>
+      <c r="Q117" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="R117" s="22"/>
+      <c r="S117" s="22"/>
+      <c r="T117" s="22"/>
+      <c r="U117" s="22"/>
+      <c r="V117" s="23"/>
+      <c r="W117" s="23"/>
+      <c r="X117" s="23"/>
+      <c r="Y117" s="23"/>
+      <c r="Z117" s="24"/>
+    </row>
+    <row r="118" spans="3:26">
+      <c r="C118" s="2"/>
+      <c r="G118" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="23"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="23"/>
+      <c r="P118" s="24"/>
+      <c r="Q118" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="R118" s="22"/>
+      <c r="S118" s="22"/>
+      <c r="T118" s="22"/>
+      <c r="U118" s="22"/>
+      <c r="V118" s="23"/>
+      <c r="W118" s="23"/>
+      <c r="X118" s="23"/>
+      <c r="Y118" s="23"/>
+      <c r="Z118" s="24"/>
+    </row>
+    <row r="119" spans="3:26">
+      <c r="C119" s="2"/>
+      <c r="F119" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120" spans="3:26">
+      <c r="G120" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6">
+      <c r="C134" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6">
+      <c r="D135" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="3:5">
-      <c r="E78" s="1" t="s">
+    <row r="136" spans="3:6">
+      <c r="E136" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="3:5">
-      <c r="E79" s="1" t="s">
+    <row r="137" spans="3:6">
+      <c r="E137" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="3:5">
-      <c r="E80" s="1" t="s">
+    <row r="138" spans="3:6">
+      <c r="F138" s="1" t="s">
         <v>223</v>
       </c>
     </row>
+    <row r="139" spans="3:6">
+      <c r="F139" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6">
+      <c r="F140" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6">
+      <c r="F141" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6">
+      <c r="F143" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6">
+      <c r="F144" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="145" spans="5:8">
+      <c r="F145" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="147" spans="5:8">
+      <c r="F147" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="5:8">
+      <c r="F148" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="149" spans="5:8">
+      <c r="F149" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="150" spans="5:8">
+      <c r="E150" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="5:8">
+      <c r="F151" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="152" spans="5:8">
+      <c r="F152" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="153" spans="5:8">
+      <c r="G153" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="154" spans="5:8">
+      <c r="H154" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="155" spans="5:8">
+      <c r="G155" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="5:8">
+      <c r="H156" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="157" spans="5:8">
+      <c r="G157" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="158" spans="5:8">
+      <c r="H158" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="159" spans="5:8">
+      <c r="G159" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="5:8">
+      <c r="F160" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161" spans="4:7">
+      <c r="G161" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="167" spans="4:7">
+      <c r="D167" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="168" spans="4:7">
+      <c r="E168" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="4:7">
+      <c r="F169" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="170" spans="4:7">
+      <c r="D170" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="171" spans="4:7">
+      <c r="E171" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="172" spans="4:7">
+      <c r="F172" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G115:P115"/>
+    <mergeCell ref="Q115:Z115"/>
+  </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2430,10 +3827,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD0DF89-1E31-49AC-94D0-98F20317FDA8}">
-  <dimension ref="A1:BM170"/>
+  <dimension ref="A1:BL260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -2442,1719 +3839,2539 @@
     <col min="3" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:64">
       <c r="A1" s="2" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>環境</v>
       </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:64">
       <c r="B2" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64">
       <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:65">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64">
       <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:64">
       <c r="E5" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:65">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64">
       <c r="E6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:65" s="3" customFormat="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" s="3" customFormat="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="F7" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" s="3" customFormat="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="H8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" s="3" customFormat="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" s="3" customFormat="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="J10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" s="3" customFormat="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="K11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
+      <c r="BD11" s="17"/>
+      <c r="BE11" s="17"/>
+      <c r="BF11" s="17"/>
+      <c r="BG11" s="17"/>
+      <c r="BH11" s="17"/>
+      <c r="BI11" s="17"/>
+      <c r="BJ11" s="17"/>
+      <c r="BK11" s="17"/>
+      <c r="BL11" s="17"/>
+    </row>
+    <row r="12" spans="1:64" s="3" customFormat="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="17"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="17"/>
+      <c r="BD12" s="17"/>
+      <c r="BE12" s="17"/>
+      <c r="BF12" s="17"/>
+      <c r="BG12" s="17"/>
+      <c r="BH12" s="17"/>
+      <c r="BI12" s="17"/>
+      <c r="BJ12" s="17"/>
+      <c r="BK12" s="17"/>
+      <c r="BL12" s="17"/>
+    </row>
+    <row r="13" spans="1:64" s="3" customFormat="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="17"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="17"/>
+      <c r="BD13" s="17"/>
+      <c r="BE13" s="17"/>
+      <c r="BF13" s="17"/>
+      <c r="BG13" s="17"/>
+      <c r="BH13" s="17"/>
+      <c r="BI13" s="17"/>
+      <c r="BJ13" s="17"/>
+      <c r="BK13" s="17"/>
+      <c r="BL13" s="17"/>
+    </row>
+    <row r="14" spans="1:64" s="3" customFormat="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="J14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+      <c r="BJ14" s="14"/>
+      <c r="BK14" s="14"/>
+      <c r="BL14" s="14"/>
+    </row>
+    <row r="15" spans="1:64" s="3" customFormat="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="K15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="14"/>
+      <c r="BL15" s="14"/>
+    </row>
+    <row r="16" spans="1:64" s="3" customFormat="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="K17" s="14"/>
+      <c r="M17" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="K18" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="L19" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="M20" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="K21" s="15"/>
+      <c r="M21" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="K22" s="15"/>
+      <c r="M22" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="K23" s="15"/>
+      <c r="M23" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="3" customFormat="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="I24" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="3" customFormat="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="J25" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="3" customFormat="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="K26" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="3" customFormat="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="L27" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="3" customFormat="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="L28" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="3" customFormat="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="L29" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="3" customFormat="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="J30" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="3" customFormat="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="K31" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="3" customFormat="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="L32" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="3" customFormat="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="L33" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="3" customFormat="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="L34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="3" customFormat="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="M35" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="3" customFormat="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="N36" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="3" customFormat="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="N37" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="3" customFormat="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="M38" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="3" customFormat="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="N39" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="3" customFormat="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="N40" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="3" customFormat="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="N41" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="3" customFormat="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="L42" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="3" customFormat="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="M43" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="3" customFormat="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="N44" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="3" customFormat="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="N45" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="3" customFormat="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="N46" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="3" customFormat="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="O47" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="3" customFormat="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="N48" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:64" s="3" customFormat="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="H49" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:64" s="3" customFormat="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="I50" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:64" s="3" customFormat="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="I51" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:64" s="3" customFormat="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="J52" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:64" s="3" customFormat="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="K53" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="17"/>
+      <c r="AD53" s="17"/>
+      <c r="AE53" s="17"/>
+      <c r="AF53" s="17"/>
+      <c r="AG53" s="17"/>
+      <c r="AH53" s="17"/>
+      <c r="AI53" s="17"/>
+      <c r="AJ53" s="17"/>
+      <c r="AK53" s="17"/>
+      <c r="AL53" s="17"/>
+      <c r="AM53" s="17"/>
+      <c r="AN53" s="17"/>
+      <c r="AO53" s="17"/>
+      <c r="AP53" s="17"/>
+      <c r="AQ53" s="17"/>
+      <c r="AR53" s="17"/>
+      <c r="AS53" s="17"/>
+      <c r="AT53" s="17"/>
+      <c r="AU53" s="17"/>
+      <c r="AV53" s="17"/>
+      <c r="AW53" s="17"/>
+      <c r="AX53" s="17"/>
+      <c r="AY53" s="17"/>
+      <c r="AZ53" s="17"/>
+      <c r="BA53" s="17"/>
+      <c r="BB53" s="17"/>
+      <c r="BC53" s="17"/>
+      <c r="BD53" s="17"/>
+      <c r="BE53" s="17"/>
+      <c r="BF53" s="17"/>
+      <c r="BG53" s="17"/>
+      <c r="BH53" s="17"/>
+      <c r="BI53" s="17"/>
+      <c r="BJ53" s="17"/>
+      <c r="BK53" s="17"/>
+      <c r="BL53" s="17"/>
+    </row>
+    <row r="54" spans="1:64" s="3" customFormat="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="17"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="17"/>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="17"/>
+      <c r="AJ54" s="17"/>
+      <c r="AK54" s="17"/>
+      <c r="AL54" s="17"/>
+      <c r="AM54" s="17"/>
+      <c r="AN54" s="17"/>
+      <c r="AO54" s="17"/>
+      <c r="AP54" s="17"/>
+      <c r="AQ54" s="17"/>
+      <c r="AR54" s="17"/>
+      <c r="AS54" s="17"/>
+      <c r="AT54" s="17"/>
+      <c r="AU54" s="17"/>
+      <c r="AV54" s="17"/>
+      <c r="AW54" s="17"/>
+      <c r="AX54" s="17"/>
+      <c r="AY54" s="17"/>
+      <c r="AZ54" s="17"/>
+      <c r="BA54" s="17"/>
+      <c r="BB54" s="17"/>
+      <c r="BC54" s="17"/>
+      <c r="BD54" s="17"/>
+      <c r="BE54" s="17"/>
+      <c r="BF54" s="17"/>
+      <c r="BG54" s="17"/>
+      <c r="BH54" s="17"/>
+      <c r="BI54" s="17"/>
+      <c r="BJ54" s="17"/>
+      <c r="BK54" s="17"/>
+      <c r="BL54" s="17"/>
+    </row>
+    <row r="55" spans="1:64" s="3" customFormat="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="17"/>
+      <c r="AC55" s="17"/>
+      <c r="AD55" s="17"/>
+      <c r="AE55" s="17"/>
+      <c r="AF55" s="17"/>
+      <c r="AG55" s="17"/>
+      <c r="AH55" s="17"/>
+      <c r="AI55" s="17"/>
+      <c r="AJ55" s="17"/>
+      <c r="AK55" s="17"/>
+      <c r="AL55" s="17"/>
+      <c r="AM55" s="17"/>
+      <c r="AN55" s="17"/>
+      <c r="AO55" s="17"/>
+      <c r="AP55" s="17"/>
+      <c r="AQ55" s="17"/>
+      <c r="AR55" s="17"/>
+      <c r="AS55" s="17"/>
+      <c r="AT55" s="17"/>
+      <c r="AU55" s="17"/>
+      <c r="AV55" s="17"/>
+      <c r="AW55" s="17"/>
+      <c r="AX55" s="17"/>
+      <c r="AY55" s="17"/>
+      <c r="AZ55" s="17"/>
+      <c r="BA55" s="17"/>
+      <c r="BB55" s="17"/>
+      <c r="BC55" s="17"/>
+      <c r="BD55" s="17"/>
+      <c r="BE55" s="17"/>
+      <c r="BF55" s="17"/>
+      <c r="BG55" s="17"/>
+      <c r="BH55" s="17"/>
+      <c r="BI55" s="17"/>
+      <c r="BJ55" s="17"/>
+      <c r="BK55" s="17"/>
+      <c r="BL55" s="17"/>
+    </row>
+    <row r="56" spans="1:64" s="3" customFormat="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="I56" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="15"/>
+      <c r="AH56" s="15"/>
+      <c r="AI56" s="15"/>
+      <c r="AJ56" s="15"/>
+      <c r="AK56" s="15"/>
+      <c r="AL56" s="15"/>
+      <c r="AM56" s="15"/>
+      <c r="AN56" s="15"/>
+      <c r="AO56" s="15"/>
+      <c r="AP56" s="15"/>
+      <c r="AQ56" s="15"/>
+      <c r="AR56" s="15"/>
+      <c r="AS56" s="15"/>
+      <c r="AT56" s="15"/>
+      <c r="AU56" s="15"/>
+      <c r="AV56" s="15"/>
+      <c r="AW56" s="15"/>
+      <c r="AX56" s="15"/>
+      <c r="AY56" s="15"/>
+      <c r="AZ56" s="15"/>
+      <c r="BA56" s="15"/>
+      <c r="BB56" s="15"/>
+      <c r="BC56" s="15"/>
+      <c r="BD56" s="15"/>
+      <c r="BE56" s="15"/>
+      <c r="BF56" s="15"/>
+      <c r="BG56" s="15"/>
+      <c r="BH56" s="15"/>
+      <c r="BI56" s="15"/>
+      <c r="BJ56" s="15"/>
+      <c r="BK56" s="15"/>
+      <c r="BL56" s="15"/>
+    </row>
+    <row r="57" spans="1:64" s="3" customFormat="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="I57" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:64" s="6" customFormat="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="H58" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:64">
+      <c r="F59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:65" s="6" customFormat="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="H8" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:65" s="6" customFormat="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="I9" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:65" s="6" customFormat="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="J10" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:65" s="6" customFormat="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="K11" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:65" s="6" customFormat="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="L12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="15"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
-      <c r="BD12" s="15"/>
-      <c r="BE12" s="15"/>
-      <c r="BF12" s="15"/>
-      <c r="BG12" s="15"/>
-      <c r="BH12" s="15"/>
-      <c r="BI12" s="15"/>
-      <c r="BJ12" s="15"/>
-      <c r="BK12" s="15"/>
-      <c r="BL12" s="15"/>
-      <c r="BM12" s="15"/>
-    </row>
-    <row r="13" spans="1:65" s="6" customFormat="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="15"/>
-      <c r="BF13" s="15"/>
-      <c r="BG13" s="15"/>
-      <c r="BH13" s="15"/>
-      <c r="BI13" s="15"/>
-      <c r="BJ13" s="15"/>
-      <c r="BK13" s="15"/>
-      <c r="BL13" s="15"/>
-      <c r="BM13" s="15"/>
-    </row>
-    <row r="14" spans="1:65" s="6" customFormat="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="15"/>
-      <c r="AY14" s="15"/>
-      <c r="AZ14" s="15"/>
-      <c r="BA14" s="15"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="15"/>
-      <c r="BD14" s="15"/>
-      <c r="BE14" s="15"/>
-      <c r="BF14" s="15"/>
-      <c r="BG14" s="15"/>
-      <c r="BH14" s="15"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="15"/>
-      <c r="BK14" s="15"/>
-      <c r="BL14" s="15"/>
-      <c r="BM14" s="15"/>
-    </row>
-    <row r="15" spans="1:65" s="6" customFormat="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="J15" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:65" s="6" customFormat="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="K16" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="6" customFormat="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="L17" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="6" customFormat="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="L18" s="6" t="s">
+    <row r="60" spans="1:64">
+      <c r="H60" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:64">
+      <c r="I61" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:64">
+      <c r="I62" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:64">
+      <c r="J63" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:64">
+      <c r="K64" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="6:14">
+      <c r="I65" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="6:14">
+      <c r="J66" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="6:14">
+      <c r="K67" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="6:14">
+      <c r="L68" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="6:14">
+      <c r="J69" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="6:14">
+      <c r="K70" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="6:14">
+      <c r="L71" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="6:14">
+      <c r="J72" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="6:14">
+      <c r="K73" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="6:14">
+      <c r="L74" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="6:14">
+      <c r="M75" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="6:14">
+      <c r="J76" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="6:14">
+      <c r="K77" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="6:14">
+      <c r="L78" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="6:14">
+      <c r="J79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="6:14">
+      <c r="F80" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="6:10">
+      <c r="H81" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10">
+      <c r="I82" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="6:10">
+      <c r="F83" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="6:10">
+      <c r="H84" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="6:10">
+      <c r="I85" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="6:10">
+      <c r="I86" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="6:10">
+      <c r="I87" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="6:10">
+      <c r="I88" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="6:10">
+      <c r="H89" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="6:10">
+      <c r="I90" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="6:10">
+      <c r="J96" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="6:64">
+      <c r="K97" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="17"/>
+      <c r="AB97" s="17"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="17"/>
+      <c r="AE97" s="17"/>
+      <c r="AF97" s="17"/>
+      <c r="AG97" s="17"/>
+      <c r="AH97" s="17"/>
+      <c r="AI97" s="17"/>
+      <c r="AJ97" s="17"/>
+      <c r="AK97" s="17"/>
+      <c r="AL97" s="17"/>
+      <c r="AM97" s="17"/>
+      <c r="AN97" s="17"/>
+      <c r="AO97" s="17"/>
+      <c r="AP97" s="17"/>
+      <c r="AQ97" s="17"/>
+      <c r="AR97" s="17"/>
+      <c r="AS97" s="17"/>
+      <c r="AT97" s="17"/>
+      <c r="AU97" s="17"/>
+      <c r="AV97" s="17"/>
+      <c r="AW97" s="17"/>
+      <c r="AX97" s="17"/>
+      <c r="AY97" s="17"/>
+      <c r="AZ97" s="17"/>
+      <c r="BA97" s="17"/>
+      <c r="BB97" s="17"/>
+      <c r="BC97" s="17"/>
+      <c r="BD97" s="17"/>
+      <c r="BE97" s="17"/>
+      <c r="BF97" s="17"/>
+      <c r="BG97" s="17"/>
+      <c r="BH97" s="17"/>
+      <c r="BI97" s="17"/>
+      <c r="BJ97" s="17"/>
+      <c r="BK97" s="17"/>
+      <c r="BL97" s="17"/>
+    </row>
+    <row r="98" spans="6:64">
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="17"/>
+      <c r="X98" s="17"/>
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="17"/>
+      <c r="AB98" s="17"/>
+      <c r="AC98" s="17"/>
+      <c r="AD98" s="17"/>
+      <c r="AE98" s="17"/>
+      <c r="AF98" s="17"/>
+      <c r="AG98" s="17"/>
+      <c r="AH98" s="17"/>
+      <c r="AI98" s="17"/>
+      <c r="AJ98" s="17"/>
+      <c r="AK98" s="17"/>
+      <c r="AL98" s="17"/>
+      <c r="AM98" s="17"/>
+      <c r="AN98" s="17"/>
+      <c r="AO98" s="17"/>
+      <c r="AP98" s="17"/>
+      <c r="AQ98" s="17"/>
+      <c r="AR98" s="17"/>
+      <c r="AS98" s="17"/>
+      <c r="AT98" s="17"/>
+      <c r="AU98" s="17"/>
+      <c r="AV98" s="17"/>
+      <c r="AW98" s="17"/>
+      <c r="AX98" s="17"/>
+      <c r="AY98" s="17"/>
+      <c r="AZ98" s="17"/>
+      <c r="BA98" s="17"/>
+      <c r="BB98" s="17"/>
+      <c r="BC98" s="17"/>
+      <c r="BD98" s="17"/>
+      <c r="BE98" s="17"/>
+      <c r="BF98" s="17"/>
+      <c r="BG98" s="17"/>
+      <c r="BH98" s="17"/>
+      <c r="BI98" s="17"/>
+      <c r="BJ98" s="17"/>
+      <c r="BK98" s="17"/>
+      <c r="BL98" s="17"/>
+    </row>
+    <row r="99" spans="6:64">
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="17"/>
+      <c r="V99" s="17"/>
+      <c r="W99" s="17"/>
+      <c r="X99" s="17"/>
+      <c r="Y99" s="17"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="17"/>
+      <c r="AB99" s="17"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="17"/>
+      <c r="AE99" s="17"/>
+      <c r="AF99" s="17"/>
+      <c r="AG99" s="17"/>
+      <c r="AH99" s="17"/>
+      <c r="AI99" s="17"/>
+      <c r="AJ99" s="17"/>
+      <c r="AK99" s="17"/>
+      <c r="AL99" s="17"/>
+      <c r="AM99" s="17"/>
+      <c r="AN99" s="17"/>
+      <c r="AO99" s="17"/>
+      <c r="AP99" s="17"/>
+      <c r="AQ99" s="17"/>
+      <c r="AR99" s="17"/>
+      <c r="AS99" s="17"/>
+      <c r="AT99" s="17"/>
+      <c r="AU99" s="17"/>
+      <c r="AV99" s="17"/>
+      <c r="AW99" s="17"/>
+      <c r="AX99" s="17"/>
+      <c r="AY99" s="17"/>
+      <c r="AZ99" s="17"/>
+      <c r="BA99" s="17"/>
+      <c r="BB99" s="17"/>
+      <c r="BC99" s="17"/>
+      <c r="BD99" s="17"/>
+      <c r="BE99" s="17"/>
+      <c r="BF99" s="17"/>
+      <c r="BG99" s="17"/>
+      <c r="BH99" s="17"/>
+      <c r="BI99" s="17"/>
+      <c r="BJ99" s="17"/>
+      <c r="BK99" s="17"/>
+      <c r="BL99" s="17"/>
+    </row>
+    <row r="100" spans="6:64">
+      <c r="K100" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="6:64">
+      <c r="H101" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="6:64">
+      <c r="I102" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="103" spans="6:64">
+      <c r="J103" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="104" spans="6:64">
+      <c r="J104" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="105" spans="6:64">
+      <c r="F105" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="6:64">
+      <c r="H106" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="6:64">
+      <c r="H107" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="6:64">
+      <c r="H108" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="6:64">
+      <c r="I109" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="17"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="17"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="17"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="17"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
+      <c r="AJ109" s="17"/>
+      <c r="AK109" s="17"/>
+      <c r="AL109" s="17"/>
+      <c r="AM109" s="17"/>
+      <c r="AN109" s="17"/>
+      <c r="AO109" s="17"/>
+      <c r="AP109" s="17"/>
+      <c r="AQ109" s="17"/>
+      <c r="AR109" s="17"/>
+      <c r="AS109" s="17"/>
+      <c r="AT109" s="17"/>
+      <c r="AU109" s="17"/>
+      <c r="AV109" s="17"/>
+      <c r="AW109" s="17"/>
+      <c r="AX109" s="17"/>
+      <c r="AY109" s="17"/>
+      <c r="AZ109" s="17"/>
+      <c r="BA109" s="17"/>
+      <c r="BB109" s="17"/>
+      <c r="BC109" s="17"/>
+      <c r="BD109" s="17"/>
+      <c r="BE109" s="17"/>
+      <c r="BF109" s="17"/>
+      <c r="BG109" s="17"/>
+      <c r="BH109" s="17"/>
+      <c r="BI109" s="17"/>
+      <c r="BJ109" s="17"/>
+    </row>
+    <row r="110" spans="6:64">
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="17"/>
+      <c r="X110" s="17"/>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="17"/>
+      <c r="AB110" s="17"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="17"/>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="17"/>
+      <c r="AH110" s="17"/>
+      <c r="AI110" s="17"/>
+      <c r="AJ110" s="17"/>
+      <c r="AK110" s="17"/>
+      <c r="AL110" s="17"/>
+      <c r="AM110" s="17"/>
+      <c r="AN110" s="17"/>
+      <c r="AO110" s="17"/>
+      <c r="AP110" s="17"/>
+      <c r="AQ110" s="17"/>
+      <c r="AR110" s="17"/>
+      <c r="AS110" s="17"/>
+      <c r="AT110" s="17"/>
+      <c r="AU110" s="17"/>
+      <c r="AV110" s="17"/>
+      <c r="AW110" s="17"/>
+      <c r="AX110" s="17"/>
+      <c r="AY110" s="17"/>
+      <c r="AZ110" s="17"/>
+      <c r="BA110" s="17"/>
+      <c r="BB110" s="17"/>
+      <c r="BC110" s="17"/>
+      <c r="BD110" s="17"/>
+      <c r="BE110" s="17"/>
+      <c r="BF110" s="17"/>
+      <c r="BG110" s="17"/>
+      <c r="BH110" s="17"/>
+      <c r="BI110" s="17"/>
+      <c r="BJ110" s="17"/>
+    </row>
+    <row r="111" spans="6:64">
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="17"/>
+      <c r="V111" s="17"/>
+      <c r="W111" s="17"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="17"/>
+      <c r="AB111" s="17"/>
+      <c r="AC111" s="17"/>
+      <c r="AD111" s="17"/>
+      <c r="AE111" s="17"/>
+      <c r="AF111" s="17"/>
+      <c r="AG111" s="17"/>
+      <c r="AH111" s="17"/>
+      <c r="AI111" s="17"/>
+      <c r="AJ111" s="17"/>
+      <c r="AK111" s="17"/>
+      <c r="AL111" s="17"/>
+      <c r="AM111" s="17"/>
+      <c r="AN111" s="17"/>
+      <c r="AO111" s="17"/>
+      <c r="AP111" s="17"/>
+      <c r="AQ111" s="17"/>
+      <c r="AR111" s="17"/>
+      <c r="AS111" s="17"/>
+      <c r="AT111" s="17"/>
+      <c r="AU111" s="17"/>
+      <c r="AV111" s="17"/>
+      <c r="AW111" s="17"/>
+      <c r="AX111" s="17"/>
+      <c r="AY111" s="17"/>
+      <c r="AZ111" s="17"/>
+      <c r="BA111" s="17"/>
+      <c r="BB111" s="17"/>
+      <c r="BC111" s="17"/>
+      <c r="BD111" s="17"/>
+      <c r="BE111" s="17"/>
+      <c r="BF111" s="17"/>
+      <c r="BG111" s="17"/>
+      <c r="BH111" s="17"/>
+      <c r="BI111" s="17"/>
+      <c r="BJ111" s="17"/>
+    </row>
+    <row r="112" spans="6:64">
+      <c r="H112" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="H113" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="C115" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="D116" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="F117" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="E118" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="E119" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="C122" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="D123" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="D124" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="E125" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="F126" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="G127" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="F128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="G129" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="F130" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="G131" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9">
+      <c r="G132" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="G133" s="8"/>
+      <c r="H133" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="G134" s="8"/>
+      <c r="H134" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I134" s="8"/>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="G136" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H136" s="8"/>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="G137" s="8"/>
+      <c r="H137" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="F138" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="G139" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="F140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="G141" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="G142" s="11"/>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="C144" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="4:12">
+      <c r="D145" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="4:12">
+      <c r="D146" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="4:12">
+      <c r="E147" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="148" spans="4:12">
+      <c r="F148" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="4:12">
+      <c r="F149" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="150" spans="4:12">
+      <c r="D150" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="4:12">
+      <c r="E151" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="4:12">
+      <c r="F152" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="6" customFormat="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="H19" s="3" t="s">
+      <c r="H152" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="4:12">
+      <c r="F153" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="4:12">
+      <c r="H154" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="4:12">
+      <c r="I155" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="156" spans="4:12">
+      <c r="J156" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="4:12">
+      <c r="F157" s="7"/>
+      <c r="H157" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="4:12">
+      <c r="I158" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="159" spans="4:12">
+      <c r="J159" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L159" s="11"/>
+    </row>
+    <row r="160" spans="4:12">
+      <c r="J160" s="8"/>
+      <c r="K160" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L160" s="8"/>
+    </row>
+    <row r="161" spans="5:14">
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" spans="5:14">
+      <c r="J162" s="8"/>
+      <c r="K162" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L162" s="10"/>
+    </row>
+    <row r="163" spans="5:14">
+      <c r="J163" s="8"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="5:14">
+      <c r="J164" s="8"/>
+      <c r="K164" s="11"/>
+      <c r="M164" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="5:14">
+      <c r="J165" s="8"/>
+      <c r="K165" s="11"/>
+      <c r="N165" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="5:14">
+      <c r="J166" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="5:14">
+      <c r="J167" s="10"/>
+      <c r="K167" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="5:14">
+      <c r="J168" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="5:14">
+      <c r="K169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="5:14">
+      <c r="E170" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="5:14">
+      <c r="F171" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="172" spans="5:14">
+      <c r="F172" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="5:14">
+      <c r="H173" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="5:14">
+      <c r="I174" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="5:14">
+      <c r="I175" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="5:14">
+      <c r="F176" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="1:62">
+      <c r="F177" s="7"/>
+      <c r="H177" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:62">
+      <c r="F178" s="7"/>
+      <c r="I178" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="1:62">
+      <c r="H179" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:62">
+      <c r="I180" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="J180" s="17"/>
+      <c r="K180" s="17"/>
+      <c r="L180" s="17"/>
+      <c r="M180" s="17"/>
+      <c r="N180" s="17"/>
+      <c r="O180" s="17"/>
+      <c r="P180" s="17"/>
+      <c r="Q180" s="17"/>
+      <c r="R180" s="17"/>
+      <c r="S180" s="17"/>
+      <c r="T180" s="17"/>
+      <c r="U180" s="17"/>
+      <c r="V180" s="17"/>
+      <c r="W180" s="17"/>
+      <c r="X180" s="17"/>
+      <c r="Y180" s="17"/>
+      <c r="Z180" s="17"/>
+      <c r="AA180" s="17"/>
+      <c r="AB180" s="17"/>
+      <c r="AC180" s="17"/>
+      <c r="AD180" s="17"/>
+      <c r="AE180" s="17"/>
+      <c r="AF180" s="17"/>
+      <c r="AG180" s="17"/>
+      <c r="AH180" s="17"/>
+      <c r="AI180" s="17"/>
+      <c r="AJ180" s="17"/>
+      <c r="AK180" s="17"/>
+      <c r="AL180" s="17"/>
+      <c r="AM180" s="17"/>
+      <c r="AN180" s="17"/>
+      <c r="AO180" s="17"/>
+      <c r="AP180" s="17"/>
+      <c r="AQ180" s="17"/>
+      <c r="AR180" s="17"/>
+      <c r="AS180" s="17"/>
+      <c r="AT180" s="17"/>
+      <c r="AU180" s="17"/>
+      <c r="AV180" s="17"/>
+      <c r="AW180" s="17"/>
+      <c r="AX180" s="17"/>
+      <c r="AY180" s="17"/>
+      <c r="AZ180" s="17"/>
+      <c r="BA180" s="17"/>
+      <c r="BB180" s="17"/>
+      <c r="BC180" s="17"/>
+      <c r="BD180" s="17"/>
+      <c r="BE180" s="17"/>
+      <c r="BF180" s="17"/>
+      <c r="BG180" s="17"/>
+      <c r="BH180" s="17"/>
+      <c r="BI180" s="17"/>
+      <c r="BJ180" s="17"/>
+    </row>
+    <row r="181" spans="1:62">
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
+      <c r="M181" s="17"/>
+      <c r="N181" s="17"/>
+      <c r="O181" s="17"/>
+      <c r="P181" s="17"/>
+      <c r="Q181" s="17"/>
+      <c r="R181" s="17"/>
+      <c r="S181" s="17"/>
+      <c r="T181" s="17"/>
+      <c r="U181" s="17"/>
+      <c r="V181" s="17"/>
+      <c r="W181" s="17"/>
+      <c r="X181" s="17"/>
+      <c r="Y181" s="17"/>
+      <c r="Z181" s="17"/>
+      <c r="AA181" s="17"/>
+      <c r="AB181" s="17"/>
+      <c r="AC181" s="17"/>
+      <c r="AD181" s="17"/>
+      <c r="AE181" s="17"/>
+      <c r="AF181" s="17"/>
+      <c r="AG181" s="17"/>
+      <c r="AH181" s="17"/>
+      <c r="AI181" s="17"/>
+      <c r="AJ181" s="17"/>
+      <c r="AK181" s="17"/>
+      <c r="AL181" s="17"/>
+      <c r="AM181" s="17"/>
+      <c r="AN181" s="17"/>
+      <c r="AO181" s="17"/>
+      <c r="AP181" s="17"/>
+      <c r="AQ181" s="17"/>
+      <c r="AR181" s="17"/>
+      <c r="AS181" s="17"/>
+      <c r="AT181" s="17"/>
+      <c r="AU181" s="17"/>
+      <c r="AV181" s="17"/>
+      <c r="AW181" s="17"/>
+      <c r="AX181" s="17"/>
+      <c r="AY181" s="17"/>
+      <c r="AZ181" s="17"/>
+      <c r="BA181" s="17"/>
+      <c r="BB181" s="17"/>
+      <c r="BC181" s="17"/>
+      <c r="BD181" s="17"/>
+      <c r="BE181" s="17"/>
+      <c r="BF181" s="17"/>
+      <c r="BG181" s="17"/>
+      <c r="BH181" s="17"/>
+      <c r="BI181" s="17"/>
+      <c r="BJ181" s="17"/>
+    </row>
+    <row r="182" spans="1:62">
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="17"/>
+      <c r="M182" s="17"/>
+      <c r="N182" s="17"/>
+      <c r="O182" s="17"/>
+      <c r="P182" s="17"/>
+      <c r="Q182" s="17"/>
+      <c r="R182" s="17"/>
+      <c r="S182" s="17"/>
+      <c r="T182" s="17"/>
+      <c r="U182" s="17"/>
+      <c r="V182" s="17"/>
+      <c r="W182" s="17"/>
+      <c r="X182" s="17"/>
+      <c r="Y182" s="17"/>
+      <c r="Z182" s="17"/>
+      <c r="AA182" s="17"/>
+      <c r="AB182" s="17"/>
+      <c r="AC182" s="17"/>
+      <c r="AD182" s="17"/>
+      <c r="AE182" s="17"/>
+      <c r="AF182" s="17"/>
+      <c r="AG182" s="17"/>
+      <c r="AH182" s="17"/>
+      <c r="AI182" s="17"/>
+      <c r="AJ182" s="17"/>
+      <c r="AK182" s="17"/>
+      <c r="AL182" s="17"/>
+      <c r="AM182" s="17"/>
+      <c r="AN182" s="17"/>
+      <c r="AO182" s="17"/>
+      <c r="AP182" s="17"/>
+      <c r="AQ182" s="17"/>
+      <c r="AR182" s="17"/>
+      <c r="AS182" s="17"/>
+      <c r="AT182" s="17"/>
+      <c r="AU182" s="17"/>
+      <c r="AV182" s="17"/>
+      <c r="AW182" s="17"/>
+      <c r="AX182" s="17"/>
+      <c r="AY182" s="17"/>
+      <c r="AZ182" s="17"/>
+      <c r="BA182" s="17"/>
+      <c r="BB182" s="17"/>
+      <c r="BC182" s="17"/>
+      <c r="BD182" s="17"/>
+      <c r="BE182" s="17"/>
+      <c r="BF182" s="17"/>
+      <c r="BG182" s="17"/>
+      <c r="BH182" s="17"/>
+      <c r="BI182" s="17"/>
+      <c r="BJ182" s="17"/>
+    </row>
+    <row r="183" spans="1:62">
+      <c r="H183" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:62">
+      <c r="F184" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:62">
+      <c r="H185" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:62">
+      <c r="I186" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:62">
+      <c r="E187" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:62" s="6" customFormat="1">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="F188" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:62" s="6" customFormat="1">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="H189" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:62" s="6" customFormat="1">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="I190" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:62" s="6" customFormat="1">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="J191" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="2:59">
+      <c r="B193" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="2:59">
+      <c r="C194" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="2:59">
+      <c r="D195" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="196" spans="2:59">
+      <c r="D196" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="2:59">
+      <c r="F197" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="2:59">
+      <c r="D198" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="2:59">
+      <c r="F199" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="2:59">
+      <c r="F200" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="2:59">
+      <c r="D201" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="2:59">
+      <c r="F202" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="2:59">
+      <c r="F203" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="2:59">
+      <c r="D204" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="2:59">
+      <c r="F205" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17"/>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
+      <c r="K205" s="17"/>
+      <c r="L205" s="17"/>
+      <c r="M205" s="17"/>
+      <c r="N205" s="17"/>
+      <c r="O205" s="17"/>
+      <c r="P205" s="17"/>
+      <c r="Q205" s="17"/>
+      <c r="R205" s="17"/>
+      <c r="S205" s="17"/>
+      <c r="T205" s="17"/>
+      <c r="U205" s="17"/>
+      <c r="V205" s="17"/>
+      <c r="W205" s="17"/>
+      <c r="X205" s="17"/>
+      <c r="Y205" s="17"/>
+      <c r="Z205" s="17"/>
+      <c r="AA205" s="17"/>
+      <c r="AB205" s="17"/>
+      <c r="AC205" s="17"/>
+      <c r="AD205" s="17"/>
+      <c r="AE205" s="17"/>
+      <c r="AF205" s="17"/>
+      <c r="AG205" s="17"/>
+      <c r="AH205" s="17"/>
+      <c r="AI205" s="17"/>
+      <c r="AJ205" s="17"/>
+      <c r="AK205" s="17"/>
+      <c r="AL205" s="17"/>
+      <c r="AM205" s="17"/>
+      <c r="AN205" s="17"/>
+      <c r="AO205" s="17"/>
+      <c r="AP205" s="17"/>
+      <c r="AQ205" s="17"/>
+      <c r="AR205" s="17"/>
+      <c r="AS205" s="17"/>
+      <c r="AT205" s="17"/>
+      <c r="AU205" s="17"/>
+      <c r="AV205" s="17"/>
+      <c r="AW205" s="17"/>
+      <c r="AX205" s="17"/>
+      <c r="AY205" s="17"/>
+      <c r="AZ205" s="17"/>
+      <c r="BA205" s="17"/>
+      <c r="BB205" s="17"/>
+      <c r="BC205" s="17"/>
+      <c r="BD205" s="17"/>
+      <c r="BE205" s="17"/>
+      <c r="BF205" s="17"/>
+      <c r="BG205" s="17"/>
+    </row>
+    <row r="206" spans="2:59">
+      <c r="F206" s="17"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="17"/>
+      <c r="I206" s="17"/>
+      <c r="J206" s="17"/>
+      <c r="K206" s="17"/>
+      <c r="L206" s="17"/>
+      <c r="M206" s="17"/>
+      <c r="N206" s="17"/>
+      <c r="O206" s="17"/>
+      <c r="P206" s="17"/>
+      <c r="Q206" s="17"/>
+      <c r="R206" s="17"/>
+      <c r="S206" s="17"/>
+      <c r="T206" s="17"/>
+      <c r="U206" s="17"/>
+      <c r="V206" s="17"/>
+      <c r="W206" s="17"/>
+      <c r="X206" s="17"/>
+      <c r="Y206" s="17"/>
+      <c r="Z206" s="17"/>
+      <c r="AA206" s="17"/>
+      <c r="AB206" s="17"/>
+      <c r="AC206" s="17"/>
+      <c r="AD206" s="17"/>
+      <c r="AE206" s="17"/>
+      <c r="AF206" s="17"/>
+      <c r="AG206" s="17"/>
+      <c r="AH206" s="17"/>
+      <c r="AI206" s="17"/>
+      <c r="AJ206" s="17"/>
+      <c r="AK206" s="17"/>
+      <c r="AL206" s="17"/>
+      <c r="AM206" s="17"/>
+      <c r="AN206" s="17"/>
+      <c r="AO206" s="17"/>
+      <c r="AP206" s="17"/>
+      <c r="AQ206" s="17"/>
+      <c r="AR206" s="17"/>
+      <c r="AS206" s="17"/>
+      <c r="AT206" s="17"/>
+      <c r="AU206" s="17"/>
+      <c r="AV206" s="17"/>
+      <c r="AW206" s="17"/>
+      <c r="AX206" s="17"/>
+      <c r="AY206" s="17"/>
+      <c r="AZ206" s="17"/>
+      <c r="BA206" s="17"/>
+      <c r="BB206" s="17"/>
+      <c r="BC206" s="17"/>
+      <c r="BD206" s="17"/>
+      <c r="BE206" s="17"/>
+      <c r="BF206" s="17"/>
+      <c r="BG206" s="17"/>
+    </row>
+    <row r="207" spans="2:59">
+      <c r="F207" s="17"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
+      <c r="I207" s="17"/>
+      <c r="J207" s="17"/>
+      <c r="K207" s="17"/>
+      <c r="L207" s="17"/>
+      <c r="M207" s="17"/>
+      <c r="N207" s="17"/>
+      <c r="O207" s="17"/>
+      <c r="P207" s="17"/>
+      <c r="Q207" s="17"/>
+      <c r="R207" s="17"/>
+      <c r="S207" s="17"/>
+      <c r="T207" s="17"/>
+      <c r="U207" s="17"/>
+      <c r="V207" s="17"/>
+      <c r="W207" s="17"/>
+      <c r="X207" s="17"/>
+      <c r="Y207" s="17"/>
+      <c r="Z207" s="17"/>
+      <c r="AA207" s="17"/>
+      <c r="AB207" s="17"/>
+      <c r="AC207" s="17"/>
+      <c r="AD207" s="17"/>
+      <c r="AE207" s="17"/>
+      <c r="AF207" s="17"/>
+      <c r="AG207" s="17"/>
+      <c r="AH207" s="17"/>
+      <c r="AI207" s="17"/>
+      <c r="AJ207" s="17"/>
+      <c r="AK207" s="17"/>
+      <c r="AL207" s="17"/>
+      <c r="AM207" s="17"/>
+      <c r="AN207" s="17"/>
+      <c r="AO207" s="17"/>
+      <c r="AP207" s="17"/>
+      <c r="AQ207" s="17"/>
+      <c r="AR207" s="17"/>
+      <c r="AS207" s="17"/>
+      <c r="AT207" s="17"/>
+      <c r="AU207" s="17"/>
+      <c r="AV207" s="17"/>
+      <c r="AW207" s="17"/>
+      <c r="AX207" s="17"/>
+      <c r="AY207" s="17"/>
+      <c r="AZ207" s="17"/>
+      <c r="BA207" s="17"/>
+      <c r="BB207" s="17"/>
+      <c r="BC207" s="17"/>
+      <c r="BD207" s="17"/>
+      <c r="BE207" s="17"/>
+      <c r="BF207" s="17"/>
+      <c r="BG207" s="17"/>
+    </row>
+    <row r="208" spans="2:59">
+      <c r="D208" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="F20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="H21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="I22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="I23" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="J24" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="K25" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="I26" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="J27" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="K28" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="L29" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="J30" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="K31" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="L32" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="6:14">
-      <c r="J33" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="6:14">
-      <c r="K34" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="6:14">
-      <c r="L35" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="6:14">
-      <c r="M36" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="6:14">
-      <c r="J37" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="6:14">
-      <c r="K38" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="6:14">
-      <c r="L39" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="6:14">
-      <c r="J40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="6:14">
-      <c r="F41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="6:14">
-      <c r="H42" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="6:14">
-      <c r="I43" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="6:14">
-      <c r="F44" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="6:14">
-      <c r="H45" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="6:14">
-      <c r="I46" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="6:14">
-      <c r="I47" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="6:14">
-      <c r="I48" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="6:64">
-      <c r="I49" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="6:64">
-      <c r="H50" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="6:64">
-      <c r="I51" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="6:64">
-      <c r="J57" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="6:64">
-      <c r="K58" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="17"/>
-      <c r="AB58" s="17"/>
-      <c r="AC58" s="17"/>
-      <c r="AD58" s="17"/>
-      <c r="AE58" s="17"/>
-      <c r="AF58" s="17"/>
-      <c r="AG58" s="17"/>
-      <c r="AH58" s="17"/>
-      <c r="AI58" s="17"/>
-      <c r="AJ58" s="17"/>
-      <c r="AK58" s="17"/>
-      <c r="AL58" s="17"/>
-      <c r="AM58" s="17"/>
-      <c r="AN58" s="17"/>
-      <c r="AO58" s="17"/>
-      <c r="AP58" s="17"/>
-      <c r="AQ58" s="17"/>
-      <c r="AR58" s="17"/>
-      <c r="AS58" s="17"/>
-      <c r="AT58" s="17"/>
-      <c r="AU58" s="17"/>
-      <c r="AV58" s="17"/>
-      <c r="AW58" s="17"/>
-      <c r="AX58" s="17"/>
-      <c r="AY58" s="17"/>
-      <c r="AZ58" s="17"/>
-      <c r="BA58" s="17"/>
-      <c r="BB58" s="17"/>
-      <c r="BC58" s="17"/>
-      <c r="BD58" s="17"/>
-      <c r="BE58" s="17"/>
-      <c r="BF58" s="17"/>
-      <c r="BG58" s="17"/>
-      <c r="BH58" s="17"/>
-      <c r="BI58" s="17"/>
-      <c r="BJ58" s="17"/>
-      <c r="BK58" s="17"/>
-      <c r="BL58" s="17"/>
-    </row>
-    <row r="59" spans="6:64">
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="17"/>
-      <c r="AC59" s="17"/>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="17"/>
-      <c r="AF59" s="17"/>
-      <c r="AG59" s="17"/>
-      <c r="AH59" s="17"/>
-      <c r="AI59" s="17"/>
-      <c r="AJ59" s="17"/>
-      <c r="AK59" s="17"/>
-      <c r="AL59" s="17"/>
-      <c r="AM59" s="17"/>
-      <c r="AN59" s="17"/>
-      <c r="AO59" s="17"/>
-      <c r="AP59" s="17"/>
-      <c r="AQ59" s="17"/>
-      <c r="AR59" s="17"/>
-      <c r="AS59" s="17"/>
-      <c r="AT59" s="17"/>
-      <c r="AU59" s="17"/>
-      <c r="AV59" s="17"/>
-      <c r="AW59" s="17"/>
-      <c r="AX59" s="17"/>
-      <c r="AY59" s="17"/>
-      <c r="AZ59" s="17"/>
-      <c r="BA59" s="17"/>
-      <c r="BB59" s="17"/>
-      <c r="BC59" s="17"/>
-      <c r="BD59" s="17"/>
-      <c r="BE59" s="17"/>
-      <c r="BF59" s="17"/>
-      <c r="BG59" s="17"/>
-      <c r="BH59" s="17"/>
-      <c r="BI59" s="17"/>
-      <c r="BJ59" s="17"/>
-      <c r="BK59" s="17"/>
-      <c r="BL59" s="17"/>
-    </row>
-    <row r="60" spans="6:64">
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="17"/>
-      <c r="AA60" s="17"/>
-      <c r="AB60" s="17"/>
-      <c r="AC60" s="17"/>
-      <c r="AD60" s="17"/>
-      <c r="AE60" s="17"/>
-      <c r="AF60" s="17"/>
-      <c r="AG60" s="17"/>
-      <c r="AH60" s="17"/>
-      <c r="AI60" s="17"/>
-      <c r="AJ60" s="17"/>
-      <c r="AK60" s="17"/>
-      <c r="AL60" s="17"/>
-      <c r="AM60" s="17"/>
-      <c r="AN60" s="17"/>
-      <c r="AO60" s="17"/>
-      <c r="AP60" s="17"/>
-      <c r="AQ60" s="17"/>
-      <c r="AR60" s="17"/>
-      <c r="AS60" s="17"/>
-      <c r="AT60" s="17"/>
-      <c r="AU60" s="17"/>
-      <c r="AV60" s="17"/>
-      <c r="AW60" s="17"/>
-      <c r="AX60" s="17"/>
-      <c r="AY60" s="17"/>
-      <c r="AZ60" s="17"/>
-      <c r="BA60" s="17"/>
-      <c r="BB60" s="17"/>
-      <c r="BC60" s="17"/>
-      <c r="BD60" s="17"/>
-      <c r="BE60" s="17"/>
-      <c r="BF60" s="17"/>
-      <c r="BG60" s="17"/>
-      <c r="BH60" s="17"/>
-      <c r="BI60" s="17"/>
-      <c r="BJ60" s="17"/>
-      <c r="BK60" s="17"/>
-      <c r="BL60" s="17"/>
-    </row>
-    <row r="61" spans="6:64">
-      <c r="K61" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="6:64">
-      <c r="F62" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="6:64">
-      <c r="H63" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="6:64">
-      <c r="H64" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="2:62">
-      <c r="H65" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="2:62">
-      <c r="I66" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
-      <c r="Z66" s="17"/>
-      <c r="AA66" s="17"/>
-      <c r="AB66" s="17"/>
-      <c r="AC66" s="17"/>
-      <c r="AD66" s="17"/>
-      <c r="AE66" s="17"/>
-      <c r="AF66" s="17"/>
-      <c r="AG66" s="17"/>
-      <c r="AH66" s="17"/>
-      <c r="AI66" s="17"/>
-      <c r="AJ66" s="17"/>
-      <c r="AK66" s="17"/>
-      <c r="AL66" s="17"/>
-      <c r="AM66" s="17"/>
-      <c r="AN66" s="17"/>
-      <c r="AO66" s="17"/>
-      <c r="AP66" s="17"/>
-      <c r="AQ66" s="17"/>
-      <c r="AR66" s="17"/>
-      <c r="AS66" s="17"/>
-      <c r="AT66" s="17"/>
-      <c r="AU66" s="17"/>
-      <c r="AV66" s="17"/>
-      <c r="AW66" s="17"/>
-      <c r="AX66" s="17"/>
-      <c r="AY66" s="17"/>
-      <c r="AZ66" s="17"/>
-      <c r="BA66" s="17"/>
-      <c r="BB66" s="17"/>
-      <c r="BC66" s="17"/>
-      <c r="BD66" s="17"/>
-      <c r="BE66" s="17"/>
-      <c r="BF66" s="17"/>
-      <c r="BG66" s="17"/>
-      <c r="BH66" s="17"/>
-      <c r="BI66" s="17"/>
-      <c r="BJ66" s="17"/>
-    </row>
-    <row r="67" spans="2:62">
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="17"/>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
-      <c r="Z67" s="17"/>
-      <c r="AA67" s="17"/>
-      <c r="AB67" s="17"/>
-      <c r="AC67" s="17"/>
-      <c r="AD67" s="17"/>
-      <c r="AE67" s="17"/>
-      <c r="AF67" s="17"/>
-      <c r="AG67" s="17"/>
-      <c r="AH67" s="17"/>
-      <c r="AI67" s="17"/>
-      <c r="AJ67" s="17"/>
-      <c r="AK67" s="17"/>
-      <c r="AL67" s="17"/>
-      <c r="AM67" s="17"/>
-      <c r="AN67" s="17"/>
-      <c r="AO67" s="17"/>
-      <c r="AP67" s="17"/>
-      <c r="AQ67" s="17"/>
-      <c r="AR67" s="17"/>
-      <c r="AS67" s="17"/>
-      <c r="AT67" s="17"/>
-      <c r="AU67" s="17"/>
-      <c r="AV67" s="17"/>
-      <c r="AW67" s="17"/>
-      <c r="AX67" s="17"/>
-      <c r="AY67" s="17"/>
-      <c r="AZ67" s="17"/>
-      <c r="BA67" s="17"/>
-      <c r="BB67" s="17"/>
-      <c r="BC67" s="17"/>
-      <c r="BD67" s="17"/>
-      <c r="BE67" s="17"/>
-      <c r="BF67" s="17"/>
-      <c r="BG67" s="17"/>
-      <c r="BH67" s="17"/>
-      <c r="BI67" s="17"/>
-      <c r="BJ67" s="17"/>
-    </row>
-    <row r="68" spans="2:62">
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="17"/>
-      <c r="AB68" s="17"/>
-      <c r="AC68" s="17"/>
-      <c r="AD68" s="17"/>
-      <c r="AE68" s="17"/>
-      <c r="AF68" s="17"/>
-      <c r="AG68" s="17"/>
-      <c r="AH68" s="17"/>
-      <c r="AI68" s="17"/>
-      <c r="AJ68" s="17"/>
-      <c r="AK68" s="17"/>
-      <c r="AL68" s="17"/>
-      <c r="AM68" s="17"/>
-      <c r="AN68" s="17"/>
-      <c r="AO68" s="17"/>
-      <c r="AP68" s="17"/>
-      <c r="AQ68" s="17"/>
-      <c r="AR68" s="17"/>
-      <c r="AS68" s="17"/>
-      <c r="AT68" s="17"/>
-      <c r="AU68" s="17"/>
-      <c r="AV68" s="17"/>
-      <c r="AW68" s="17"/>
-      <c r="AX68" s="17"/>
-      <c r="AY68" s="17"/>
-      <c r="AZ68" s="17"/>
-      <c r="BA68" s="17"/>
-      <c r="BB68" s="17"/>
-      <c r="BC68" s="17"/>
-      <c r="BD68" s="17"/>
-      <c r="BE68" s="17"/>
-      <c r="BF68" s="17"/>
-      <c r="BG68" s="17"/>
-      <c r="BH68" s="17"/>
-      <c r="BI68" s="17"/>
-      <c r="BJ68" s="17"/>
-    </row>
-    <row r="69" spans="2:62">
-      <c r="H69" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="2:62">
-      <c r="H70" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="2:62">
-      <c r="C72" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="2:62">
-      <c r="D73" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="2:62">
-      <c r="F74" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="2:62">
-      <c r="E75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="2:62">
-      <c r="E76" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="2:62">
-      <c r="B78" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="2:62">
-      <c r="C79" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="2:62">
-      <c r="D80" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81" spans="4:9">
-      <c r="D81" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="4:9">
-      <c r="E82" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="4:9">
-      <c r="F83" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="4:9">
-      <c r="G84" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="4:9">
-      <c r="F85" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" spans="4:9">
-      <c r="G86" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="4:9">
-      <c r="F87" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="4:9">
-      <c r="G88" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="89" spans="4:9">
-      <c r="G89" s="10" t="s">
+      <c r="F208" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6">
+      <c r="F209" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6">
+      <c r="F210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="F211" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6">
+      <c r="D212" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6">
+      <c r="F213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6">
+      <c r="B215" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6">
+      <c r="C216" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6">
+      <c r="D217" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6">
+      <c r="D218" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
+      <c r="E219" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="E220" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6">
+      <c r="F221" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="F222" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6">
+      <c r="F223" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="F224" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="225" spans="5:8">
+      <c r="G225" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="226" spans="5:8">
+      <c r="G226" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="227" spans="5:8">
+      <c r="F227" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="228" spans="5:8">
+      <c r="G228" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="229" spans="5:8">
+      <c r="F229" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="230" spans="5:8">
+      <c r="G230" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="231" spans="5:8">
+      <c r="H231" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="232" spans="5:8">
+      <c r="H232" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="233" spans="5:8">
+      <c r="E233" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="234" spans="5:8">
+      <c r="F234" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="235" spans="5:8">
+      <c r="G235" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H89" s="8"/>
-    </row>
-    <row r="90" spans="4:9">
-      <c r="G90" s="8"/>
-      <c r="H90" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="4:9">
-      <c r="G91" s="8"/>
-      <c r="H91" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I91" s="8"/>
-    </row>
-    <row r="92" spans="4:9">
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="4:9">
-      <c r="G93" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" spans="4:9">
-      <c r="G94" s="8"/>
-      <c r="H94" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="4:9">
-      <c r="F95" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="4:9">
-      <c r="G96" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="F97" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G97" s="10"/>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="G98" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
-      <c r="C101" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
-      <c r="D102" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="D103" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
-      <c r="E104" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
-      <c r="F105" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9">
-      <c r="F106" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
-      <c r="D107" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
-      <c r="E108" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
-      <c r="F109" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9">
-      <c r="F110" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9">
-      <c r="H111" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9">
-      <c r="I112" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="5:14">
-      <c r="J113" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="114" spans="5:14">
-      <c r="F114" s="7"/>
-      <c r="H114" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="5:14">
-      <c r="I115" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="5:14">
-      <c r="J116" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="L116" s="11"/>
-    </row>
-    <row r="117" spans="5:14">
-      <c r="J117" s="8"/>
-      <c r="K117" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="5:14">
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="5:14">
-      <c r="J119" s="8"/>
-      <c r="K119" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="L119" s="10"/>
-    </row>
-    <row r="120" spans="5:14">
-      <c r="J120" s="8"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="121" spans="5:14">
-      <c r="J121" s="8"/>
-      <c r="K121" s="11"/>
-      <c r="M121" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="122" spans="5:14">
-      <c r="J122" s="8"/>
-      <c r="K122" s="11"/>
-      <c r="N122" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="5:14">
-      <c r="J123" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="124" spans="5:14">
-      <c r="J124" s="10"/>
-      <c r="K124" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="5:14">
-      <c r="J125" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="5:14">
-      <c r="K126" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" spans="5:14">
-      <c r="E127" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="5:14">
-      <c r="F128" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="129" spans="5:62">
-      <c r="F129" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="130" spans="5:62">
-      <c r="H130" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="5:62">
-      <c r="I131" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="5:62">
-      <c r="I132" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="5:62">
-      <c r="F133" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="5:62">
-      <c r="F134" s="7"/>
-      <c r="H134" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="5:62">
-      <c r="F135" s="7"/>
-      <c r="I135" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="136" spans="5:62">
-      <c r="H136" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="5:62">
-      <c r="I137" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="J137" s="17"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
-      <c r="R137" s="17"/>
-      <c r="S137" s="17"/>
-      <c r="T137" s="17"/>
-      <c r="U137" s="17"/>
-      <c r="V137" s="17"/>
-      <c r="W137" s="17"/>
-      <c r="X137" s="17"/>
-      <c r="Y137" s="17"/>
-      <c r="Z137" s="17"/>
-      <c r="AA137" s="17"/>
-      <c r="AB137" s="17"/>
-      <c r="AC137" s="17"/>
-      <c r="AD137" s="17"/>
-      <c r="AE137" s="17"/>
-      <c r="AF137" s="17"/>
-      <c r="AG137" s="17"/>
-      <c r="AH137" s="17"/>
-      <c r="AI137" s="17"/>
-      <c r="AJ137" s="17"/>
-      <c r="AK137" s="17"/>
-      <c r="AL137" s="17"/>
-      <c r="AM137" s="17"/>
-      <c r="AN137" s="17"/>
-      <c r="AO137" s="17"/>
-      <c r="AP137" s="17"/>
-      <c r="AQ137" s="17"/>
-      <c r="AR137" s="17"/>
-      <c r="AS137" s="17"/>
-      <c r="AT137" s="17"/>
-      <c r="AU137" s="17"/>
-      <c r="AV137" s="17"/>
-      <c r="AW137" s="17"/>
-      <c r="AX137" s="17"/>
-      <c r="AY137" s="17"/>
-      <c r="AZ137" s="17"/>
-      <c r="BA137" s="17"/>
-      <c r="BB137" s="17"/>
-      <c r="BC137" s="17"/>
-      <c r="BD137" s="17"/>
-      <c r="BE137" s="17"/>
-      <c r="BF137" s="17"/>
-      <c r="BG137" s="17"/>
-      <c r="BH137" s="17"/>
-      <c r="BI137" s="17"/>
-      <c r="BJ137" s="17"/>
-    </row>
-    <row r="138" spans="5:62">
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
-      <c r="R138" s="17"/>
-      <c r="S138" s="17"/>
-      <c r="T138" s="17"/>
-      <c r="U138" s="17"/>
-      <c r="V138" s="17"/>
-      <c r="W138" s="17"/>
-      <c r="X138" s="17"/>
-      <c r="Y138" s="17"/>
-      <c r="Z138" s="17"/>
-      <c r="AA138" s="17"/>
-      <c r="AB138" s="17"/>
-      <c r="AC138" s="17"/>
-      <c r="AD138" s="17"/>
-      <c r="AE138" s="17"/>
-      <c r="AF138" s="17"/>
-      <c r="AG138" s="17"/>
-      <c r="AH138" s="17"/>
-      <c r="AI138" s="17"/>
-      <c r="AJ138" s="17"/>
-      <c r="AK138" s="17"/>
-      <c r="AL138" s="17"/>
-      <c r="AM138" s="17"/>
-      <c r="AN138" s="17"/>
-      <c r="AO138" s="17"/>
-      <c r="AP138" s="17"/>
-      <c r="AQ138" s="17"/>
-      <c r="AR138" s="17"/>
-      <c r="AS138" s="17"/>
-      <c r="AT138" s="17"/>
-      <c r="AU138" s="17"/>
-      <c r="AV138" s="17"/>
-      <c r="AW138" s="17"/>
-      <c r="AX138" s="17"/>
-      <c r="AY138" s="17"/>
-      <c r="AZ138" s="17"/>
-      <c r="BA138" s="17"/>
-      <c r="BB138" s="17"/>
-      <c r="BC138" s="17"/>
-      <c r="BD138" s="17"/>
-      <c r="BE138" s="17"/>
-      <c r="BF138" s="17"/>
-      <c r="BG138" s="17"/>
-      <c r="BH138" s="17"/>
-      <c r="BI138" s="17"/>
-      <c r="BJ138" s="17"/>
-    </row>
-    <row r="139" spans="5:62">
-      <c r="I139" s="17"/>
-      <c r="J139" s="17"/>
-      <c r="K139" s="17"/>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
-      <c r="R139" s="17"/>
-      <c r="S139" s="17"/>
-      <c r="T139" s="17"/>
-      <c r="U139" s="17"/>
-      <c r="V139" s="17"/>
-      <c r="W139" s="17"/>
-      <c r="X139" s="17"/>
-      <c r="Y139" s="17"/>
-      <c r="Z139" s="17"/>
-      <c r="AA139" s="17"/>
-      <c r="AB139" s="17"/>
-      <c r="AC139" s="17"/>
-      <c r="AD139" s="17"/>
-      <c r="AE139" s="17"/>
-      <c r="AF139" s="17"/>
-      <c r="AG139" s="17"/>
-      <c r="AH139" s="17"/>
-      <c r="AI139" s="17"/>
-      <c r="AJ139" s="17"/>
-      <c r="AK139" s="17"/>
-      <c r="AL139" s="17"/>
-      <c r="AM139" s="17"/>
-      <c r="AN139" s="17"/>
-      <c r="AO139" s="17"/>
-      <c r="AP139" s="17"/>
-      <c r="AQ139" s="17"/>
-      <c r="AR139" s="17"/>
-      <c r="AS139" s="17"/>
-      <c r="AT139" s="17"/>
-      <c r="AU139" s="17"/>
-      <c r="AV139" s="17"/>
-      <c r="AW139" s="17"/>
-      <c r="AX139" s="17"/>
-      <c r="AY139" s="17"/>
-      <c r="AZ139" s="17"/>
-      <c r="BA139" s="17"/>
-      <c r="BB139" s="17"/>
-      <c r="BC139" s="17"/>
-      <c r="BD139" s="17"/>
-      <c r="BE139" s="17"/>
-      <c r="BF139" s="17"/>
-      <c r="BG139" s="17"/>
-      <c r="BH139" s="17"/>
-      <c r="BI139" s="17"/>
-      <c r="BJ139" s="17"/>
-    </row>
-    <row r="140" spans="5:62">
-      <c r="H140" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="141" spans="5:62">
-      <c r="F141" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="5:62">
-      <c r="H142" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="143" spans="5:62">
-      <c r="I143" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="144" spans="5:62">
-      <c r="E144" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" s="6" customFormat="1">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="F145" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" s="6" customFormat="1">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="H146" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" s="6" customFormat="1">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="I147" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" s="6" customFormat="1">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="J148" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
-      <c r="B150" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="C151" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="D152" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="D153" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
-      <c r="F154" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
-      <c r="D155" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
-      <c r="F156" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="F157" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
-      <c r="D158" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="F159" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
-      <c r="F160" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="161" spans="4:59">
-      <c r="D161" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="162" spans="4:59">
-      <c r="F162" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="17"/>
-      <c r="K162" s="17"/>
-      <c r="L162" s="17"/>
-      <c r="M162" s="17"/>
-      <c r="N162" s="17"/>
-      <c r="O162" s="17"/>
-      <c r="P162" s="17"/>
-      <c r="Q162" s="17"/>
-      <c r="R162" s="17"/>
-      <c r="S162" s="17"/>
-      <c r="T162" s="17"/>
-      <c r="U162" s="17"/>
-      <c r="V162" s="17"/>
-      <c r="W162" s="17"/>
-      <c r="X162" s="17"/>
-      <c r="Y162" s="17"/>
-      <c r="Z162" s="17"/>
-      <c r="AA162" s="17"/>
-      <c r="AB162" s="17"/>
-      <c r="AC162" s="17"/>
-      <c r="AD162" s="17"/>
-      <c r="AE162" s="17"/>
-      <c r="AF162" s="17"/>
-      <c r="AG162" s="17"/>
-      <c r="AH162" s="17"/>
-      <c r="AI162" s="17"/>
-      <c r="AJ162" s="17"/>
-      <c r="AK162" s="17"/>
-      <c r="AL162" s="17"/>
-      <c r="AM162" s="17"/>
-      <c r="AN162" s="17"/>
-      <c r="AO162" s="17"/>
-      <c r="AP162" s="17"/>
-      <c r="AQ162" s="17"/>
-      <c r="AR162" s="17"/>
-      <c r="AS162" s="17"/>
-      <c r="AT162" s="17"/>
-      <c r="AU162" s="17"/>
-      <c r="AV162" s="17"/>
-      <c r="AW162" s="17"/>
-      <c r="AX162" s="17"/>
-      <c r="AY162" s="17"/>
-      <c r="AZ162" s="17"/>
-      <c r="BA162" s="17"/>
-      <c r="BB162" s="17"/>
-      <c r="BC162" s="17"/>
-      <c r="BD162" s="17"/>
-      <c r="BE162" s="17"/>
-      <c r="BF162" s="17"/>
-      <c r="BG162" s="17"/>
-    </row>
-    <row r="163" spans="4:59">
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="17"/>
-      <c r="K163" s="17"/>
-      <c r="L163" s="17"/>
-      <c r="M163" s="17"/>
-      <c r="N163" s="17"/>
-      <c r="O163" s="17"/>
-      <c r="P163" s="17"/>
-      <c r="Q163" s="17"/>
-      <c r="R163" s="17"/>
-      <c r="S163" s="17"/>
-      <c r="T163" s="17"/>
-      <c r="U163" s="17"/>
-      <c r="V163" s="17"/>
-      <c r="W163" s="17"/>
-      <c r="X163" s="17"/>
-      <c r="Y163" s="17"/>
-      <c r="Z163" s="17"/>
-      <c r="AA163" s="17"/>
-      <c r="AB163" s="17"/>
-      <c r="AC163" s="17"/>
-      <c r="AD163" s="17"/>
-      <c r="AE163" s="17"/>
-      <c r="AF163" s="17"/>
-      <c r="AG163" s="17"/>
-      <c r="AH163" s="17"/>
-      <c r="AI163" s="17"/>
-      <c r="AJ163" s="17"/>
-      <c r="AK163" s="17"/>
-      <c r="AL163" s="17"/>
-      <c r="AM163" s="17"/>
-      <c r="AN163" s="17"/>
-      <c r="AO163" s="17"/>
-      <c r="AP163" s="17"/>
-      <c r="AQ163" s="17"/>
-      <c r="AR163" s="17"/>
-      <c r="AS163" s="17"/>
-      <c r="AT163" s="17"/>
-      <c r="AU163" s="17"/>
-      <c r="AV163" s="17"/>
-      <c r="AW163" s="17"/>
-      <c r="AX163" s="17"/>
-      <c r="AY163" s="17"/>
-      <c r="AZ163" s="17"/>
-      <c r="BA163" s="17"/>
-      <c r="BB163" s="17"/>
-      <c r="BC163" s="17"/>
-      <c r="BD163" s="17"/>
-      <c r="BE163" s="17"/>
-      <c r="BF163" s="17"/>
-      <c r="BG163" s="17"/>
-    </row>
-    <row r="164" spans="4:59">
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
-      <c r="K164" s="17"/>
-      <c r="L164" s="17"/>
-      <c r="M164" s="17"/>
-      <c r="N164" s="17"/>
-      <c r="O164" s="17"/>
-      <c r="P164" s="17"/>
-      <c r="Q164" s="17"/>
-      <c r="R164" s="17"/>
-      <c r="S164" s="17"/>
-      <c r="T164" s="17"/>
-      <c r="U164" s="17"/>
-      <c r="V164" s="17"/>
-      <c r="W164" s="17"/>
-      <c r="X164" s="17"/>
-      <c r="Y164" s="17"/>
-      <c r="Z164" s="17"/>
-      <c r="AA164" s="17"/>
-      <c r="AB164" s="17"/>
-      <c r="AC164" s="17"/>
-      <c r="AD164" s="17"/>
-      <c r="AE164" s="17"/>
-      <c r="AF164" s="17"/>
-      <c r="AG164" s="17"/>
-      <c r="AH164" s="17"/>
-      <c r="AI164" s="17"/>
-      <c r="AJ164" s="17"/>
-      <c r="AK164" s="17"/>
-      <c r="AL164" s="17"/>
-      <c r="AM164" s="17"/>
-      <c r="AN164" s="17"/>
-      <c r="AO164" s="17"/>
-      <c r="AP164" s="17"/>
-      <c r="AQ164" s="17"/>
-      <c r="AR164" s="17"/>
-      <c r="AS164" s="17"/>
-      <c r="AT164" s="17"/>
-      <c r="AU164" s="17"/>
-      <c r="AV164" s="17"/>
-      <c r="AW164" s="17"/>
-      <c r="AX164" s="17"/>
-      <c r="AY164" s="17"/>
-      <c r="AZ164" s="17"/>
-      <c r="BA164" s="17"/>
-      <c r="BB164" s="17"/>
-      <c r="BC164" s="17"/>
-      <c r="BD164" s="17"/>
-      <c r="BE164" s="17"/>
-      <c r="BF164" s="17"/>
-      <c r="BG164" s="17"/>
-    </row>
-    <row r="165" spans="4:59">
-      <c r="D165" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="166" spans="4:59">
-      <c r="F166" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="167" spans="4:59">
-      <c r="F167" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="168" spans="4:59">
-      <c r="F168" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="169" spans="4:59">
-      <c r="D169" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="170" spans="4:59">
-      <c r="F170" s="1" t="s">
-        <v>215</v>
+    </row>
+    <row r="236" spans="5:8">
+      <c r="G236" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="237" spans="5:8">
+      <c r="G237" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="238" spans="5:8">
+      <c r="E238" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="239" spans="5:8">
+      <c r="F239" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="240" spans="5:8">
+      <c r="F240" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="241" spans="3:6">
+      <c r="F241" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="242" spans="3:6">
+      <c r="F242" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="243" spans="3:6">
+      <c r="D243" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="244" spans="3:6">
+      <c r="E244" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="245" spans="3:6">
+      <c r="F245" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="246" spans="3:6">
+      <c r="E246" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="247" spans="3:6">
+      <c r="F247" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="248" spans="3:6">
+      <c r="C248" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="249" spans="3:6">
+      <c r="D249" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="250" spans="3:6">
+      <c r="D250" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="251" spans="3:6">
+      <c r="E251" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="253" spans="3:6">
+      <c r="D253" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="254" spans="3:6">
+      <c r="D254" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4">
+      <c r="C259" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4">
+      <c r="D260" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="L12:BM14"/>
-    <mergeCell ref="K58:BL60"/>
-    <mergeCell ref="I66:BJ68"/>
-    <mergeCell ref="I137:BJ139"/>
-    <mergeCell ref="F162:BG164"/>
+  <mergeCells count="6">
+    <mergeCell ref="K11:BL13"/>
+    <mergeCell ref="K97:BL99"/>
+    <mergeCell ref="I109:BJ111"/>
+    <mergeCell ref="I180:BJ182"/>
+    <mergeCell ref="F205:BG207"/>
+    <mergeCell ref="K53:BL55"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <hyperlinks>

--- a/Scala/Reference/Scala_学習.xlsx
+++ b/Scala/Reference/Scala_学習.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Git\Cal_Master\Scala\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C0F1F7-D58E-4491-BDD3-6BB38740DA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059E6435-E9CB-4D7E-AFE6-ACBB935CEF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="6930" windowWidth="9360" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="9360" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学習" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="367">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -1600,12 +1600,6 @@
     <t>URLやURIなど</t>
   </si>
   <si>
-    <t>【Play Framework 2.4】Play Framework導入手順 - もふもふした技術メモ</t>
-  </si>
-  <si>
-    <t>http://mofmof721.hatenablog.com/entry/2015/12/27/002034</t>
-  </si>
-  <si>
     <t>スタータサンプル</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1614,10 +1608,6 @@
   </si>
   <si>
     <t>https://developer.lightbend.com/start/?group=play&amp;project=play-samples-play-scala-rest-api-example</t>
-  </si>
-  <si>
-    <t>REST APIサンプル</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>JDKのダウンロードとインストール Windows編 | Java好き</t>
@@ -1702,12 +1692,6 @@
   <si>
     <t>→インストール</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Installing - 2.3.x</t>
-  </si>
-  <si>
-    <t>https://www.playframework.com/documentation/ja/2.3.x/Installing</t>
   </si>
   <si>
     <t>【初心者でもすぐわかる】JDKのインストール方法 Windows編</t>
@@ -1997,20 +1981,6 @@
       <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Activatorインストール</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>PlayはTypesafe Activatorと呼ばれるツールを通じて提供されます</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>https://typesafe.com/platform/getstarted</t>
-  </si>
-  <si>
-    <t>https://www.playframework.com/download</t>
   </si>
   <si>
     <t>Play Framework</t>
@@ -2584,12 +2554,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2599,14 +2571,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -2942,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z172"/>
+  <dimension ref="A1:Z156"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157:G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -3287,82 +3257,82 @@
     </row>
     <row r="69" spans="3:8">
       <c r="D69" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="3:8">
       <c r="E70" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="3:8">
       <c r="E71" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="3:8">
       <c r="F72" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="3:8">
       <c r="G73" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="3:8">
       <c r="H74" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="3:8">
       <c r="H75" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="3:8">
       <c r="H76" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="3:8">
       <c r="H77" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="3:8">
       <c r="H78" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="3:8">
       <c r="H79" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="3:8">
       <c r="H80" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="3:8">
       <c r="G81" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="3:8">
       <c r="H82" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="3:8">
       <c r="G83" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="3:8">
       <c r="F84" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="3:8">
@@ -3387,7 +3357,7 @@
     </row>
     <row r="89" spans="3:8">
       <c r="C89" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="3:8">
@@ -3397,7 +3367,7 @@
     </row>
     <row r="91" spans="3:8">
       <c r="E91" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="3:8">
@@ -3439,379 +3409,364 @@
     <row r="98" spans="3:6">
       <c r="C98" s="2"/>
       <c r="D98" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="3:6">
       <c r="C99" s="2"/>
       <c r="E99" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="3:6">
       <c r="C100" s="2"/>
       <c r="F100" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="3:6">
       <c r="C101" s="2"/>
       <c r="F101" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="3:6">
       <c r="C102" s="2"/>
       <c r="F102" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="3:6">
       <c r="C103" s="2"/>
       <c r="F103" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="3:6">
       <c r="C104" s="2"/>
       <c r="F104" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="3:6">
       <c r="C105" s="2"/>
       <c r="D105" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="3:6">
       <c r="C106" s="2"/>
       <c r="E106" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="3:6">
       <c r="C107" s="2"/>
       <c r="F107" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108" spans="3:6">
       <c r="F108" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="3:6">
       <c r="D109" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="110" spans="3:6">
       <c r="E110" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="111" spans="3:6">
       <c r="C111" s="2"/>
       <c r="F111" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="112" spans="3:6">
       <c r="C112" s="2"/>
       <c r="F112" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="3:26">
       <c r="C113" s="2"/>
       <c r="F113" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="3:26">
       <c r="C114" s="2"/>
       <c r="F114" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115" spans="3:26">
       <c r="C115" s="2"/>
-      <c r="G115" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
-      <c r="M115" s="19"/>
-      <c r="N115" s="19"/>
-      <c r="O115" s="19"/>
-      <c r="P115" s="20"/>
-      <c r="Q115" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="R115" s="19"/>
-      <c r="S115" s="19"/>
-      <c r="T115" s="19"/>
-      <c r="U115" s="19"/>
-      <c r="V115" s="19"/>
-      <c r="W115" s="19"/>
-      <c r="X115" s="19"/>
-      <c r="Y115" s="19"/>
-      <c r="Z115" s="20"/>
+      <c r="G115" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+      <c r="O115" s="21"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="R115" s="21"/>
+      <c r="S115" s="21"/>
+      <c r="T115" s="21"/>
+      <c r="U115" s="21"/>
+      <c r="V115" s="21"/>
+      <c r="W115" s="21"/>
+      <c r="X115" s="21"/>
+      <c r="Y115" s="21"/>
+      <c r="Z115" s="22"/>
     </row>
     <row r="116" spans="3:26">
       <c r="C116" s="2"/>
-      <c r="G116" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="22"/>
-      <c r="L116" s="23"/>
-      <c r="M116" s="23"/>
-      <c r="N116" s="23"/>
-      <c r="O116" s="23"/>
-      <c r="P116" s="24"/>
-      <c r="Q116" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="R116" s="22"/>
-      <c r="S116" s="22"/>
-      <c r="T116" s="22"/>
-      <c r="U116" s="22"/>
-      <c r="V116" s="23"/>
-      <c r="W116" s="23"/>
-      <c r="X116" s="23"/>
-      <c r="Y116" s="23"/>
-      <c r="Z116" s="24"/>
+      <c r="G116" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="18"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
+      <c r="V116" s="18"/>
+      <c r="W116" s="18"/>
+      <c r="X116" s="18"/>
+      <c r="Y116" s="18"/>
+      <c r="Z116" s="19"/>
     </row>
     <row r="117" spans="3:26">
       <c r="C117" s="2"/>
-      <c r="G117" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="22"/>
-      <c r="L117" s="23"/>
-      <c r="M117" s="23"/>
-      <c r="N117" s="23"/>
-      <c r="O117" s="23"/>
-      <c r="P117" s="24"/>
-      <c r="Q117" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="R117" s="22"/>
-      <c r="S117" s="22"/>
-      <c r="T117" s="22"/>
-      <c r="U117" s="22"/>
-      <c r="V117" s="23"/>
-      <c r="W117" s="23"/>
-      <c r="X117" s="23"/>
-      <c r="Y117" s="23"/>
-      <c r="Z117" s="24"/>
+      <c r="G117" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="R117" s="17"/>
+      <c r="S117" s="17"/>
+      <c r="T117" s="17"/>
+      <c r="U117" s="17"/>
+      <c r="V117" s="18"/>
+      <c r="W117" s="18"/>
+      <c r="X117" s="18"/>
+      <c r="Y117" s="18"/>
+      <c r="Z117" s="19"/>
     </row>
     <row r="118" spans="3:26">
       <c r="C118" s="2"/>
-      <c r="G118" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="22"/>
-      <c r="L118" s="23"/>
-      <c r="M118" s="23"/>
-      <c r="N118" s="23"/>
-      <c r="O118" s="23"/>
-      <c r="P118" s="24"/>
-      <c r="Q118" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="R118" s="22"/>
-      <c r="S118" s="22"/>
-      <c r="T118" s="22"/>
-      <c r="U118" s="22"/>
-      <c r="V118" s="23"/>
-      <c r="W118" s="23"/>
-      <c r="X118" s="23"/>
-      <c r="Y118" s="23"/>
-      <c r="Z118" s="24"/>
+      <c r="G118" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="R118" s="17"/>
+      <c r="S118" s="17"/>
+      <c r="T118" s="17"/>
+      <c r="U118" s="17"/>
+      <c r="V118" s="18"/>
+      <c r="W118" s="18"/>
+      <c r="X118" s="18"/>
+      <c r="Y118" s="18"/>
+      <c r="Z118" s="19"/>
     </row>
     <row r="119" spans="3:26">
       <c r="C119" s="2"/>
       <c r="F119" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="3:26">
       <c r="G120" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="134" spans="3:6">
-      <c r="C134" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="135" spans="3:6">
-      <c r="D135" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="121" spans="3:26">
+      <c r="C121" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="3:26">
+      <c r="D122" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="136" spans="3:6">
-      <c r="E136" s="1" t="s">
+    <row r="123" spans="3:26">
+      <c r="E123" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="137" spans="3:6">
+    <row r="124" spans="3:26">
+      <c r="E124" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="125" spans="3:26">
+      <c r="F125" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="3:26">
+      <c r="F126" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="3:26">
+      <c r="F127" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="3:26">
+      <c r="F128" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="130" spans="5:8">
+      <c r="F130" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="5:8">
+      <c r="F131" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="5:8">
+      <c r="F132" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="5:8">
+      <c r="F134" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="135" spans="5:8">
+      <c r="F135" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="136" spans="5:8">
+      <c r="F136" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="137" spans="5:8">
       <c r="E137" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="138" spans="3:6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="5:8">
       <c r="F138" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="139" spans="3:6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="139" spans="5:8">
       <c r="F139" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="140" spans="3:6">
-      <c r="F140" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="141" spans="3:6">
-      <c r="F141" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="143" spans="3:6">
-      <c r="F143" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="144" spans="3:6">
-      <c r="F144" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="145" spans="5:8">
-      <c r="F145" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="147" spans="5:8">
-      <c r="F147" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="148" spans="5:8">
-      <c r="F148" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="149" spans="5:8">
-      <c r="F149" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="150" spans="5:8">
-      <c r="E150" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="151" spans="5:8">
-      <c r="F151" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="152" spans="5:8">
-      <c r="F152" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="5:8">
-      <c r="G153" s="1" t="s">
+    <row r="140" spans="5:8">
+      <c r="G140" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="154" spans="5:8">
-      <c r="H154" s="1" t="s">
+    <row r="141" spans="5:8">
+      <c r="H141" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="5:8">
-      <c r="G155" s="1" t="s">
+    <row r="142" spans="5:8">
+      <c r="G142" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="156" spans="5:8">
-      <c r="H156" t="s">
+    <row r="143" spans="5:8">
+      <c r="H143" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="157" spans="5:8">
-      <c r="G157" s="1" t="s">
+    <row r="144" spans="5:8">
+      <c r="G144" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="158" spans="5:8">
-      <c r="H158" s="1" t="s">
+    <row r="145" spans="4:8">
+      <c r="H145" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="159" spans="5:8">
-      <c r="G159" s="1" t="s">
+    <row r="146" spans="4:8">
+      <c r="G146" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="160" spans="5:8">
-      <c r="F160" t="s">
+    <row r="147" spans="4:8">
+      <c r="F147" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="161" spans="4:7">
-      <c r="G161" t="s">
+    <row r="148" spans="4:8">
+      <c r="G148" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="167" spans="4:7">
-      <c r="D167" s="1" t="s">
+    <row r="154" spans="4:8">
+      <c r="D154" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="155" spans="4:8">
+      <c r="E155" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="156" spans="4:8">
+      <c r="F156" s="1" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="168" spans="4:7">
-      <c r="E168" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="169" spans="4:7">
-      <c r="F169" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="170" spans="4:7">
-      <c r="D170" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="171" spans="4:7">
-      <c r="E171" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="172" spans="4:7">
-      <c r="F172" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD0DF89-1E31-49AC-94D0-98F20317FDA8}">
-  <dimension ref="A1:BL260"/>
+  <dimension ref="A1:BL247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C249" sqref="C249"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -3905,184 +3860,184 @@
     <row r="11" spans="1:64" s="3" customFormat="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
-      <c r="BH11" s="17"/>
-      <c r="BI11" s="17"/>
-      <c r="BJ11" s="17"/>
-      <c r="BK11" s="17"/>
-      <c r="BL11" s="17"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="24"/>
+      <c r="AV11" s="24"/>
+      <c r="AW11" s="24"/>
+      <c r="AX11" s="24"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="24"/>
+      <c r="BA11" s="24"/>
+      <c r="BB11" s="24"/>
+      <c r="BC11" s="24"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="24"/>
+      <c r="BF11" s="24"/>
+      <c r="BG11" s="24"/>
+      <c r="BH11" s="24"/>
+      <c r="BI11" s="24"/>
+      <c r="BJ11" s="24"/>
+      <c r="BK11" s="24"/>
+      <c r="BL11" s="24"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="24"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="24"/>
+      <c r="AU12" s="24"/>
+      <c r="AV12" s="24"/>
+      <c r="AW12" s="24"/>
+      <c r="AX12" s="24"/>
+      <c r="AY12" s="24"/>
+      <c r="AZ12" s="24"/>
+      <c r="BA12" s="24"/>
+      <c r="BB12" s="24"/>
+      <c r="BC12" s="24"/>
+      <c r="BD12" s="24"/>
+      <c r="BE12" s="24"/>
+      <c r="BF12" s="24"/>
+      <c r="BG12" s="24"/>
+      <c r="BH12" s="24"/>
+      <c r="BI12" s="24"/>
+      <c r="BJ12" s="24"/>
+      <c r="BK12" s="24"/>
+      <c r="BL12" s="24"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24"/>
+      <c r="BA13" s="24"/>
+      <c r="BB13" s="24"/>
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="24"/>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="24"/>
+      <c r="BH13" s="24"/>
+      <c r="BI13" s="24"/>
+      <c r="BJ13" s="24"/>
+      <c r="BK13" s="24"/>
+      <c r="BL13" s="24"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -4143,7 +4098,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="K15" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
@@ -4212,28 +4167,28 @@
       <c r="B17" s="2"/>
       <c r="K17" s="14"/>
       <c r="M17" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="K18" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="L19" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="M20" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
@@ -4241,7 +4196,7 @@
       <c r="B21" s="2"/>
       <c r="K21" s="15"/>
       <c r="M21" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
@@ -4249,7 +4204,7 @@
       <c r="B22" s="2"/>
       <c r="K22" s="15"/>
       <c r="M22" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1">
@@ -4257,7 +4212,7 @@
       <c r="B23" s="2"/>
       <c r="K23" s="15"/>
       <c r="M23" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1">
@@ -4271,7 +4226,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="J25" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1">
@@ -4292,358 +4247,358 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="L28" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="L29" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="K31" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="L32" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="3" customFormat="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="L33" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="3" customFormat="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="L34" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="3" customFormat="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="M35" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="3" customFormat="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="N36" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="3" customFormat="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="N37" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="3" customFormat="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="M38" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="3" customFormat="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="N39" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="3" customFormat="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="N40" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="3" customFormat="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="N41" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="3" customFormat="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="L42" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="3" customFormat="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="M43" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="3" customFormat="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="N44" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="3" customFormat="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="N45" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="3" customFormat="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="N46" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="3" customFormat="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="O47" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="3" customFormat="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="N48" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:64" s="3" customFormat="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="H49" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:64" s="3" customFormat="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="I50" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:64" s="3" customFormat="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="I51" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:64" s="3" customFormat="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="J52" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:64" s="3" customFormat="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="K53" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="17"/>
-      <c r="AC53" s="17"/>
-      <c r="AD53" s="17"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="17"/>
-      <c r="AG53" s="17"/>
-      <c r="AH53" s="17"/>
-      <c r="AI53" s="17"/>
-      <c r="AJ53" s="17"/>
-      <c r="AK53" s="17"/>
-      <c r="AL53" s="17"/>
-      <c r="AM53" s="17"/>
-      <c r="AN53" s="17"/>
-      <c r="AO53" s="17"/>
-      <c r="AP53" s="17"/>
-      <c r="AQ53" s="17"/>
-      <c r="AR53" s="17"/>
-      <c r="AS53" s="17"/>
-      <c r="AT53" s="17"/>
-      <c r="AU53" s="17"/>
-      <c r="AV53" s="17"/>
-      <c r="AW53" s="17"/>
-      <c r="AX53" s="17"/>
-      <c r="AY53" s="17"/>
-      <c r="AZ53" s="17"/>
-      <c r="BA53" s="17"/>
-      <c r="BB53" s="17"/>
-      <c r="BC53" s="17"/>
-      <c r="BD53" s="17"/>
-      <c r="BE53" s="17"/>
-      <c r="BF53" s="17"/>
-      <c r="BG53" s="17"/>
-      <c r="BH53" s="17"/>
-      <c r="BI53" s="17"/>
-      <c r="BJ53" s="17"/>
-      <c r="BK53" s="17"/>
-      <c r="BL53" s="17"/>
+      <c r="K53" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="24"/>
+      <c r="AG53" s="24"/>
+      <c r="AH53" s="24"/>
+      <c r="AI53" s="24"/>
+      <c r="AJ53" s="24"/>
+      <c r="AK53" s="24"/>
+      <c r="AL53" s="24"/>
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24"/>
+      <c r="AQ53" s="24"/>
+      <c r="AR53" s="24"/>
+      <c r="AS53" s="24"/>
+      <c r="AT53" s="24"/>
+      <c r="AU53" s="24"/>
+      <c r="AV53" s="24"/>
+      <c r="AW53" s="24"/>
+      <c r="AX53" s="24"/>
+      <c r="AY53" s="24"/>
+      <c r="AZ53" s="24"/>
+      <c r="BA53" s="24"/>
+      <c r="BB53" s="24"/>
+      <c r="BC53" s="24"/>
+      <c r="BD53" s="24"/>
+      <c r="BE53" s="24"/>
+      <c r="BF53" s="24"/>
+      <c r="BG53" s="24"/>
+      <c r="BH53" s="24"/>
+      <c r="BI53" s="24"/>
+      <c r="BJ53" s="24"/>
+      <c r="BK53" s="24"/>
+      <c r="BL53" s="24"/>
     </row>
     <row r="54" spans="1:64" s="3" customFormat="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="17"/>
-      <c r="AB54" s="17"/>
-      <c r="AC54" s="17"/>
-      <c r="AD54" s="17"/>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="17"/>
-      <c r="AG54" s="17"/>
-      <c r="AH54" s="17"/>
-      <c r="AI54" s="17"/>
-      <c r="AJ54" s="17"/>
-      <c r="AK54" s="17"/>
-      <c r="AL54" s="17"/>
-      <c r="AM54" s="17"/>
-      <c r="AN54" s="17"/>
-      <c r="AO54" s="17"/>
-      <c r="AP54" s="17"/>
-      <c r="AQ54" s="17"/>
-      <c r="AR54" s="17"/>
-      <c r="AS54" s="17"/>
-      <c r="AT54" s="17"/>
-      <c r="AU54" s="17"/>
-      <c r="AV54" s="17"/>
-      <c r="AW54" s="17"/>
-      <c r="AX54" s="17"/>
-      <c r="AY54" s="17"/>
-      <c r="AZ54" s="17"/>
-      <c r="BA54" s="17"/>
-      <c r="BB54" s="17"/>
-      <c r="BC54" s="17"/>
-      <c r="BD54" s="17"/>
-      <c r="BE54" s="17"/>
-      <c r="BF54" s="17"/>
-      <c r="BG54" s="17"/>
-      <c r="BH54" s="17"/>
-      <c r="BI54" s="17"/>
-      <c r="BJ54" s="17"/>
-      <c r="BK54" s="17"/>
-      <c r="BL54" s="17"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="24"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="24"/>
+      <c r="AI54" s="24"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
+      <c r="AQ54" s="24"/>
+      <c r="AR54" s="24"/>
+      <c r="AS54" s="24"/>
+      <c r="AT54" s="24"/>
+      <c r="AU54" s="24"/>
+      <c r="AV54" s="24"/>
+      <c r="AW54" s="24"/>
+      <c r="AX54" s="24"/>
+      <c r="AY54" s="24"/>
+      <c r="AZ54" s="24"/>
+      <c r="BA54" s="24"/>
+      <c r="BB54" s="24"/>
+      <c r="BC54" s="24"/>
+      <c r="BD54" s="24"/>
+      <c r="BE54" s="24"/>
+      <c r="BF54" s="24"/>
+      <c r="BG54" s="24"/>
+      <c r="BH54" s="24"/>
+      <c r="BI54" s="24"/>
+      <c r="BJ54" s="24"/>
+      <c r="BK54" s="24"/>
+      <c r="BL54" s="24"/>
     </row>
     <row r="55" spans="1:64" s="3" customFormat="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17"/>
-      <c r="AC55" s="17"/>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="17"/>
-      <c r="AF55" s="17"/>
-      <c r="AG55" s="17"/>
-      <c r="AH55" s="17"/>
-      <c r="AI55" s="17"/>
-      <c r="AJ55" s="17"/>
-      <c r="AK55" s="17"/>
-      <c r="AL55" s="17"/>
-      <c r="AM55" s="17"/>
-      <c r="AN55" s="17"/>
-      <c r="AO55" s="17"/>
-      <c r="AP55" s="17"/>
-      <c r="AQ55" s="17"/>
-      <c r="AR55" s="17"/>
-      <c r="AS55" s="17"/>
-      <c r="AT55" s="17"/>
-      <c r="AU55" s="17"/>
-      <c r="AV55" s="17"/>
-      <c r="AW55" s="17"/>
-      <c r="AX55" s="17"/>
-      <c r="AY55" s="17"/>
-      <c r="AZ55" s="17"/>
-      <c r="BA55" s="17"/>
-      <c r="BB55" s="17"/>
-      <c r="BC55" s="17"/>
-      <c r="BD55" s="17"/>
-      <c r="BE55" s="17"/>
-      <c r="BF55" s="17"/>
-      <c r="BG55" s="17"/>
-      <c r="BH55" s="17"/>
-      <c r="BI55" s="17"/>
-      <c r="BJ55" s="17"/>
-      <c r="BK55" s="17"/>
-      <c r="BL55" s="17"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="24"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="24"/>
+      <c r="AF55" s="24"/>
+      <c r="AG55" s="24"/>
+      <c r="AH55" s="24"/>
+      <c r="AI55" s="24"/>
+      <c r="AJ55" s="24"/>
+      <c r="AK55" s="24"/>
+      <c r="AL55" s="24"/>
+      <c r="AM55" s="24"/>
+      <c r="AN55" s="24"/>
+      <c r="AO55" s="24"/>
+      <c r="AP55" s="24"/>
+      <c r="AQ55" s="24"/>
+      <c r="AR55" s="24"/>
+      <c r="AS55" s="24"/>
+      <c r="AT55" s="24"/>
+      <c r="AU55" s="24"/>
+      <c r="AV55" s="24"/>
+      <c r="AW55" s="24"/>
+      <c r="AX55" s="24"/>
+      <c r="AY55" s="24"/>
+      <c r="AZ55" s="24"/>
+      <c r="BA55" s="24"/>
+      <c r="BB55" s="24"/>
+      <c r="BC55" s="24"/>
+      <c r="BD55" s="24"/>
+      <c r="BE55" s="24"/>
+      <c r="BF55" s="24"/>
+      <c r="BG55" s="24"/>
+      <c r="BH55" s="24"/>
+      <c r="BI55" s="24"/>
+      <c r="BJ55" s="24"/>
+      <c r="BK55" s="24"/>
+      <c r="BL55" s="24"/>
     </row>
     <row r="56" spans="1:64" s="3" customFormat="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="I56" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
@@ -4704,7 +4659,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="I57" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:64" s="6" customFormat="1">
@@ -4866,7 +4821,7 @@
     </row>
     <row r="87" spans="6:10">
       <c r="I87" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="6:10">
@@ -4890,174 +4845,174 @@
       </c>
     </row>
     <row r="97" spans="6:64">
-      <c r="K97" s="16" t="s">
+      <c r="K97" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="17"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="17"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="17"/>
-      <c r="X97" s="17"/>
-      <c r="Y97" s="17"/>
-      <c r="Z97" s="17"/>
-      <c r="AA97" s="17"/>
-      <c r="AB97" s="17"/>
-      <c r="AC97" s="17"/>
-      <c r="AD97" s="17"/>
-      <c r="AE97" s="17"/>
-      <c r="AF97" s="17"/>
-      <c r="AG97" s="17"/>
-      <c r="AH97" s="17"/>
-      <c r="AI97" s="17"/>
-      <c r="AJ97" s="17"/>
-      <c r="AK97" s="17"/>
-      <c r="AL97" s="17"/>
-      <c r="AM97" s="17"/>
-      <c r="AN97" s="17"/>
-      <c r="AO97" s="17"/>
-      <c r="AP97" s="17"/>
-      <c r="AQ97" s="17"/>
-      <c r="AR97" s="17"/>
-      <c r="AS97" s="17"/>
-      <c r="AT97" s="17"/>
-      <c r="AU97" s="17"/>
-      <c r="AV97" s="17"/>
-      <c r="AW97" s="17"/>
-      <c r="AX97" s="17"/>
-      <c r="AY97" s="17"/>
-      <c r="AZ97" s="17"/>
-      <c r="BA97" s="17"/>
-      <c r="BB97" s="17"/>
-      <c r="BC97" s="17"/>
-      <c r="BD97" s="17"/>
-      <c r="BE97" s="17"/>
-      <c r="BF97" s="17"/>
-      <c r="BG97" s="17"/>
-      <c r="BH97" s="17"/>
-      <c r="BI97" s="17"/>
-      <c r="BJ97" s="17"/>
-      <c r="BK97" s="17"/>
-      <c r="BL97" s="17"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="24"/>
+      <c r="T97" s="24"/>
+      <c r="U97" s="24"/>
+      <c r="V97" s="24"/>
+      <c r="W97" s="24"/>
+      <c r="X97" s="24"/>
+      <c r="Y97" s="24"/>
+      <c r="Z97" s="24"/>
+      <c r="AA97" s="24"/>
+      <c r="AB97" s="24"/>
+      <c r="AC97" s="24"/>
+      <c r="AD97" s="24"/>
+      <c r="AE97" s="24"/>
+      <c r="AF97" s="24"/>
+      <c r="AG97" s="24"/>
+      <c r="AH97" s="24"/>
+      <c r="AI97" s="24"/>
+      <c r="AJ97" s="24"/>
+      <c r="AK97" s="24"/>
+      <c r="AL97" s="24"/>
+      <c r="AM97" s="24"/>
+      <c r="AN97" s="24"/>
+      <c r="AO97" s="24"/>
+      <c r="AP97" s="24"/>
+      <c r="AQ97" s="24"/>
+      <c r="AR97" s="24"/>
+      <c r="AS97" s="24"/>
+      <c r="AT97" s="24"/>
+      <c r="AU97" s="24"/>
+      <c r="AV97" s="24"/>
+      <c r="AW97" s="24"/>
+      <c r="AX97" s="24"/>
+      <c r="AY97" s="24"/>
+      <c r="AZ97" s="24"/>
+      <c r="BA97" s="24"/>
+      <c r="BB97" s="24"/>
+      <c r="BC97" s="24"/>
+      <c r="BD97" s="24"/>
+      <c r="BE97" s="24"/>
+      <c r="BF97" s="24"/>
+      <c r="BG97" s="24"/>
+      <c r="BH97" s="24"/>
+      <c r="BI97" s="24"/>
+      <c r="BJ97" s="24"/>
+      <c r="BK97" s="24"/>
+      <c r="BL97" s="24"/>
     </row>
     <row r="98" spans="6:64">
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="17"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="17"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="17"/>
-      <c r="X98" s="17"/>
-      <c r="Y98" s="17"/>
-      <c r="Z98" s="17"/>
-      <c r="AA98" s="17"/>
-      <c r="AB98" s="17"/>
-      <c r="AC98" s="17"/>
-      <c r="AD98" s="17"/>
-      <c r="AE98" s="17"/>
-      <c r="AF98" s="17"/>
-      <c r="AG98" s="17"/>
-      <c r="AH98" s="17"/>
-      <c r="AI98" s="17"/>
-      <c r="AJ98" s="17"/>
-      <c r="AK98" s="17"/>
-      <c r="AL98" s="17"/>
-      <c r="AM98" s="17"/>
-      <c r="AN98" s="17"/>
-      <c r="AO98" s="17"/>
-      <c r="AP98" s="17"/>
-      <c r="AQ98" s="17"/>
-      <c r="AR98" s="17"/>
-      <c r="AS98" s="17"/>
-      <c r="AT98" s="17"/>
-      <c r="AU98" s="17"/>
-      <c r="AV98" s="17"/>
-      <c r="AW98" s="17"/>
-      <c r="AX98" s="17"/>
-      <c r="AY98" s="17"/>
-      <c r="AZ98" s="17"/>
-      <c r="BA98" s="17"/>
-      <c r="BB98" s="17"/>
-      <c r="BC98" s="17"/>
-      <c r="BD98" s="17"/>
-      <c r="BE98" s="17"/>
-      <c r="BF98" s="17"/>
-      <c r="BG98" s="17"/>
-      <c r="BH98" s="17"/>
-      <c r="BI98" s="17"/>
-      <c r="BJ98" s="17"/>
-      <c r="BK98" s="17"/>
-      <c r="BL98" s="17"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="24"/>
+      <c r="Q98" s="24"/>
+      <c r="R98" s="24"/>
+      <c r="S98" s="24"/>
+      <c r="T98" s="24"/>
+      <c r="U98" s="24"/>
+      <c r="V98" s="24"/>
+      <c r="W98" s="24"/>
+      <c r="X98" s="24"/>
+      <c r="Y98" s="24"/>
+      <c r="Z98" s="24"/>
+      <c r="AA98" s="24"/>
+      <c r="AB98" s="24"/>
+      <c r="AC98" s="24"/>
+      <c r="AD98" s="24"/>
+      <c r="AE98" s="24"/>
+      <c r="AF98" s="24"/>
+      <c r="AG98" s="24"/>
+      <c r="AH98" s="24"/>
+      <c r="AI98" s="24"/>
+      <c r="AJ98" s="24"/>
+      <c r="AK98" s="24"/>
+      <c r="AL98" s="24"/>
+      <c r="AM98" s="24"/>
+      <c r="AN98" s="24"/>
+      <c r="AO98" s="24"/>
+      <c r="AP98" s="24"/>
+      <c r="AQ98" s="24"/>
+      <c r="AR98" s="24"/>
+      <c r="AS98" s="24"/>
+      <c r="AT98" s="24"/>
+      <c r="AU98" s="24"/>
+      <c r="AV98" s="24"/>
+      <c r="AW98" s="24"/>
+      <c r="AX98" s="24"/>
+      <c r="AY98" s="24"/>
+      <c r="AZ98" s="24"/>
+      <c r="BA98" s="24"/>
+      <c r="BB98" s="24"/>
+      <c r="BC98" s="24"/>
+      <c r="BD98" s="24"/>
+      <c r="BE98" s="24"/>
+      <c r="BF98" s="24"/>
+      <c r="BG98" s="24"/>
+      <c r="BH98" s="24"/>
+      <c r="BI98" s="24"/>
+      <c r="BJ98" s="24"/>
+      <c r="BK98" s="24"/>
+      <c r="BL98" s="24"/>
     </row>
     <row r="99" spans="6:64">
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
-      <c r="X99" s="17"/>
-      <c r="Y99" s="17"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="17"/>
-      <c r="AB99" s="17"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="17"/>
-      <c r="AE99" s="17"/>
-      <c r="AF99" s="17"/>
-      <c r="AG99" s="17"/>
-      <c r="AH99" s="17"/>
-      <c r="AI99" s="17"/>
-      <c r="AJ99" s="17"/>
-      <c r="AK99" s="17"/>
-      <c r="AL99" s="17"/>
-      <c r="AM99" s="17"/>
-      <c r="AN99" s="17"/>
-      <c r="AO99" s="17"/>
-      <c r="AP99" s="17"/>
-      <c r="AQ99" s="17"/>
-      <c r="AR99" s="17"/>
-      <c r="AS99" s="17"/>
-      <c r="AT99" s="17"/>
-      <c r="AU99" s="17"/>
-      <c r="AV99" s="17"/>
-      <c r="AW99" s="17"/>
-      <c r="AX99" s="17"/>
-      <c r="AY99" s="17"/>
-      <c r="AZ99" s="17"/>
-      <c r="BA99" s="17"/>
-      <c r="BB99" s="17"/>
-      <c r="BC99" s="17"/>
-      <c r="BD99" s="17"/>
-      <c r="BE99" s="17"/>
-      <c r="BF99" s="17"/>
-      <c r="BG99" s="17"/>
-      <c r="BH99" s="17"/>
-      <c r="BI99" s="17"/>
-      <c r="BJ99" s="17"/>
-      <c r="BK99" s="17"/>
-      <c r="BL99" s="17"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="24"/>
+      <c r="Q99" s="24"/>
+      <c r="R99" s="24"/>
+      <c r="S99" s="24"/>
+      <c r="T99" s="24"/>
+      <c r="U99" s="24"/>
+      <c r="V99" s="24"/>
+      <c r="W99" s="24"/>
+      <c r="X99" s="24"/>
+      <c r="Y99" s="24"/>
+      <c r="Z99" s="24"/>
+      <c r="AA99" s="24"/>
+      <c r="AB99" s="24"/>
+      <c r="AC99" s="24"/>
+      <c r="AD99" s="24"/>
+      <c r="AE99" s="24"/>
+      <c r="AF99" s="24"/>
+      <c r="AG99" s="24"/>
+      <c r="AH99" s="24"/>
+      <c r="AI99" s="24"/>
+      <c r="AJ99" s="24"/>
+      <c r="AK99" s="24"/>
+      <c r="AL99" s="24"/>
+      <c r="AM99" s="24"/>
+      <c r="AN99" s="24"/>
+      <c r="AO99" s="24"/>
+      <c r="AP99" s="24"/>
+      <c r="AQ99" s="24"/>
+      <c r="AR99" s="24"/>
+      <c r="AS99" s="24"/>
+      <c r="AT99" s="24"/>
+      <c r="AU99" s="24"/>
+      <c r="AV99" s="24"/>
+      <c r="AW99" s="24"/>
+      <c r="AX99" s="24"/>
+      <c r="AY99" s="24"/>
+      <c r="AZ99" s="24"/>
+      <c r="BA99" s="24"/>
+      <c r="BB99" s="24"/>
+      <c r="BC99" s="24"/>
+      <c r="BD99" s="24"/>
+      <c r="BE99" s="24"/>
+      <c r="BF99" s="24"/>
+      <c r="BG99" s="24"/>
+      <c r="BH99" s="24"/>
+      <c r="BI99" s="24"/>
+      <c r="BJ99" s="24"/>
+      <c r="BK99" s="24"/>
+      <c r="BL99" s="24"/>
     </row>
     <row r="100" spans="6:64">
       <c r="K100" s="1" t="s">
@@ -5066,22 +5021,22 @@
     </row>
     <row r="101" spans="6:64">
       <c r="H101" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="6:64">
       <c r="I102" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="6:64">
       <c r="J103" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="6:64">
       <c r="J104" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="6:64">
@@ -5108,174 +5063,174 @@
       </c>
     </row>
     <row r="109" spans="6:64">
-      <c r="I109" s="16" t="s">
+      <c r="I109" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
-      <c r="R109" s="17"/>
-      <c r="S109" s="17"/>
-      <c r="T109" s="17"/>
-      <c r="U109" s="17"/>
-      <c r="V109" s="17"/>
-      <c r="W109" s="17"/>
-      <c r="X109" s="17"/>
-      <c r="Y109" s="17"/>
-      <c r="Z109" s="17"/>
-      <c r="AA109" s="17"/>
-      <c r="AB109" s="17"/>
-      <c r="AC109" s="17"/>
-      <c r="AD109" s="17"/>
-      <c r="AE109" s="17"/>
-      <c r="AF109" s="17"/>
-      <c r="AG109" s="17"/>
-      <c r="AH109" s="17"/>
-      <c r="AI109" s="17"/>
-      <c r="AJ109" s="17"/>
-      <c r="AK109" s="17"/>
-      <c r="AL109" s="17"/>
-      <c r="AM109" s="17"/>
-      <c r="AN109" s="17"/>
-      <c r="AO109" s="17"/>
-      <c r="AP109" s="17"/>
-      <c r="AQ109" s="17"/>
-      <c r="AR109" s="17"/>
-      <c r="AS109" s="17"/>
-      <c r="AT109" s="17"/>
-      <c r="AU109" s="17"/>
-      <c r="AV109" s="17"/>
-      <c r="AW109" s="17"/>
-      <c r="AX109" s="17"/>
-      <c r="AY109" s="17"/>
-      <c r="AZ109" s="17"/>
-      <c r="BA109" s="17"/>
-      <c r="BB109" s="17"/>
-      <c r="BC109" s="17"/>
-      <c r="BD109" s="17"/>
-      <c r="BE109" s="17"/>
-      <c r="BF109" s="17"/>
-      <c r="BG109" s="17"/>
-      <c r="BH109" s="17"/>
-      <c r="BI109" s="17"/>
-      <c r="BJ109" s="17"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
+      <c r="R109" s="24"/>
+      <c r="S109" s="24"/>
+      <c r="T109" s="24"/>
+      <c r="U109" s="24"/>
+      <c r="V109" s="24"/>
+      <c r="W109" s="24"/>
+      <c r="X109" s="24"/>
+      <c r="Y109" s="24"/>
+      <c r="Z109" s="24"/>
+      <c r="AA109" s="24"/>
+      <c r="AB109" s="24"/>
+      <c r="AC109" s="24"/>
+      <c r="AD109" s="24"/>
+      <c r="AE109" s="24"/>
+      <c r="AF109" s="24"/>
+      <c r="AG109" s="24"/>
+      <c r="AH109" s="24"/>
+      <c r="AI109" s="24"/>
+      <c r="AJ109" s="24"/>
+      <c r="AK109" s="24"/>
+      <c r="AL109" s="24"/>
+      <c r="AM109" s="24"/>
+      <c r="AN109" s="24"/>
+      <c r="AO109" s="24"/>
+      <c r="AP109" s="24"/>
+      <c r="AQ109" s="24"/>
+      <c r="AR109" s="24"/>
+      <c r="AS109" s="24"/>
+      <c r="AT109" s="24"/>
+      <c r="AU109" s="24"/>
+      <c r="AV109" s="24"/>
+      <c r="AW109" s="24"/>
+      <c r="AX109" s="24"/>
+      <c r="AY109" s="24"/>
+      <c r="AZ109" s="24"/>
+      <c r="BA109" s="24"/>
+      <c r="BB109" s="24"/>
+      <c r="BC109" s="24"/>
+      <c r="BD109" s="24"/>
+      <c r="BE109" s="24"/>
+      <c r="BF109" s="24"/>
+      <c r="BG109" s="24"/>
+      <c r="BH109" s="24"/>
+      <c r="BI109" s="24"/>
+      <c r="BJ109" s="24"/>
     </row>
     <row r="110" spans="6:64">
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="17"/>
-      <c r="T110" s="17"/>
-      <c r="U110" s="17"/>
-      <c r="V110" s="17"/>
-      <c r="W110" s="17"/>
-      <c r="X110" s="17"/>
-      <c r="Y110" s="17"/>
-      <c r="Z110" s="17"/>
-      <c r="AA110" s="17"/>
-      <c r="AB110" s="17"/>
-      <c r="AC110" s="17"/>
-      <c r="AD110" s="17"/>
-      <c r="AE110" s="17"/>
-      <c r="AF110" s="17"/>
-      <c r="AG110" s="17"/>
-      <c r="AH110" s="17"/>
-      <c r="AI110" s="17"/>
-      <c r="AJ110" s="17"/>
-      <c r="AK110" s="17"/>
-      <c r="AL110" s="17"/>
-      <c r="AM110" s="17"/>
-      <c r="AN110" s="17"/>
-      <c r="AO110" s="17"/>
-      <c r="AP110" s="17"/>
-      <c r="AQ110" s="17"/>
-      <c r="AR110" s="17"/>
-      <c r="AS110" s="17"/>
-      <c r="AT110" s="17"/>
-      <c r="AU110" s="17"/>
-      <c r="AV110" s="17"/>
-      <c r="AW110" s="17"/>
-      <c r="AX110" s="17"/>
-      <c r="AY110" s="17"/>
-      <c r="AZ110" s="17"/>
-      <c r="BA110" s="17"/>
-      <c r="BB110" s="17"/>
-      <c r="BC110" s="17"/>
-      <c r="BD110" s="17"/>
-      <c r="BE110" s="17"/>
-      <c r="BF110" s="17"/>
-      <c r="BG110" s="17"/>
-      <c r="BH110" s="17"/>
-      <c r="BI110" s="17"/>
-      <c r="BJ110" s="17"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="24"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="24"/>
+      <c r="Q110" s="24"/>
+      <c r="R110" s="24"/>
+      <c r="S110" s="24"/>
+      <c r="T110" s="24"/>
+      <c r="U110" s="24"/>
+      <c r="V110" s="24"/>
+      <c r="W110" s="24"/>
+      <c r="X110" s="24"/>
+      <c r="Y110" s="24"/>
+      <c r="Z110" s="24"/>
+      <c r="AA110" s="24"/>
+      <c r="AB110" s="24"/>
+      <c r="AC110" s="24"/>
+      <c r="AD110" s="24"/>
+      <c r="AE110" s="24"/>
+      <c r="AF110" s="24"/>
+      <c r="AG110" s="24"/>
+      <c r="AH110" s="24"/>
+      <c r="AI110" s="24"/>
+      <c r="AJ110" s="24"/>
+      <c r="AK110" s="24"/>
+      <c r="AL110" s="24"/>
+      <c r="AM110" s="24"/>
+      <c r="AN110" s="24"/>
+      <c r="AO110" s="24"/>
+      <c r="AP110" s="24"/>
+      <c r="AQ110" s="24"/>
+      <c r="AR110" s="24"/>
+      <c r="AS110" s="24"/>
+      <c r="AT110" s="24"/>
+      <c r="AU110" s="24"/>
+      <c r="AV110" s="24"/>
+      <c r="AW110" s="24"/>
+      <c r="AX110" s="24"/>
+      <c r="AY110" s="24"/>
+      <c r="AZ110" s="24"/>
+      <c r="BA110" s="24"/>
+      <c r="BB110" s="24"/>
+      <c r="BC110" s="24"/>
+      <c r="BD110" s="24"/>
+      <c r="BE110" s="24"/>
+      <c r="BF110" s="24"/>
+      <c r="BG110" s="24"/>
+      <c r="BH110" s="24"/>
+      <c r="BI110" s="24"/>
+      <c r="BJ110" s="24"/>
     </row>
     <row r="111" spans="6:64">
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="17"/>
-      <c r="S111" s="17"/>
-      <c r="T111" s="17"/>
-      <c r="U111" s="17"/>
-      <c r="V111" s="17"/>
-      <c r="W111" s="17"/>
-      <c r="X111" s="17"/>
-      <c r="Y111" s="17"/>
-      <c r="Z111" s="17"/>
-      <c r="AA111" s="17"/>
-      <c r="AB111" s="17"/>
-      <c r="AC111" s="17"/>
-      <c r="AD111" s="17"/>
-      <c r="AE111" s="17"/>
-      <c r="AF111" s="17"/>
-      <c r="AG111" s="17"/>
-      <c r="AH111" s="17"/>
-      <c r="AI111" s="17"/>
-      <c r="AJ111" s="17"/>
-      <c r="AK111" s="17"/>
-      <c r="AL111" s="17"/>
-      <c r="AM111" s="17"/>
-      <c r="AN111" s="17"/>
-      <c r="AO111" s="17"/>
-      <c r="AP111" s="17"/>
-      <c r="AQ111" s="17"/>
-      <c r="AR111" s="17"/>
-      <c r="AS111" s="17"/>
-      <c r="AT111" s="17"/>
-      <c r="AU111" s="17"/>
-      <c r="AV111" s="17"/>
-      <c r="AW111" s="17"/>
-      <c r="AX111" s="17"/>
-      <c r="AY111" s="17"/>
-      <c r="AZ111" s="17"/>
-      <c r="BA111" s="17"/>
-      <c r="BB111" s="17"/>
-      <c r="BC111" s="17"/>
-      <c r="BD111" s="17"/>
-      <c r="BE111" s="17"/>
-      <c r="BF111" s="17"/>
-      <c r="BG111" s="17"/>
-      <c r="BH111" s="17"/>
-      <c r="BI111" s="17"/>
-      <c r="BJ111" s="17"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="24"/>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="24"/>
+      <c r="U111" s="24"/>
+      <c r="V111" s="24"/>
+      <c r="W111" s="24"/>
+      <c r="X111" s="24"/>
+      <c r="Y111" s="24"/>
+      <c r="Z111" s="24"/>
+      <c r="AA111" s="24"/>
+      <c r="AB111" s="24"/>
+      <c r="AC111" s="24"/>
+      <c r="AD111" s="24"/>
+      <c r="AE111" s="24"/>
+      <c r="AF111" s="24"/>
+      <c r="AG111" s="24"/>
+      <c r="AH111" s="24"/>
+      <c r="AI111" s="24"/>
+      <c r="AJ111" s="24"/>
+      <c r="AK111" s="24"/>
+      <c r="AL111" s="24"/>
+      <c r="AM111" s="24"/>
+      <c r="AN111" s="24"/>
+      <c r="AO111" s="24"/>
+      <c r="AP111" s="24"/>
+      <c r="AQ111" s="24"/>
+      <c r="AR111" s="24"/>
+      <c r="AS111" s="24"/>
+      <c r="AT111" s="24"/>
+      <c r="AU111" s="24"/>
+      <c r="AV111" s="24"/>
+      <c r="AW111" s="24"/>
+      <c r="AX111" s="24"/>
+      <c r="AY111" s="24"/>
+      <c r="AZ111" s="24"/>
+      <c r="BA111" s="24"/>
+      <c r="BB111" s="24"/>
+      <c r="BC111" s="24"/>
+      <c r="BD111" s="24"/>
+      <c r="BE111" s="24"/>
+      <c r="BF111" s="24"/>
+      <c r="BG111" s="24"/>
+      <c r="BH111" s="24"/>
+      <c r="BI111" s="24"/>
+      <c r="BJ111" s="24"/>
     </row>
     <row r="112" spans="6:64">
       <c r="H112" s="1" t="s">
@@ -5653,174 +5608,174 @@
       </c>
     </row>
     <row r="180" spans="1:62">
-      <c r="I180" s="16" t="s">
+      <c r="I180" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="J180" s="17"/>
-      <c r="K180" s="17"/>
-      <c r="L180" s="17"/>
-      <c r="M180" s="17"/>
-      <c r="N180" s="17"/>
-      <c r="O180" s="17"/>
-      <c r="P180" s="17"/>
-      <c r="Q180" s="17"/>
-      <c r="R180" s="17"/>
-      <c r="S180" s="17"/>
-      <c r="T180" s="17"/>
-      <c r="U180" s="17"/>
-      <c r="V180" s="17"/>
-      <c r="W180" s="17"/>
-      <c r="X180" s="17"/>
-      <c r="Y180" s="17"/>
-      <c r="Z180" s="17"/>
-      <c r="AA180" s="17"/>
-      <c r="AB180" s="17"/>
-      <c r="AC180" s="17"/>
-      <c r="AD180" s="17"/>
-      <c r="AE180" s="17"/>
-      <c r="AF180" s="17"/>
-      <c r="AG180" s="17"/>
-      <c r="AH180" s="17"/>
-      <c r="AI180" s="17"/>
-      <c r="AJ180" s="17"/>
-      <c r="AK180" s="17"/>
-      <c r="AL180" s="17"/>
-      <c r="AM180" s="17"/>
-      <c r="AN180" s="17"/>
-      <c r="AO180" s="17"/>
-      <c r="AP180" s="17"/>
-      <c r="AQ180" s="17"/>
-      <c r="AR180" s="17"/>
-      <c r="AS180" s="17"/>
-      <c r="AT180" s="17"/>
-      <c r="AU180" s="17"/>
-      <c r="AV180" s="17"/>
-      <c r="AW180" s="17"/>
-      <c r="AX180" s="17"/>
-      <c r="AY180" s="17"/>
-      <c r="AZ180" s="17"/>
-      <c r="BA180" s="17"/>
-      <c r="BB180" s="17"/>
-      <c r="BC180" s="17"/>
-      <c r="BD180" s="17"/>
-      <c r="BE180" s="17"/>
-      <c r="BF180" s="17"/>
-      <c r="BG180" s="17"/>
-      <c r="BH180" s="17"/>
-      <c r="BI180" s="17"/>
-      <c r="BJ180" s="17"/>
+      <c r="J180" s="24"/>
+      <c r="K180" s="24"/>
+      <c r="L180" s="24"/>
+      <c r="M180" s="24"/>
+      <c r="N180" s="24"/>
+      <c r="O180" s="24"/>
+      <c r="P180" s="24"/>
+      <c r="Q180" s="24"/>
+      <c r="R180" s="24"/>
+      <c r="S180" s="24"/>
+      <c r="T180" s="24"/>
+      <c r="U180" s="24"/>
+      <c r="V180" s="24"/>
+      <c r="W180" s="24"/>
+      <c r="X180" s="24"/>
+      <c r="Y180" s="24"/>
+      <c r="Z180" s="24"/>
+      <c r="AA180" s="24"/>
+      <c r="AB180" s="24"/>
+      <c r="AC180" s="24"/>
+      <c r="AD180" s="24"/>
+      <c r="AE180" s="24"/>
+      <c r="AF180" s="24"/>
+      <c r="AG180" s="24"/>
+      <c r="AH180" s="24"/>
+      <c r="AI180" s="24"/>
+      <c r="AJ180" s="24"/>
+      <c r="AK180" s="24"/>
+      <c r="AL180" s="24"/>
+      <c r="AM180" s="24"/>
+      <c r="AN180" s="24"/>
+      <c r="AO180" s="24"/>
+      <c r="AP180" s="24"/>
+      <c r="AQ180" s="24"/>
+      <c r="AR180" s="24"/>
+      <c r="AS180" s="24"/>
+      <c r="AT180" s="24"/>
+      <c r="AU180" s="24"/>
+      <c r="AV180" s="24"/>
+      <c r="AW180" s="24"/>
+      <c r="AX180" s="24"/>
+      <c r="AY180" s="24"/>
+      <c r="AZ180" s="24"/>
+      <c r="BA180" s="24"/>
+      <c r="BB180" s="24"/>
+      <c r="BC180" s="24"/>
+      <c r="BD180" s="24"/>
+      <c r="BE180" s="24"/>
+      <c r="BF180" s="24"/>
+      <c r="BG180" s="24"/>
+      <c r="BH180" s="24"/>
+      <c r="BI180" s="24"/>
+      <c r="BJ180" s="24"/>
     </row>
     <row r="181" spans="1:62">
-      <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
-      <c r="K181" s="17"/>
-      <c r="L181" s="17"/>
-      <c r="M181" s="17"/>
-      <c r="N181" s="17"/>
-      <c r="O181" s="17"/>
-      <c r="P181" s="17"/>
-      <c r="Q181" s="17"/>
-      <c r="R181" s="17"/>
-      <c r="S181" s="17"/>
-      <c r="T181" s="17"/>
-      <c r="U181" s="17"/>
-      <c r="V181" s="17"/>
-      <c r="W181" s="17"/>
-      <c r="X181" s="17"/>
-      <c r="Y181" s="17"/>
-      <c r="Z181" s="17"/>
-      <c r="AA181" s="17"/>
-      <c r="AB181" s="17"/>
-      <c r="AC181" s="17"/>
-      <c r="AD181" s="17"/>
-      <c r="AE181" s="17"/>
-      <c r="AF181" s="17"/>
-      <c r="AG181" s="17"/>
-      <c r="AH181" s="17"/>
-      <c r="AI181" s="17"/>
-      <c r="AJ181" s="17"/>
-      <c r="AK181" s="17"/>
-      <c r="AL181" s="17"/>
-      <c r="AM181" s="17"/>
-      <c r="AN181" s="17"/>
-      <c r="AO181" s="17"/>
-      <c r="AP181" s="17"/>
-      <c r="AQ181" s="17"/>
-      <c r="AR181" s="17"/>
-      <c r="AS181" s="17"/>
-      <c r="AT181" s="17"/>
-      <c r="AU181" s="17"/>
-      <c r="AV181" s="17"/>
-      <c r="AW181" s="17"/>
-      <c r="AX181" s="17"/>
-      <c r="AY181" s="17"/>
-      <c r="AZ181" s="17"/>
-      <c r="BA181" s="17"/>
-      <c r="BB181" s="17"/>
-      <c r="BC181" s="17"/>
-      <c r="BD181" s="17"/>
-      <c r="BE181" s="17"/>
-      <c r="BF181" s="17"/>
-      <c r="BG181" s="17"/>
-      <c r="BH181" s="17"/>
-      <c r="BI181" s="17"/>
-      <c r="BJ181" s="17"/>
+      <c r="I181" s="24"/>
+      <c r="J181" s="24"/>
+      <c r="K181" s="24"/>
+      <c r="L181" s="24"/>
+      <c r="M181" s="24"/>
+      <c r="N181" s="24"/>
+      <c r="O181" s="24"/>
+      <c r="P181" s="24"/>
+      <c r="Q181" s="24"/>
+      <c r="R181" s="24"/>
+      <c r="S181" s="24"/>
+      <c r="T181" s="24"/>
+      <c r="U181" s="24"/>
+      <c r="V181" s="24"/>
+      <c r="W181" s="24"/>
+      <c r="X181" s="24"/>
+      <c r="Y181" s="24"/>
+      <c r="Z181" s="24"/>
+      <c r="AA181" s="24"/>
+      <c r="AB181" s="24"/>
+      <c r="AC181" s="24"/>
+      <c r="AD181" s="24"/>
+      <c r="AE181" s="24"/>
+      <c r="AF181" s="24"/>
+      <c r="AG181" s="24"/>
+      <c r="AH181" s="24"/>
+      <c r="AI181" s="24"/>
+      <c r="AJ181" s="24"/>
+      <c r="AK181" s="24"/>
+      <c r="AL181" s="24"/>
+      <c r="AM181" s="24"/>
+      <c r="AN181" s="24"/>
+      <c r="AO181" s="24"/>
+      <c r="AP181" s="24"/>
+      <c r="AQ181" s="24"/>
+      <c r="AR181" s="24"/>
+      <c r="AS181" s="24"/>
+      <c r="AT181" s="24"/>
+      <c r="AU181" s="24"/>
+      <c r="AV181" s="24"/>
+      <c r="AW181" s="24"/>
+      <c r="AX181" s="24"/>
+      <c r="AY181" s="24"/>
+      <c r="AZ181" s="24"/>
+      <c r="BA181" s="24"/>
+      <c r="BB181" s="24"/>
+      <c r="BC181" s="24"/>
+      <c r="BD181" s="24"/>
+      <c r="BE181" s="24"/>
+      <c r="BF181" s="24"/>
+      <c r="BG181" s="24"/>
+      <c r="BH181" s="24"/>
+      <c r="BI181" s="24"/>
+      <c r="BJ181" s="24"/>
     </row>
     <row r="182" spans="1:62">
-      <c r="I182" s="17"/>
-      <c r="J182" s="17"/>
-      <c r="K182" s="17"/>
-      <c r="L182" s="17"/>
-      <c r="M182" s="17"/>
-      <c r="N182" s="17"/>
-      <c r="O182" s="17"/>
-      <c r="P182" s="17"/>
-      <c r="Q182" s="17"/>
-      <c r="R182" s="17"/>
-      <c r="S182" s="17"/>
-      <c r="T182" s="17"/>
-      <c r="U182" s="17"/>
-      <c r="V182" s="17"/>
-      <c r="W182" s="17"/>
-      <c r="X182" s="17"/>
-      <c r="Y182" s="17"/>
-      <c r="Z182" s="17"/>
-      <c r="AA182" s="17"/>
-      <c r="AB182" s="17"/>
-      <c r="AC182" s="17"/>
-      <c r="AD182" s="17"/>
-      <c r="AE182" s="17"/>
-      <c r="AF182" s="17"/>
-      <c r="AG182" s="17"/>
-      <c r="AH182" s="17"/>
-      <c r="AI182" s="17"/>
-      <c r="AJ182" s="17"/>
-      <c r="AK182" s="17"/>
-      <c r="AL182" s="17"/>
-      <c r="AM182" s="17"/>
-      <c r="AN182" s="17"/>
-      <c r="AO182" s="17"/>
-      <c r="AP182" s="17"/>
-      <c r="AQ182" s="17"/>
-      <c r="AR182" s="17"/>
-      <c r="AS182" s="17"/>
-      <c r="AT182" s="17"/>
-      <c r="AU182" s="17"/>
-      <c r="AV182" s="17"/>
-      <c r="AW182" s="17"/>
-      <c r="AX182" s="17"/>
-      <c r="AY182" s="17"/>
-      <c r="AZ182" s="17"/>
-      <c r="BA182" s="17"/>
-      <c r="BB182" s="17"/>
-      <c r="BC182" s="17"/>
-      <c r="BD182" s="17"/>
-      <c r="BE182" s="17"/>
-      <c r="BF182" s="17"/>
-      <c r="BG182" s="17"/>
-      <c r="BH182" s="17"/>
-      <c r="BI182" s="17"/>
-      <c r="BJ182" s="17"/>
+      <c r="I182" s="24"/>
+      <c r="J182" s="24"/>
+      <c r="K182" s="24"/>
+      <c r="L182" s="24"/>
+      <c r="M182" s="24"/>
+      <c r="N182" s="24"/>
+      <c r="O182" s="24"/>
+      <c r="P182" s="24"/>
+      <c r="Q182" s="24"/>
+      <c r="R182" s="24"/>
+      <c r="S182" s="24"/>
+      <c r="T182" s="24"/>
+      <c r="U182" s="24"/>
+      <c r="V182" s="24"/>
+      <c r="W182" s="24"/>
+      <c r="X182" s="24"/>
+      <c r="Y182" s="24"/>
+      <c r="Z182" s="24"/>
+      <c r="AA182" s="24"/>
+      <c r="AB182" s="24"/>
+      <c r="AC182" s="24"/>
+      <c r="AD182" s="24"/>
+      <c r="AE182" s="24"/>
+      <c r="AF182" s="24"/>
+      <c r="AG182" s="24"/>
+      <c r="AH182" s="24"/>
+      <c r="AI182" s="24"/>
+      <c r="AJ182" s="24"/>
+      <c r="AK182" s="24"/>
+      <c r="AL182" s="24"/>
+      <c r="AM182" s="24"/>
+      <c r="AN182" s="24"/>
+      <c r="AO182" s="24"/>
+      <c r="AP182" s="24"/>
+      <c r="AQ182" s="24"/>
+      <c r="AR182" s="24"/>
+      <c r="AS182" s="24"/>
+      <c r="AT182" s="24"/>
+      <c r="AU182" s="24"/>
+      <c r="AV182" s="24"/>
+      <c r="AW182" s="24"/>
+      <c r="AX182" s="24"/>
+      <c r="AY182" s="24"/>
+      <c r="AZ182" s="24"/>
+      <c r="BA182" s="24"/>
+      <c r="BB182" s="24"/>
+      <c r="BC182" s="24"/>
+      <c r="BD182" s="24"/>
+      <c r="BE182" s="24"/>
+      <c r="BF182" s="24"/>
+      <c r="BG182" s="24"/>
+      <c r="BH182" s="24"/>
+      <c r="BI182" s="24"/>
+      <c r="BJ182" s="24"/>
     </row>
     <row r="183" spans="1:62">
       <c r="H183" s="1" t="s">
@@ -5954,174 +5909,174 @@
       </c>
     </row>
     <row r="205" spans="2:59">
-      <c r="F205" s="16" t="s">
+      <c r="F205" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G205" s="17"/>
-      <c r="H205" s="17"/>
-      <c r="I205" s="17"/>
-      <c r="J205" s="17"/>
-      <c r="K205" s="17"/>
-      <c r="L205" s="17"/>
-      <c r="M205" s="17"/>
-      <c r="N205" s="17"/>
-      <c r="O205" s="17"/>
-      <c r="P205" s="17"/>
-      <c r="Q205" s="17"/>
-      <c r="R205" s="17"/>
-      <c r="S205" s="17"/>
-      <c r="T205" s="17"/>
-      <c r="U205" s="17"/>
-      <c r="V205" s="17"/>
-      <c r="W205" s="17"/>
-      <c r="X205" s="17"/>
-      <c r="Y205" s="17"/>
-      <c r="Z205" s="17"/>
-      <c r="AA205" s="17"/>
-      <c r="AB205" s="17"/>
-      <c r="AC205" s="17"/>
-      <c r="AD205" s="17"/>
-      <c r="AE205" s="17"/>
-      <c r="AF205" s="17"/>
-      <c r="AG205" s="17"/>
-      <c r="AH205" s="17"/>
-      <c r="AI205" s="17"/>
-      <c r="AJ205" s="17"/>
-      <c r="AK205" s="17"/>
-      <c r="AL205" s="17"/>
-      <c r="AM205" s="17"/>
-      <c r="AN205" s="17"/>
-      <c r="AO205" s="17"/>
-      <c r="AP205" s="17"/>
-      <c r="AQ205" s="17"/>
-      <c r="AR205" s="17"/>
-      <c r="AS205" s="17"/>
-      <c r="AT205" s="17"/>
-      <c r="AU205" s="17"/>
-      <c r="AV205" s="17"/>
-      <c r="AW205" s="17"/>
-      <c r="AX205" s="17"/>
-      <c r="AY205" s="17"/>
-      <c r="AZ205" s="17"/>
-      <c r="BA205" s="17"/>
-      <c r="BB205" s="17"/>
-      <c r="BC205" s="17"/>
-      <c r="BD205" s="17"/>
-      <c r="BE205" s="17"/>
-      <c r="BF205" s="17"/>
-      <c r="BG205" s="17"/>
+      <c r="G205" s="24"/>
+      <c r="H205" s="24"/>
+      <c r="I205" s="24"/>
+      <c r="J205" s="24"/>
+      <c r="K205" s="24"/>
+      <c r="L205" s="24"/>
+      <c r="M205" s="24"/>
+      <c r="N205" s="24"/>
+      <c r="O205" s="24"/>
+      <c r="P205" s="24"/>
+      <c r="Q205" s="24"/>
+      <c r="R205" s="24"/>
+      <c r="S205" s="24"/>
+      <c r="T205" s="24"/>
+      <c r="U205" s="24"/>
+      <c r="V205" s="24"/>
+      <c r="W205" s="24"/>
+      <c r="X205" s="24"/>
+      <c r="Y205" s="24"/>
+      <c r="Z205" s="24"/>
+      <c r="AA205" s="24"/>
+      <c r="AB205" s="24"/>
+      <c r="AC205" s="24"/>
+      <c r="AD205" s="24"/>
+      <c r="AE205" s="24"/>
+      <c r="AF205" s="24"/>
+      <c r="AG205" s="24"/>
+      <c r="AH205" s="24"/>
+      <c r="AI205" s="24"/>
+      <c r="AJ205" s="24"/>
+      <c r="AK205" s="24"/>
+      <c r="AL205" s="24"/>
+      <c r="AM205" s="24"/>
+      <c r="AN205" s="24"/>
+      <c r="AO205" s="24"/>
+      <c r="AP205" s="24"/>
+      <c r="AQ205" s="24"/>
+      <c r="AR205" s="24"/>
+      <c r="AS205" s="24"/>
+      <c r="AT205" s="24"/>
+      <c r="AU205" s="24"/>
+      <c r="AV205" s="24"/>
+      <c r="AW205" s="24"/>
+      <c r="AX205" s="24"/>
+      <c r="AY205" s="24"/>
+      <c r="AZ205" s="24"/>
+      <c r="BA205" s="24"/>
+      <c r="BB205" s="24"/>
+      <c r="BC205" s="24"/>
+      <c r="BD205" s="24"/>
+      <c r="BE205" s="24"/>
+      <c r="BF205" s="24"/>
+      <c r="BG205" s="24"/>
     </row>
     <row r="206" spans="2:59">
-      <c r="F206" s="17"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="17"/>
-      <c r="I206" s="17"/>
-      <c r="J206" s="17"/>
-      <c r="K206" s="17"/>
-      <c r="L206" s="17"/>
-      <c r="M206" s="17"/>
-      <c r="N206" s="17"/>
-      <c r="O206" s="17"/>
-      <c r="P206" s="17"/>
-      <c r="Q206" s="17"/>
-      <c r="R206" s="17"/>
-      <c r="S206" s="17"/>
-      <c r="T206" s="17"/>
-      <c r="U206" s="17"/>
-      <c r="V206" s="17"/>
-      <c r="W206" s="17"/>
-      <c r="X206" s="17"/>
-      <c r="Y206" s="17"/>
-      <c r="Z206" s="17"/>
-      <c r="AA206" s="17"/>
-      <c r="AB206" s="17"/>
-      <c r="AC206" s="17"/>
-      <c r="AD206" s="17"/>
-      <c r="AE206" s="17"/>
-      <c r="AF206" s="17"/>
-      <c r="AG206" s="17"/>
-      <c r="AH206" s="17"/>
-      <c r="AI206" s="17"/>
-      <c r="AJ206" s="17"/>
-      <c r="AK206" s="17"/>
-      <c r="AL206" s="17"/>
-      <c r="AM206" s="17"/>
-      <c r="AN206" s="17"/>
-      <c r="AO206" s="17"/>
-      <c r="AP206" s="17"/>
-      <c r="AQ206" s="17"/>
-      <c r="AR206" s="17"/>
-      <c r="AS206" s="17"/>
-      <c r="AT206" s="17"/>
-      <c r="AU206" s="17"/>
-      <c r="AV206" s="17"/>
-      <c r="AW206" s="17"/>
-      <c r="AX206" s="17"/>
-      <c r="AY206" s="17"/>
-      <c r="AZ206" s="17"/>
-      <c r="BA206" s="17"/>
-      <c r="BB206" s="17"/>
-      <c r="BC206" s="17"/>
-      <c r="BD206" s="17"/>
-      <c r="BE206" s="17"/>
-      <c r="BF206" s="17"/>
-      <c r="BG206" s="17"/>
+      <c r="F206" s="24"/>
+      <c r="G206" s="24"/>
+      <c r="H206" s="24"/>
+      <c r="I206" s="24"/>
+      <c r="J206" s="24"/>
+      <c r="K206" s="24"/>
+      <c r="L206" s="24"/>
+      <c r="M206" s="24"/>
+      <c r="N206" s="24"/>
+      <c r="O206" s="24"/>
+      <c r="P206" s="24"/>
+      <c r="Q206" s="24"/>
+      <c r="R206" s="24"/>
+      <c r="S206" s="24"/>
+      <c r="T206" s="24"/>
+      <c r="U206" s="24"/>
+      <c r="V206" s="24"/>
+      <c r="W206" s="24"/>
+      <c r="X206" s="24"/>
+      <c r="Y206" s="24"/>
+      <c r="Z206" s="24"/>
+      <c r="AA206" s="24"/>
+      <c r="AB206" s="24"/>
+      <c r="AC206" s="24"/>
+      <c r="AD206" s="24"/>
+      <c r="AE206" s="24"/>
+      <c r="AF206" s="24"/>
+      <c r="AG206" s="24"/>
+      <c r="AH206" s="24"/>
+      <c r="AI206" s="24"/>
+      <c r="AJ206" s="24"/>
+      <c r="AK206" s="24"/>
+      <c r="AL206" s="24"/>
+      <c r="AM206" s="24"/>
+      <c r="AN206" s="24"/>
+      <c r="AO206" s="24"/>
+      <c r="AP206" s="24"/>
+      <c r="AQ206" s="24"/>
+      <c r="AR206" s="24"/>
+      <c r="AS206" s="24"/>
+      <c r="AT206" s="24"/>
+      <c r="AU206" s="24"/>
+      <c r="AV206" s="24"/>
+      <c r="AW206" s="24"/>
+      <c r="AX206" s="24"/>
+      <c r="AY206" s="24"/>
+      <c r="AZ206" s="24"/>
+      <c r="BA206" s="24"/>
+      <c r="BB206" s="24"/>
+      <c r="BC206" s="24"/>
+      <c r="BD206" s="24"/>
+      <c r="BE206" s="24"/>
+      <c r="BF206" s="24"/>
+      <c r="BG206" s="24"/>
     </row>
     <row r="207" spans="2:59">
-      <c r="F207" s="17"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
-      <c r="I207" s="17"/>
-      <c r="J207" s="17"/>
-      <c r="K207" s="17"/>
-      <c r="L207" s="17"/>
-      <c r="M207" s="17"/>
-      <c r="N207" s="17"/>
-      <c r="O207" s="17"/>
-      <c r="P207" s="17"/>
-      <c r="Q207" s="17"/>
-      <c r="R207" s="17"/>
-      <c r="S207" s="17"/>
-      <c r="T207" s="17"/>
-      <c r="U207" s="17"/>
-      <c r="V207" s="17"/>
-      <c r="W207" s="17"/>
-      <c r="X207" s="17"/>
-      <c r="Y207" s="17"/>
-      <c r="Z207" s="17"/>
-      <c r="AA207" s="17"/>
-      <c r="AB207" s="17"/>
-      <c r="AC207" s="17"/>
-      <c r="AD207" s="17"/>
-      <c r="AE207" s="17"/>
-      <c r="AF207" s="17"/>
-      <c r="AG207" s="17"/>
-      <c r="AH207" s="17"/>
-      <c r="AI207" s="17"/>
-      <c r="AJ207" s="17"/>
-      <c r="AK207" s="17"/>
-      <c r="AL207" s="17"/>
-      <c r="AM207" s="17"/>
-      <c r="AN207" s="17"/>
-      <c r="AO207" s="17"/>
-      <c r="AP207" s="17"/>
-      <c r="AQ207" s="17"/>
-      <c r="AR207" s="17"/>
-      <c r="AS207" s="17"/>
-      <c r="AT207" s="17"/>
-      <c r="AU207" s="17"/>
-      <c r="AV207" s="17"/>
-      <c r="AW207" s="17"/>
-      <c r="AX207" s="17"/>
-      <c r="AY207" s="17"/>
-      <c r="AZ207" s="17"/>
-      <c r="BA207" s="17"/>
-      <c r="BB207" s="17"/>
-      <c r="BC207" s="17"/>
-      <c r="BD207" s="17"/>
-      <c r="BE207" s="17"/>
-      <c r="BF207" s="17"/>
-      <c r="BG207" s="17"/>
+      <c r="F207" s="24"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="24"/>
+      <c r="I207" s="24"/>
+      <c r="J207" s="24"/>
+      <c r="K207" s="24"/>
+      <c r="L207" s="24"/>
+      <c r="M207" s="24"/>
+      <c r="N207" s="24"/>
+      <c r="O207" s="24"/>
+      <c r="P207" s="24"/>
+      <c r="Q207" s="24"/>
+      <c r="R207" s="24"/>
+      <c r="S207" s="24"/>
+      <c r="T207" s="24"/>
+      <c r="U207" s="24"/>
+      <c r="V207" s="24"/>
+      <c r="W207" s="24"/>
+      <c r="X207" s="24"/>
+      <c r="Y207" s="24"/>
+      <c r="Z207" s="24"/>
+      <c r="AA207" s="24"/>
+      <c r="AB207" s="24"/>
+      <c r="AC207" s="24"/>
+      <c r="AD207" s="24"/>
+      <c r="AE207" s="24"/>
+      <c r="AF207" s="24"/>
+      <c r="AG207" s="24"/>
+      <c r="AH207" s="24"/>
+      <c r="AI207" s="24"/>
+      <c r="AJ207" s="24"/>
+      <c r="AK207" s="24"/>
+      <c r="AL207" s="24"/>
+      <c r="AM207" s="24"/>
+      <c r="AN207" s="24"/>
+      <c r="AO207" s="24"/>
+      <c r="AP207" s="24"/>
+      <c r="AQ207" s="24"/>
+      <c r="AR207" s="24"/>
+      <c r="AS207" s="24"/>
+      <c r="AT207" s="24"/>
+      <c r="AU207" s="24"/>
+      <c r="AV207" s="24"/>
+      <c r="AW207" s="24"/>
+      <c r="AX207" s="24"/>
+      <c r="AY207" s="24"/>
+      <c r="AZ207" s="24"/>
+      <c r="BA207" s="24"/>
+      <c r="BB207" s="24"/>
+      <c r="BC207" s="24"/>
+      <c r="BD207" s="24"/>
+      <c r="BE207" s="24"/>
+      <c r="BF207" s="24"/>
+      <c r="BG207" s="24"/>
     </row>
     <row r="208" spans="2:59">
       <c r="D208" s="7" t="s">
@@ -6161,102 +6116,102 @@
     </row>
     <row r="215" spans="2:6">
       <c r="B215" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="216" spans="2:6">
       <c r="C216" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="217" spans="2:6">
       <c r="D217" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="218" spans="2:6">
       <c r="D218" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="219" spans="2:6">
       <c r="E219" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="220" spans="2:6">
       <c r="E220" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="221" spans="2:6">
       <c r="F221" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="222" spans="2:6">
       <c r="F222" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="223" spans="2:6">
       <c r="F223" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="224" spans="2:6">
       <c r="F224" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="225" spans="5:8">
       <c r="G225" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="226" spans="5:8">
       <c r="G226" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227" spans="5:8">
       <c r="F227" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="228" spans="5:8">
       <c r="G228" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="229" spans="5:8">
       <c r="F229" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="230" spans="5:8">
       <c r="G230" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="231" spans="5:8">
       <c r="H231" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="232" spans="5:8">
       <c r="H232" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="233" spans="5:8">
       <c r="E233" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="234" spans="5:8">
       <c r="F234" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="235" spans="5:8">
@@ -6266,102 +6221,62 @@
     </row>
     <row r="236" spans="5:8">
       <c r="G236" s="9" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="237" spans="5:8">
       <c r="G237" s="9" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="238" spans="5:8">
       <c r="E238" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="239" spans="5:8">
       <c r="F239" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="5:8">
       <c r="F240" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="241" spans="3:6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="241" spans="4:6">
       <c r="F241" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="242" spans="3:6">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="242" spans="4:6">
       <c r="F242" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="243" spans="3:6">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="243" spans="4:6">
       <c r="D243" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="244" spans="3:6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="244" spans="4:6">
       <c r="E244" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="245" spans="3:6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="245" spans="4:6">
       <c r="F245" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="246" spans="3:6">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="246" spans="4:6">
       <c r="E246" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="247" spans="3:6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6">
       <c r="F247" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="248" spans="3:6">
-      <c r="C248" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="249" spans="3:6">
-      <c r="D249" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="250" spans="3:6">
-      <c r="D250" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="251" spans="3:6">
-      <c r="E251" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="253" spans="3:6">
-      <c r="D253" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="254" spans="3:6">
-      <c r="D254" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="259" spans="3:4">
-      <c r="C259" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="260" spans="3:4">
-      <c r="D260" s="1" t="s">
-        <v>246</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/Scala/Reference/Scala_学習.xlsx
+++ b/Scala/Reference/Scala_学習.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Git\Cal_Master\Scala\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059E6435-E9CB-4D7E-AFE6-ACBB935CEF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353161DF-9456-4C1D-A791-970A74325CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="9360" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学習" sheetId="1" r:id="rId1"/>
     <sheet name="環境" sheetId="2" r:id="rId2"/>
+    <sheet name="研修テキスト" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="453">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -2354,6 +2355,501 @@
   <si>
     <t>https://qiita.com/yuichi0301/items/4785e3fe490736d4ee50</t>
   </si>
+  <si>
+    <t>https://scala-text.github.io/scala_text/</t>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Introduction · Scala研修テキスト</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ドワンゴScala研修テキスト</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scalaの基本 · Scala研修テキスト</t>
+  </si>
+  <si>
+    <t>https://scala-text.github.io/scala_text/basic.html</t>
+  </si>
+  <si>
+    <t>REPL</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Read Eval Print Loop</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>対話的にScalaプログラムを実行することが可能</t>
+    <rPh sb="22" eb="24">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>起動</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コマンドプロンプト-[sbt console]実行-</t>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Hello, World!</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>println("Hello, World!")</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※targetフォルダが作成されるため、事前にカレントディレクトリを</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>作業フォルダにすることを推奨</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>文字列実行</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"Hello, World!"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>res1: String = "Hello, World!"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>実行した内容の型を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>resN</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>REPLに何かの式(値を返すもの)を入力したときに、</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>その式の値にREPLが勝手に名前をつけたもの</t>
+  </si>
+  <si>
+    <t>以下のように終了するまで有効となる</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「res1」は戻り値がないため使用しても出力はない</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(少数).asInstanceOf[Int]</t>
+    <rPh sb="1" eb="3">
+      <t>ショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>数値キャスト</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変数の基本</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scalaの変数にはvalとvarの2種類があり、</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>前者は一度変数に値を格納したら変更不可能で、</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>後者はCやJavaの通常の変数のように変更可能</t>
+  </si>
+  <si>
+    <t>valはJavaのfinalな変数と同じように考えれば良い</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scalaでは基本的に、varはあまり使わずvalのみでプログラミングする</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>val x = 3 * 2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>x: Int = 6</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>式の結果から変数の型をコンパイラが推論できるため、型の宣言が必要ない</t>
+    <rPh sb="0" eb="1">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scalaのこの機能を(ローカル)型推論と呼ぶ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定義した変数の型は別の型、としては扱えない(コンパイルエラーとなる)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>明示的に変数の型を宣言することも可能</t>
+    <rPh sb="16" eb="18">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>('val'|'var')&lt;変数名&gt; : &lt;型名&gt; = &lt;式&gt;</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>y: Int = 9</t>
+  </si>
+  <si>
+    <t>val y: Int = 3 * 3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sbtでプログラムをコンパイル・実行する · Scala研修テキスト</t>
+  </si>
+  <si>
+    <t>https://scala-text.github.io/scala_text/sbt-compile-execute.html</t>
+  </si>
+  <si>
+    <t>REPL終了</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>HelloWorld.scala</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>HelloWorldプログラム</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>object HelloWorld {
+  def main(args: Array[String]): Unit = {
+    println("Hello, World!")
+  }
+}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>以下ファイルを作成</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>build.sbt</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ソースコード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>scalaVersion := "2.13.2"
+scalacOptions ++= Seq("-deprecation", "-feature", "-unchecked", "-Xlint")</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>警告オプション有効化</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>-deprecation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>今後廃止予定のAPI</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>-feature</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>明示的に使用を宣言しないといけない</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>実験的な機能や注意しなければならない機能</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>-unchecke</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>型消去などでパターンマッチが有効に機能しない場合</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>-Xlint</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>その他、望ましい書き方や落とし穴についての情報</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>├ HelloWorld.scala</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>└ build.sbt</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scalaバージョン指定</t>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Root</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カレントを「Root」に[sbt]実行-sbtプロンプト表示-[run]実行</t>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>scala&gt; var x = 3 * 3
+x: Int = 9
+scala&gt; x = "Hello, World!"
+&lt;console&gt;:12: error: type mismatch;
+ found   : String("Hello, World!")
+ required: Int
+       x = "Hello, World!"
+           ^</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>scala&gt; 1.0 + 2.0
+res1: Double = 3.0
+scala&gt;res1
+res2: Double = 3.0
+scala&gt; (res2).asInstanceOf[Int]
+res3: Int = 3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>scala&gt; println("Hello, World!")
+Hello, World!
+scala&gt; "Hello, World!"
+res2: String = "Hello, World!"
+scala&gt; 0xff
+res3: Int = 255
+scala&gt; res1
+scala&gt; res2
+res4: String = Hello, World!</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>&gt; run
+[info] Compiling 1 Scala source to  ...
+...
+...
+  100.0% [##########] 2.5 KiB (18.2 KiB / s)
+[info] Non-compiled module 'compiler-bridge_2.13' for Scala 2.13.2. Compiling...
+9 warnings
+[info]   Compilation completed in 10.535s.
+[info] running HelloWorld
+Hello, World!
+[success] Total time: 116 s (01:56), completed 2020/05/15 0:50:03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プログラムがコンパイルされ、実行、「Hello, World!」が表示される</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>runコマンドはmainメソッドを持っているオブジェクトを実行する</t>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sbt管理下のScalaプログラムはconsoleコマンドでREPLから呼び出し可能となる</t>
+    <rPh sb="40" eb="42">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Rootフォルダに以下追加</t>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>User.scala</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>class User(val name: String, val age: Int)
+object User {
+  def printUser(user: User) = println(user.name + " " + user.age)
+}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Userクラス、Userオブジェクトが存在し、</t>
+    <rPh sb="19" eb="21">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>UserオブジェクトにUserの情報を表示するprintUserメソッドが存在</t>
+    <rPh sb="37" eb="39">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>REPL起動-</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>scala&gt; val u = new User("dwango", 13)
+val u: User = User@1dfc11a2
+scala&gt; User.printUser(u)
+dwango 13</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IDE(IntelliJ IDEA) · Scala研修テキスト</t>
+  </si>
+  <si>
+    <t>https://scala-text.github.io/scala_text/IDE.html</t>
+  </si>
+  <si>
+    <t>:q</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\Tutorial\研修テキスト\01_Compile</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Git</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -2533,7 +3029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2562,6 +3058,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2914,9 +3413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z156"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157:G159"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3507,30 +4004,30 @@
     </row>
     <row r="115" spans="3:26">
       <c r="C115" s="2"/>
-      <c r="G115" s="20" t="s">
+      <c r="G115" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
-      <c r="L115" s="21"/>
-      <c r="M115" s="21"/>
-      <c r="N115" s="21"/>
-      <c r="O115" s="21"/>
-      <c r="P115" s="22"/>
-      <c r="Q115" s="20" t="s">
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="23"/>
+      <c r="Q115" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="R115" s="21"/>
-      <c r="S115" s="21"/>
-      <c r="T115" s="21"/>
-      <c r="U115" s="21"/>
-      <c r="V115" s="21"/>
-      <c r="W115" s="21"/>
-      <c r="X115" s="21"/>
-      <c r="Y115" s="21"/>
-      <c r="Z115" s="22"/>
+      <c r="R115" s="22"/>
+      <c r="S115" s="22"/>
+      <c r="T115" s="22"/>
+      <c r="U115" s="22"/>
+      <c r="V115" s="22"/>
+      <c r="W115" s="22"/>
+      <c r="X115" s="22"/>
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="23"/>
     </row>
     <row r="116" spans="3:26">
       <c r="C116" s="2"/>
@@ -3784,9 +4281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD0DF89-1E31-49AC-94D0-98F20317FDA8}">
   <dimension ref="A1:BL247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="F221" sqref="F221"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3860,178 +4355,178 @@
     <row r="11" spans="1:64" s="3" customFormat="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="24"/>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="24"/>
-      <c r="AV11" s="24"/>
-      <c r="AW11" s="24"/>
-      <c r="AX11" s="24"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="24"/>
-      <c r="BA11" s="24"/>
-      <c r="BB11" s="24"/>
-      <c r="BC11" s="24"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="24"/>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="24"/>
-      <c r="BH11" s="24"/>
-      <c r="BI11" s="24"/>
-      <c r="BJ11" s="24"/>
-      <c r="BK11" s="24"/>
-      <c r="BL11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="25"/>
+      <c r="BD11" s="25"/>
+      <c r="BE11" s="25"/>
+      <c r="BF11" s="25"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="25"/>
+      <c r="BL11" s="25"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
-      <c r="AT12" s="24"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="24"/>
-      <c r="AX12" s="24"/>
-      <c r="AY12" s="24"/>
-      <c r="AZ12" s="24"/>
-      <c r="BA12" s="24"/>
-      <c r="BB12" s="24"/>
-      <c r="BC12" s="24"/>
-      <c r="BD12" s="24"/>
-      <c r="BE12" s="24"/>
-      <c r="BF12" s="24"/>
-      <c r="BG12" s="24"/>
-      <c r="BH12" s="24"/>
-      <c r="BI12" s="24"/>
-      <c r="BJ12" s="24"/>
-      <c r="BK12" s="24"/>
-      <c r="BL12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="25"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="25"/>
+      <c r="AZ12" s="25"/>
+      <c r="BA12" s="25"/>
+      <c r="BB12" s="25"/>
+      <c r="BC12" s="25"/>
+      <c r="BD12" s="25"/>
+      <c r="BE12" s="25"/>
+      <c r="BF12" s="25"/>
+      <c r="BG12" s="25"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="25"/>
+      <c r="BJ12" s="25"/>
+      <c r="BK12" s="25"/>
+      <c r="BL12" s="25"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="24"/>
-      <c r="BC13" s="24"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="24"/>
-      <c r="BJ13" s="24"/>
-      <c r="BK13" s="24"/>
-      <c r="BL13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="25"/>
+      <c r="AY13" s="25"/>
+      <c r="AZ13" s="25"/>
+      <c r="BA13" s="25"/>
+      <c r="BB13" s="25"/>
+      <c r="BC13" s="25"/>
+      <c r="BD13" s="25"/>
+      <c r="BE13" s="25"/>
+      <c r="BF13" s="25"/>
+      <c r="BG13" s="25"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="25"/>
+      <c r="BJ13" s="25"/>
+      <c r="BK13" s="25"/>
+      <c r="BL13" s="25"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1">
       <c r="A14" s="2"/>
@@ -4421,178 +4916,178 @@
     <row r="53" spans="1:64" s="3" customFormat="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="K53" s="23" t="s">
+      <c r="K53" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
-      <c r="X53" s="24"/>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="24"/>
-      <c r="AA53" s="24"/>
-      <c r="AB53" s="24"/>
-      <c r="AC53" s="24"/>
-      <c r="AD53" s="24"/>
-      <c r="AE53" s="24"/>
-      <c r="AF53" s="24"/>
-      <c r="AG53" s="24"/>
-      <c r="AH53" s="24"/>
-      <c r="AI53" s="24"/>
-      <c r="AJ53" s="24"/>
-      <c r="AK53" s="24"/>
-      <c r="AL53" s="24"/>
-      <c r="AM53" s="24"/>
-      <c r="AN53" s="24"/>
-      <c r="AO53" s="24"/>
-      <c r="AP53" s="24"/>
-      <c r="AQ53" s="24"/>
-      <c r="AR53" s="24"/>
-      <c r="AS53" s="24"/>
-      <c r="AT53" s="24"/>
-      <c r="AU53" s="24"/>
-      <c r="AV53" s="24"/>
-      <c r="AW53" s="24"/>
-      <c r="AX53" s="24"/>
-      <c r="AY53" s="24"/>
-      <c r="AZ53" s="24"/>
-      <c r="BA53" s="24"/>
-      <c r="BB53" s="24"/>
-      <c r="BC53" s="24"/>
-      <c r="BD53" s="24"/>
-      <c r="BE53" s="24"/>
-      <c r="BF53" s="24"/>
-      <c r="BG53" s="24"/>
-      <c r="BH53" s="24"/>
-      <c r="BI53" s="24"/>
-      <c r="BJ53" s="24"/>
-      <c r="BK53" s="24"/>
-      <c r="BL53" s="24"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+      <c r="AF53" s="25"/>
+      <c r="AG53" s="25"/>
+      <c r="AH53" s="25"/>
+      <c r="AI53" s="25"/>
+      <c r="AJ53" s="25"/>
+      <c r="AK53" s="25"/>
+      <c r="AL53" s="25"/>
+      <c r="AM53" s="25"/>
+      <c r="AN53" s="25"/>
+      <c r="AO53" s="25"/>
+      <c r="AP53" s="25"/>
+      <c r="AQ53" s="25"/>
+      <c r="AR53" s="25"/>
+      <c r="AS53" s="25"/>
+      <c r="AT53" s="25"/>
+      <c r="AU53" s="25"/>
+      <c r="AV53" s="25"/>
+      <c r="AW53" s="25"/>
+      <c r="AX53" s="25"/>
+      <c r="AY53" s="25"/>
+      <c r="AZ53" s="25"/>
+      <c r="BA53" s="25"/>
+      <c r="BB53" s="25"/>
+      <c r="BC53" s="25"/>
+      <c r="BD53" s="25"/>
+      <c r="BE53" s="25"/>
+      <c r="BF53" s="25"/>
+      <c r="BG53" s="25"/>
+      <c r="BH53" s="25"/>
+      <c r="BI53" s="25"/>
+      <c r="BJ53" s="25"/>
+      <c r="BK53" s="25"/>
+      <c r="BL53" s="25"/>
     </row>
     <row r="54" spans="1:64" s="3" customFormat="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="24"/>
-      <c r="AB54" s="24"/>
-      <c r="AC54" s="24"/>
-      <c r="AD54" s="24"/>
-      <c r="AE54" s="24"/>
-      <c r="AF54" s="24"/>
-      <c r="AG54" s="24"/>
-      <c r="AH54" s="24"/>
-      <c r="AI54" s="24"/>
-      <c r="AJ54" s="24"/>
-      <c r="AK54" s="24"/>
-      <c r="AL54" s="24"/>
-      <c r="AM54" s="24"/>
-      <c r="AN54" s="24"/>
-      <c r="AO54" s="24"/>
-      <c r="AP54" s="24"/>
-      <c r="AQ54" s="24"/>
-      <c r="AR54" s="24"/>
-      <c r="AS54" s="24"/>
-      <c r="AT54" s="24"/>
-      <c r="AU54" s="24"/>
-      <c r="AV54" s="24"/>
-      <c r="AW54" s="24"/>
-      <c r="AX54" s="24"/>
-      <c r="AY54" s="24"/>
-      <c r="AZ54" s="24"/>
-      <c r="BA54" s="24"/>
-      <c r="BB54" s="24"/>
-      <c r="BC54" s="24"/>
-      <c r="BD54" s="24"/>
-      <c r="BE54" s="24"/>
-      <c r="BF54" s="24"/>
-      <c r="BG54" s="24"/>
-      <c r="BH54" s="24"/>
-      <c r="BI54" s="24"/>
-      <c r="BJ54" s="24"/>
-      <c r="BK54" s="24"/>
-      <c r="BL54" s="24"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="25"/>
+      <c r="AD54" s="25"/>
+      <c r="AE54" s="25"/>
+      <c r="AF54" s="25"/>
+      <c r="AG54" s="25"/>
+      <c r="AH54" s="25"/>
+      <c r="AI54" s="25"/>
+      <c r="AJ54" s="25"/>
+      <c r="AK54" s="25"/>
+      <c r="AL54" s="25"/>
+      <c r="AM54" s="25"/>
+      <c r="AN54" s="25"/>
+      <c r="AO54" s="25"/>
+      <c r="AP54" s="25"/>
+      <c r="AQ54" s="25"/>
+      <c r="AR54" s="25"/>
+      <c r="AS54" s="25"/>
+      <c r="AT54" s="25"/>
+      <c r="AU54" s="25"/>
+      <c r="AV54" s="25"/>
+      <c r="AW54" s="25"/>
+      <c r="AX54" s="25"/>
+      <c r="AY54" s="25"/>
+      <c r="AZ54" s="25"/>
+      <c r="BA54" s="25"/>
+      <c r="BB54" s="25"/>
+      <c r="BC54" s="25"/>
+      <c r="BD54" s="25"/>
+      <c r="BE54" s="25"/>
+      <c r="BF54" s="25"/>
+      <c r="BG54" s="25"/>
+      <c r="BH54" s="25"/>
+      <c r="BI54" s="25"/>
+      <c r="BJ54" s="25"/>
+      <c r="BK54" s="25"/>
+      <c r="BL54" s="25"/>
     </row>
     <row r="55" spans="1:64" s="3" customFormat="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="24"/>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="24"/>
-      <c r="AA55" s="24"/>
-      <c r="AB55" s="24"/>
-      <c r="AC55" s="24"/>
-      <c r="AD55" s="24"/>
-      <c r="AE55" s="24"/>
-      <c r="AF55" s="24"/>
-      <c r="AG55" s="24"/>
-      <c r="AH55" s="24"/>
-      <c r="AI55" s="24"/>
-      <c r="AJ55" s="24"/>
-      <c r="AK55" s="24"/>
-      <c r="AL55" s="24"/>
-      <c r="AM55" s="24"/>
-      <c r="AN55" s="24"/>
-      <c r="AO55" s="24"/>
-      <c r="AP55" s="24"/>
-      <c r="AQ55" s="24"/>
-      <c r="AR55" s="24"/>
-      <c r="AS55" s="24"/>
-      <c r="AT55" s="24"/>
-      <c r="AU55" s="24"/>
-      <c r="AV55" s="24"/>
-      <c r="AW55" s="24"/>
-      <c r="AX55" s="24"/>
-      <c r="AY55" s="24"/>
-      <c r="AZ55" s="24"/>
-      <c r="BA55" s="24"/>
-      <c r="BB55" s="24"/>
-      <c r="BC55" s="24"/>
-      <c r="BD55" s="24"/>
-      <c r="BE55" s="24"/>
-      <c r="BF55" s="24"/>
-      <c r="BG55" s="24"/>
-      <c r="BH55" s="24"/>
-      <c r="BI55" s="24"/>
-      <c r="BJ55" s="24"/>
-      <c r="BK55" s="24"/>
-      <c r="BL55" s="24"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="25"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+      <c r="AF55" s="25"/>
+      <c r="AG55" s="25"/>
+      <c r="AH55" s="25"/>
+      <c r="AI55" s="25"/>
+      <c r="AJ55" s="25"/>
+      <c r="AK55" s="25"/>
+      <c r="AL55" s="25"/>
+      <c r="AM55" s="25"/>
+      <c r="AN55" s="25"/>
+      <c r="AO55" s="25"/>
+      <c r="AP55" s="25"/>
+      <c r="AQ55" s="25"/>
+      <c r="AR55" s="25"/>
+      <c r="AS55" s="25"/>
+      <c r="AT55" s="25"/>
+      <c r="AU55" s="25"/>
+      <c r="AV55" s="25"/>
+      <c r="AW55" s="25"/>
+      <c r="AX55" s="25"/>
+      <c r="AY55" s="25"/>
+      <c r="AZ55" s="25"/>
+      <c r="BA55" s="25"/>
+      <c r="BB55" s="25"/>
+      <c r="BC55" s="25"/>
+      <c r="BD55" s="25"/>
+      <c r="BE55" s="25"/>
+      <c r="BF55" s="25"/>
+      <c r="BG55" s="25"/>
+      <c r="BH55" s="25"/>
+      <c r="BI55" s="25"/>
+      <c r="BJ55" s="25"/>
+      <c r="BK55" s="25"/>
+      <c r="BL55" s="25"/>
     </row>
     <row r="56" spans="1:64" s="3" customFormat="1">
       <c r="A56" s="2"/>
@@ -4845,174 +5340,174 @@
       </c>
     </row>
     <row r="97" spans="6:64">
-      <c r="K97" s="23" t="s">
+      <c r="K97" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="24"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="24"/>
-      <c r="Q97" s="24"/>
-      <c r="R97" s="24"/>
-      <c r="S97" s="24"/>
-      <c r="T97" s="24"/>
-      <c r="U97" s="24"/>
-      <c r="V97" s="24"/>
-      <c r="W97" s="24"/>
-      <c r="X97" s="24"/>
-      <c r="Y97" s="24"/>
-      <c r="Z97" s="24"/>
-      <c r="AA97" s="24"/>
-      <c r="AB97" s="24"/>
-      <c r="AC97" s="24"/>
-      <c r="AD97" s="24"/>
-      <c r="AE97" s="24"/>
-      <c r="AF97" s="24"/>
-      <c r="AG97" s="24"/>
-      <c r="AH97" s="24"/>
-      <c r="AI97" s="24"/>
-      <c r="AJ97" s="24"/>
-      <c r="AK97" s="24"/>
-      <c r="AL97" s="24"/>
-      <c r="AM97" s="24"/>
-      <c r="AN97" s="24"/>
-      <c r="AO97" s="24"/>
-      <c r="AP97" s="24"/>
-      <c r="AQ97" s="24"/>
-      <c r="AR97" s="24"/>
-      <c r="AS97" s="24"/>
-      <c r="AT97" s="24"/>
-      <c r="AU97" s="24"/>
-      <c r="AV97" s="24"/>
-      <c r="AW97" s="24"/>
-      <c r="AX97" s="24"/>
-      <c r="AY97" s="24"/>
-      <c r="AZ97" s="24"/>
-      <c r="BA97" s="24"/>
-      <c r="BB97" s="24"/>
-      <c r="BC97" s="24"/>
-      <c r="BD97" s="24"/>
-      <c r="BE97" s="24"/>
-      <c r="BF97" s="24"/>
-      <c r="BG97" s="24"/>
-      <c r="BH97" s="24"/>
-      <c r="BI97" s="24"/>
-      <c r="BJ97" s="24"/>
-      <c r="BK97" s="24"/>
-      <c r="BL97" s="24"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="25"/>
+      <c r="U97" s="25"/>
+      <c r="V97" s="25"/>
+      <c r="W97" s="25"/>
+      <c r="X97" s="25"/>
+      <c r="Y97" s="25"/>
+      <c r="Z97" s="25"/>
+      <c r="AA97" s="25"/>
+      <c r="AB97" s="25"/>
+      <c r="AC97" s="25"/>
+      <c r="AD97" s="25"/>
+      <c r="AE97" s="25"/>
+      <c r="AF97" s="25"/>
+      <c r="AG97" s="25"/>
+      <c r="AH97" s="25"/>
+      <c r="AI97" s="25"/>
+      <c r="AJ97" s="25"/>
+      <c r="AK97" s="25"/>
+      <c r="AL97" s="25"/>
+      <c r="AM97" s="25"/>
+      <c r="AN97" s="25"/>
+      <c r="AO97" s="25"/>
+      <c r="AP97" s="25"/>
+      <c r="AQ97" s="25"/>
+      <c r="AR97" s="25"/>
+      <c r="AS97" s="25"/>
+      <c r="AT97" s="25"/>
+      <c r="AU97" s="25"/>
+      <c r="AV97" s="25"/>
+      <c r="AW97" s="25"/>
+      <c r="AX97" s="25"/>
+      <c r="AY97" s="25"/>
+      <c r="AZ97" s="25"/>
+      <c r="BA97" s="25"/>
+      <c r="BB97" s="25"/>
+      <c r="BC97" s="25"/>
+      <c r="BD97" s="25"/>
+      <c r="BE97" s="25"/>
+      <c r="BF97" s="25"/>
+      <c r="BG97" s="25"/>
+      <c r="BH97" s="25"/>
+      <c r="BI97" s="25"/>
+      <c r="BJ97" s="25"/>
+      <c r="BK97" s="25"/>
+      <c r="BL97" s="25"/>
     </row>
     <row r="98" spans="6:64">
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
-      <c r="T98" s="24"/>
-      <c r="U98" s="24"/>
-      <c r="V98" s="24"/>
-      <c r="W98" s="24"/>
-      <c r="X98" s="24"/>
-      <c r="Y98" s="24"/>
-      <c r="Z98" s="24"/>
-      <c r="AA98" s="24"/>
-      <c r="AB98" s="24"/>
-      <c r="AC98" s="24"/>
-      <c r="AD98" s="24"/>
-      <c r="AE98" s="24"/>
-      <c r="AF98" s="24"/>
-      <c r="AG98" s="24"/>
-      <c r="AH98" s="24"/>
-      <c r="AI98" s="24"/>
-      <c r="AJ98" s="24"/>
-      <c r="AK98" s="24"/>
-      <c r="AL98" s="24"/>
-      <c r="AM98" s="24"/>
-      <c r="AN98" s="24"/>
-      <c r="AO98" s="24"/>
-      <c r="AP98" s="24"/>
-      <c r="AQ98" s="24"/>
-      <c r="AR98" s="24"/>
-      <c r="AS98" s="24"/>
-      <c r="AT98" s="24"/>
-      <c r="AU98" s="24"/>
-      <c r="AV98" s="24"/>
-      <c r="AW98" s="24"/>
-      <c r="AX98" s="24"/>
-      <c r="AY98" s="24"/>
-      <c r="AZ98" s="24"/>
-      <c r="BA98" s="24"/>
-      <c r="BB98" s="24"/>
-      <c r="BC98" s="24"/>
-      <c r="BD98" s="24"/>
-      <c r="BE98" s="24"/>
-      <c r="BF98" s="24"/>
-      <c r="BG98" s="24"/>
-      <c r="BH98" s="24"/>
-      <c r="BI98" s="24"/>
-      <c r="BJ98" s="24"/>
-      <c r="BK98" s="24"/>
-      <c r="BL98" s="24"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="25"/>
+      <c r="R98" s="25"/>
+      <c r="S98" s="25"/>
+      <c r="T98" s="25"/>
+      <c r="U98" s="25"/>
+      <c r="V98" s="25"/>
+      <c r="W98" s="25"/>
+      <c r="X98" s="25"/>
+      <c r="Y98" s="25"/>
+      <c r="Z98" s="25"/>
+      <c r="AA98" s="25"/>
+      <c r="AB98" s="25"/>
+      <c r="AC98" s="25"/>
+      <c r="AD98" s="25"/>
+      <c r="AE98" s="25"/>
+      <c r="AF98" s="25"/>
+      <c r="AG98" s="25"/>
+      <c r="AH98" s="25"/>
+      <c r="AI98" s="25"/>
+      <c r="AJ98" s="25"/>
+      <c r="AK98" s="25"/>
+      <c r="AL98" s="25"/>
+      <c r="AM98" s="25"/>
+      <c r="AN98" s="25"/>
+      <c r="AO98" s="25"/>
+      <c r="AP98" s="25"/>
+      <c r="AQ98" s="25"/>
+      <c r="AR98" s="25"/>
+      <c r="AS98" s="25"/>
+      <c r="AT98" s="25"/>
+      <c r="AU98" s="25"/>
+      <c r="AV98" s="25"/>
+      <c r="AW98" s="25"/>
+      <c r="AX98" s="25"/>
+      <c r="AY98" s="25"/>
+      <c r="AZ98" s="25"/>
+      <c r="BA98" s="25"/>
+      <c r="BB98" s="25"/>
+      <c r="BC98" s="25"/>
+      <c r="BD98" s="25"/>
+      <c r="BE98" s="25"/>
+      <c r="BF98" s="25"/>
+      <c r="BG98" s="25"/>
+      <c r="BH98" s="25"/>
+      <c r="BI98" s="25"/>
+      <c r="BJ98" s="25"/>
+      <c r="BK98" s="25"/>
+      <c r="BL98" s="25"/>
     </row>
     <row r="99" spans="6:64">
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="24"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="24"/>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="24"/>
-      <c r="S99" s="24"/>
-      <c r="T99" s="24"/>
-      <c r="U99" s="24"/>
-      <c r="V99" s="24"/>
-      <c r="W99" s="24"/>
-      <c r="X99" s="24"/>
-      <c r="Y99" s="24"/>
-      <c r="Z99" s="24"/>
-      <c r="AA99" s="24"/>
-      <c r="AB99" s="24"/>
-      <c r="AC99" s="24"/>
-      <c r="AD99" s="24"/>
-      <c r="AE99" s="24"/>
-      <c r="AF99" s="24"/>
-      <c r="AG99" s="24"/>
-      <c r="AH99" s="24"/>
-      <c r="AI99" s="24"/>
-      <c r="AJ99" s="24"/>
-      <c r="AK99" s="24"/>
-      <c r="AL99" s="24"/>
-      <c r="AM99" s="24"/>
-      <c r="AN99" s="24"/>
-      <c r="AO99" s="24"/>
-      <c r="AP99" s="24"/>
-      <c r="AQ99" s="24"/>
-      <c r="AR99" s="24"/>
-      <c r="AS99" s="24"/>
-      <c r="AT99" s="24"/>
-      <c r="AU99" s="24"/>
-      <c r="AV99" s="24"/>
-      <c r="AW99" s="24"/>
-      <c r="AX99" s="24"/>
-      <c r="AY99" s="24"/>
-      <c r="AZ99" s="24"/>
-      <c r="BA99" s="24"/>
-      <c r="BB99" s="24"/>
-      <c r="BC99" s="24"/>
-      <c r="BD99" s="24"/>
-      <c r="BE99" s="24"/>
-      <c r="BF99" s="24"/>
-      <c r="BG99" s="24"/>
-      <c r="BH99" s="24"/>
-      <c r="BI99" s="24"/>
-      <c r="BJ99" s="24"/>
-      <c r="BK99" s="24"/>
-      <c r="BL99" s="24"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="25"/>
+      <c r="S99" s="25"/>
+      <c r="T99" s="25"/>
+      <c r="U99" s="25"/>
+      <c r="V99" s="25"/>
+      <c r="W99" s="25"/>
+      <c r="X99" s="25"/>
+      <c r="Y99" s="25"/>
+      <c r="Z99" s="25"/>
+      <c r="AA99" s="25"/>
+      <c r="AB99" s="25"/>
+      <c r="AC99" s="25"/>
+      <c r="AD99" s="25"/>
+      <c r="AE99" s="25"/>
+      <c r="AF99" s="25"/>
+      <c r="AG99" s="25"/>
+      <c r="AH99" s="25"/>
+      <c r="AI99" s="25"/>
+      <c r="AJ99" s="25"/>
+      <c r="AK99" s="25"/>
+      <c r="AL99" s="25"/>
+      <c r="AM99" s="25"/>
+      <c r="AN99" s="25"/>
+      <c r="AO99" s="25"/>
+      <c r="AP99" s="25"/>
+      <c r="AQ99" s="25"/>
+      <c r="AR99" s="25"/>
+      <c r="AS99" s="25"/>
+      <c r="AT99" s="25"/>
+      <c r="AU99" s="25"/>
+      <c r="AV99" s="25"/>
+      <c r="AW99" s="25"/>
+      <c r="AX99" s="25"/>
+      <c r="AY99" s="25"/>
+      <c r="AZ99" s="25"/>
+      <c r="BA99" s="25"/>
+      <c r="BB99" s="25"/>
+      <c r="BC99" s="25"/>
+      <c r="BD99" s="25"/>
+      <c r="BE99" s="25"/>
+      <c r="BF99" s="25"/>
+      <c r="BG99" s="25"/>
+      <c r="BH99" s="25"/>
+      <c r="BI99" s="25"/>
+      <c r="BJ99" s="25"/>
+      <c r="BK99" s="25"/>
+      <c r="BL99" s="25"/>
     </row>
     <row r="100" spans="6:64">
       <c r="K100" s="1" t="s">
@@ -5063,174 +5558,174 @@
       </c>
     </row>
     <row r="109" spans="6:64">
-      <c r="I109" s="23" t="s">
+      <c r="I109" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
-      <c r="N109" s="24"/>
-      <c r="O109" s="24"/>
-      <c r="P109" s="24"/>
-      <c r="Q109" s="24"/>
-      <c r="R109" s="24"/>
-      <c r="S109" s="24"/>
-      <c r="T109" s="24"/>
-      <c r="U109" s="24"/>
-      <c r="V109" s="24"/>
-      <c r="W109" s="24"/>
-      <c r="X109" s="24"/>
-      <c r="Y109" s="24"/>
-      <c r="Z109" s="24"/>
-      <c r="AA109" s="24"/>
-      <c r="AB109" s="24"/>
-      <c r="AC109" s="24"/>
-      <c r="AD109" s="24"/>
-      <c r="AE109" s="24"/>
-      <c r="AF109" s="24"/>
-      <c r="AG109" s="24"/>
-      <c r="AH109" s="24"/>
-      <c r="AI109" s="24"/>
-      <c r="AJ109" s="24"/>
-      <c r="AK109" s="24"/>
-      <c r="AL109" s="24"/>
-      <c r="AM109" s="24"/>
-      <c r="AN109" s="24"/>
-      <c r="AO109" s="24"/>
-      <c r="AP109" s="24"/>
-      <c r="AQ109" s="24"/>
-      <c r="AR109" s="24"/>
-      <c r="AS109" s="24"/>
-      <c r="AT109" s="24"/>
-      <c r="AU109" s="24"/>
-      <c r="AV109" s="24"/>
-      <c r="AW109" s="24"/>
-      <c r="AX109" s="24"/>
-      <c r="AY109" s="24"/>
-      <c r="AZ109" s="24"/>
-      <c r="BA109" s="24"/>
-      <c r="BB109" s="24"/>
-      <c r="BC109" s="24"/>
-      <c r="BD109" s="24"/>
-      <c r="BE109" s="24"/>
-      <c r="BF109" s="24"/>
-      <c r="BG109" s="24"/>
-      <c r="BH109" s="24"/>
-      <c r="BI109" s="24"/>
-      <c r="BJ109" s="24"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="25"/>
+      <c r="T109" s="25"/>
+      <c r="U109" s="25"/>
+      <c r="V109" s="25"/>
+      <c r="W109" s="25"/>
+      <c r="X109" s="25"/>
+      <c r="Y109" s="25"/>
+      <c r="Z109" s="25"/>
+      <c r="AA109" s="25"/>
+      <c r="AB109" s="25"/>
+      <c r="AC109" s="25"/>
+      <c r="AD109" s="25"/>
+      <c r="AE109" s="25"/>
+      <c r="AF109" s="25"/>
+      <c r="AG109" s="25"/>
+      <c r="AH109" s="25"/>
+      <c r="AI109" s="25"/>
+      <c r="AJ109" s="25"/>
+      <c r="AK109" s="25"/>
+      <c r="AL109" s="25"/>
+      <c r="AM109" s="25"/>
+      <c r="AN109" s="25"/>
+      <c r="AO109" s="25"/>
+      <c r="AP109" s="25"/>
+      <c r="AQ109" s="25"/>
+      <c r="AR109" s="25"/>
+      <c r="AS109" s="25"/>
+      <c r="AT109" s="25"/>
+      <c r="AU109" s="25"/>
+      <c r="AV109" s="25"/>
+      <c r="AW109" s="25"/>
+      <c r="AX109" s="25"/>
+      <c r="AY109" s="25"/>
+      <c r="AZ109" s="25"/>
+      <c r="BA109" s="25"/>
+      <c r="BB109" s="25"/>
+      <c r="BC109" s="25"/>
+      <c r="BD109" s="25"/>
+      <c r="BE109" s="25"/>
+      <c r="BF109" s="25"/>
+      <c r="BG109" s="25"/>
+      <c r="BH109" s="25"/>
+      <c r="BI109" s="25"/>
+      <c r="BJ109" s="25"/>
     </row>
     <row r="110" spans="6:64">
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
-      <c r="K110" s="24"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="24"/>
-      <c r="N110" s="24"/>
-      <c r="O110" s="24"/>
-      <c r="P110" s="24"/>
-      <c r="Q110" s="24"/>
-      <c r="R110" s="24"/>
-      <c r="S110" s="24"/>
-      <c r="T110" s="24"/>
-      <c r="U110" s="24"/>
-      <c r="V110" s="24"/>
-      <c r="W110" s="24"/>
-      <c r="X110" s="24"/>
-      <c r="Y110" s="24"/>
-      <c r="Z110" s="24"/>
-      <c r="AA110" s="24"/>
-      <c r="AB110" s="24"/>
-      <c r="AC110" s="24"/>
-      <c r="AD110" s="24"/>
-      <c r="AE110" s="24"/>
-      <c r="AF110" s="24"/>
-      <c r="AG110" s="24"/>
-      <c r="AH110" s="24"/>
-      <c r="AI110" s="24"/>
-      <c r="AJ110" s="24"/>
-      <c r="AK110" s="24"/>
-      <c r="AL110" s="24"/>
-      <c r="AM110" s="24"/>
-      <c r="AN110" s="24"/>
-      <c r="AO110" s="24"/>
-      <c r="AP110" s="24"/>
-      <c r="AQ110" s="24"/>
-      <c r="AR110" s="24"/>
-      <c r="AS110" s="24"/>
-      <c r="AT110" s="24"/>
-      <c r="AU110" s="24"/>
-      <c r="AV110" s="24"/>
-      <c r="AW110" s="24"/>
-      <c r="AX110" s="24"/>
-      <c r="AY110" s="24"/>
-      <c r="AZ110" s="24"/>
-      <c r="BA110" s="24"/>
-      <c r="BB110" s="24"/>
-      <c r="BC110" s="24"/>
-      <c r="BD110" s="24"/>
-      <c r="BE110" s="24"/>
-      <c r="BF110" s="24"/>
-      <c r="BG110" s="24"/>
-      <c r="BH110" s="24"/>
-      <c r="BI110" s="24"/>
-      <c r="BJ110" s="24"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="25"/>
+      <c r="T110" s="25"/>
+      <c r="U110" s="25"/>
+      <c r="V110" s="25"/>
+      <c r="W110" s="25"/>
+      <c r="X110" s="25"/>
+      <c r="Y110" s="25"/>
+      <c r="Z110" s="25"/>
+      <c r="AA110" s="25"/>
+      <c r="AB110" s="25"/>
+      <c r="AC110" s="25"/>
+      <c r="AD110" s="25"/>
+      <c r="AE110" s="25"/>
+      <c r="AF110" s="25"/>
+      <c r="AG110" s="25"/>
+      <c r="AH110" s="25"/>
+      <c r="AI110" s="25"/>
+      <c r="AJ110" s="25"/>
+      <c r="AK110" s="25"/>
+      <c r="AL110" s="25"/>
+      <c r="AM110" s="25"/>
+      <c r="AN110" s="25"/>
+      <c r="AO110" s="25"/>
+      <c r="AP110" s="25"/>
+      <c r="AQ110" s="25"/>
+      <c r="AR110" s="25"/>
+      <c r="AS110" s="25"/>
+      <c r="AT110" s="25"/>
+      <c r="AU110" s="25"/>
+      <c r="AV110" s="25"/>
+      <c r="AW110" s="25"/>
+      <c r="AX110" s="25"/>
+      <c r="AY110" s="25"/>
+      <c r="AZ110" s="25"/>
+      <c r="BA110" s="25"/>
+      <c r="BB110" s="25"/>
+      <c r="BC110" s="25"/>
+      <c r="BD110" s="25"/>
+      <c r="BE110" s="25"/>
+      <c r="BF110" s="25"/>
+      <c r="BG110" s="25"/>
+      <c r="BH110" s="25"/>
+      <c r="BI110" s="25"/>
+      <c r="BJ110" s="25"/>
     </row>
     <row r="111" spans="6:64">
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
-      <c r="N111" s="24"/>
-      <c r="O111" s="24"/>
-      <c r="P111" s="24"/>
-      <c r="Q111" s="24"/>
-      <c r="R111" s="24"/>
-      <c r="S111" s="24"/>
-      <c r="T111" s="24"/>
-      <c r="U111" s="24"/>
-      <c r="V111" s="24"/>
-      <c r="W111" s="24"/>
-      <c r="X111" s="24"/>
-      <c r="Y111" s="24"/>
-      <c r="Z111" s="24"/>
-      <c r="AA111" s="24"/>
-      <c r="AB111" s="24"/>
-      <c r="AC111" s="24"/>
-      <c r="AD111" s="24"/>
-      <c r="AE111" s="24"/>
-      <c r="AF111" s="24"/>
-      <c r="AG111" s="24"/>
-      <c r="AH111" s="24"/>
-      <c r="AI111" s="24"/>
-      <c r="AJ111" s="24"/>
-      <c r="AK111" s="24"/>
-      <c r="AL111" s="24"/>
-      <c r="AM111" s="24"/>
-      <c r="AN111" s="24"/>
-      <c r="AO111" s="24"/>
-      <c r="AP111" s="24"/>
-      <c r="AQ111" s="24"/>
-      <c r="AR111" s="24"/>
-      <c r="AS111" s="24"/>
-      <c r="AT111" s="24"/>
-      <c r="AU111" s="24"/>
-      <c r="AV111" s="24"/>
-      <c r="AW111" s="24"/>
-      <c r="AX111" s="24"/>
-      <c r="AY111" s="24"/>
-      <c r="AZ111" s="24"/>
-      <c r="BA111" s="24"/>
-      <c r="BB111" s="24"/>
-      <c r="BC111" s="24"/>
-      <c r="BD111" s="24"/>
-      <c r="BE111" s="24"/>
-      <c r="BF111" s="24"/>
-      <c r="BG111" s="24"/>
-      <c r="BH111" s="24"/>
-      <c r="BI111" s="24"/>
-      <c r="BJ111" s="24"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="25"/>
+      <c r="R111" s="25"/>
+      <c r="S111" s="25"/>
+      <c r="T111" s="25"/>
+      <c r="U111" s="25"/>
+      <c r="V111" s="25"/>
+      <c r="W111" s="25"/>
+      <c r="X111" s="25"/>
+      <c r="Y111" s="25"/>
+      <c r="Z111" s="25"/>
+      <c r="AA111" s="25"/>
+      <c r="AB111" s="25"/>
+      <c r="AC111" s="25"/>
+      <c r="AD111" s="25"/>
+      <c r="AE111" s="25"/>
+      <c r="AF111" s="25"/>
+      <c r="AG111" s="25"/>
+      <c r="AH111" s="25"/>
+      <c r="AI111" s="25"/>
+      <c r="AJ111" s="25"/>
+      <c r="AK111" s="25"/>
+      <c r="AL111" s="25"/>
+      <c r="AM111" s="25"/>
+      <c r="AN111" s="25"/>
+      <c r="AO111" s="25"/>
+      <c r="AP111" s="25"/>
+      <c r="AQ111" s="25"/>
+      <c r="AR111" s="25"/>
+      <c r="AS111" s="25"/>
+      <c r="AT111" s="25"/>
+      <c r="AU111" s="25"/>
+      <c r="AV111" s="25"/>
+      <c r="AW111" s="25"/>
+      <c r="AX111" s="25"/>
+      <c r="AY111" s="25"/>
+      <c r="AZ111" s="25"/>
+      <c r="BA111" s="25"/>
+      <c r="BB111" s="25"/>
+      <c r="BC111" s="25"/>
+      <c r="BD111" s="25"/>
+      <c r="BE111" s="25"/>
+      <c r="BF111" s="25"/>
+      <c r="BG111" s="25"/>
+      <c r="BH111" s="25"/>
+      <c r="BI111" s="25"/>
+      <c r="BJ111" s="25"/>
     </row>
     <row r="112" spans="6:64">
       <c r="H112" s="1" t="s">
@@ -5608,174 +6103,174 @@
       </c>
     </row>
     <row r="180" spans="1:62">
-      <c r="I180" s="23" t="s">
+      <c r="I180" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="J180" s="24"/>
-      <c r="K180" s="24"/>
-      <c r="L180" s="24"/>
-      <c r="M180" s="24"/>
-      <c r="N180" s="24"/>
-      <c r="O180" s="24"/>
-      <c r="P180" s="24"/>
-      <c r="Q180" s="24"/>
-      <c r="R180" s="24"/>
-      <c r="S180" s="24"/>
-      <c r="T180" s="24"/>
-      <c r="U180" s="24"/>
-      <c r="V180" s="24"/>
-      <c r="W180" s="24"/>
-      <c r="X180" s="24"/>
-      <c r="Y180" s="24"/>
-      <c r="Z180" s="24"/>
-      <c r="AA180" s="24"/>
-      <c r="AB180" s="24"/>
-      <c r="AC180" s="24"/>
-      <c r="AD180" s="24"/>
-      <c r="AE180" s="24"/>
-      <c r="AF180" s="24"/>
-      <c r="AG180" s="24"/>
-      <c r="AH180" s="24"/>
-      <c r="AI180" s="24"/>
-      <c r="AJ180" s="24"/>
-      <c r="AK180" s="24"/>
-      <c r="AL180" s="24"/>
-      <c r="AM180" s="24"/>
-      <c r="AN180" s="24"/>
-      <c r="AO180" s="24"/>
-      <c r="AP180" s="24"/>
-      <c r="AQ180" s="24"/>
-      <c r="AR180" s="24"/>
-      <c r="AS180" s="24"/>
-      <c r="AT180" s="24"/>
-      <c r="AU180" s="24"/>
-      <c r="AV180" s="24"/>
-      <c r="AW180" s="24"/>
-      <c r="AX180" s="24"/>
-      <c r="AY180" s="24"/>
-      <c r="AZ180" s="24"/>
-      <c r="BA180" s="24"/>
-      <c r="BB180" s="24"/>
-      <c r="BC180" s="24"/>
-      <c r="BD180" s="24"/>
-      <c r="BE180" s="24"/>
-      <c r="BF180" s="24"/>
-      <c r="BG180" s="24"/>
-      <c r="BH180" s="24"/>
-      <c r="BI180" s="24"/>
-      <c r="BJ180" s="24"/>
+      <c r="J180" s="25"/>
+      <c r="K180" s="25"/>
+      <c r="L180" s="25"/>
+      <c r="M180" s="25"/>
+      <c r="N180" s="25"/>
+      <c r="O180" s="25"/>
+      <c r="P180" s="25"/>
+      <c r="Q180" s="25"/>
+      <c r="R180" s="25"/>
+      <c r="S180" s="25"/>
+      <c r="T180" s="25"/>
+      <c r="U180" s="25"/>
+      <c r="V180" s="25"/>
+      <c r="W180" s="25"/>
+      <c r="X180" s="25"/>
+      <c r="Y180" s="25"/>
+      <c r="Z180" s="25"/>
+      <c r="AA180" s="25"/>
+      <c r="AB180" s="25"/>
+      <c r="AC180" s="25"/>
+      <c r="AD180" s="25"/>
+      <c r="AE180" s="25"/>
+      <c r="AF180" s="25"/>
+      <c r="AG180" s="25"/>
+      <c r="AH180" s="25"/>
+      <c r="AI180" s="25"/>
+      <c r="AJ180" s="25"/>
+      <c r="AK180" s="25"/>
+      <c r="AL180" s="25"/>
+      <c r="AM180" s="25"/>
+      <c r="AN180" s="25"/>
+      <c r="AO180" s="25"/>
+      <c r="AP180" s="25"/>
+      <c r="AQ180" s="25"/>
+      <c r="AR180" s="25"/>
+      <c r="AS180" s="25"/>
+      <c r="AT180" s="25"/>
+      <c r="AU180" s="25"/>
+      <c r="AV180" s="25"/>
+      <c r="AW180" s="25"/>
+      <c r="AX180" s="25"/>
+      <c r="AY180" s="25"/>
+      <c r="AZ180" s="25"/>
+      <c r="BA180" s="25"/>
+      <c r="BB180" s="25"/>
+      <c r="BC180" s="25"/>
+      <c r="BD180" s="25"/>
+      <c r="BE180" s="25"/>
+      <c r="BF180" s="25"/>
+      <c r="BG180" s="25"/>
+      <c r="BH180" s="25"/>
+      <c r="BI180" s="25"/>
+      <c r="BJ180" s="25"/>
     </row>
     <row r="181" spans="1:62">
-      <c r="I181" s="24"/>
-      <c r="J181" s="24"/>
-      <c r="K181" s="24"/>
-      <c r="L181" s="24"/>
-      <c r="M181" s="24"/>
-      <c r="N181" s="24"/>
-      <c r="O181" s="24"/>
-      <c r="P181" s="24"/>
-      <c r="Q181" s="24"/>
-      <c r="R181" s="24"/>
-      <c r="S181" s="24"/>
-      <c r="T181" s="24"/>
-      <c r="U181" s="24"/>
-      <c r="V181" s="24"/>
-      <c r="W181" s="24"/>
-      <c r="X181" s="24"/>
-      <c r="Y181" s="24"/>
-      <c r="Z181" s="24"/>
-      <c r="AA181" s="24"/>
-      <c r="AB181" s="24"/>
-      <c r="AC181" s="24"/>
-      <c r="AD181" s="24"/>
-      <c r="AE181" s="24"/>
-      <c r="AF181" s="24"/>
-      <c r="AG181" s="24"/>
-      <c r="AH181" s="24"/>
-      <c r="AI181" s="24"/>
-      <c r="AJ181" s="24"/>
-      <c r="AK181" s="24"/>
-      <c r="AL181" s="24"/>
-      <c r="AM181" s="24"/>
-      <c r="AN181" s="24"/>
-      <c r="AO181" s="24"/>
-      <c r="AP181" s="24"/>
-      <c r="AQ181" s="24"/>
-      <c r="AR181" s="24"/>
-      <c r="AS181" s="24"/>
-      <c r="AT181" s="24"/>
-      <c r="AU181" s="24"/>
-      <c r="AV181" s="24"/>
-      <c r="AW181" s="24"/>
-      <c r="AX181" s="24"/>
-      <c r="AY181" s="24"/>
-      <c r="AZ181" s="24"/>
-      <c r="BA181" s="24"/>
-      <c r="BB181" s="24"/>
-      <c r="BC181" s="24"/>
-      <c r="BD181" s="24"/>
-      <c r="BE181" s="24"/>
-      <c r="BF181" s="24"/>
-      <c r="BG181" s="24"/>
-      <c r="BH181" s="24"/>
-      <c r="BI181" s="24"/>
-      <c r="BJ181" s="24"/>
+      <c r="I181" s="25"/>
+      <c r="J181" s="25"/>
+      <c r="K181" s="25"/>
+      <c r="L181" s="25"/>
+      <c r="M181" s="25"/>
+      <c r="N181" s="25"/>
+      <c r="O181" s="25"/>
+      <c r="P181" s="25"/>
+      <c r="Q181" s="25"/>
+      <c r="R181" s="25"/>
+      <c r="S181" s="25"/>
+      <c r="T181" s="25"/>
+      <c r="U181" s="25"/>
+      <c r="V181" s="25"/>
+      <c r="W181" s="25"/>
+      <c r="X181" s="25"/>
+      <c r="Y181" s="25"/>
+      <c r="Z181" s="25"/>
+      <c r="AA181" s="25"/>
+      <c r="AB181" s="25"/>
+      <c r="AC181" s="25"/>
+      <c r="AD181" s="25"/>
+      <c r="AE181" s="25"/>
+      <c r="AF181" s="25"/>
+      <c r="AG181" s="25"/>
+      <c r="AH181" s="25"/>
+      <c r="AI181" s="25"/>
+      <c r="AJ181" s="25"/>
+      <c r="AK181" s="25"/>
+      <c r="AL181" s="25"/>
+      <c r="AM181" s="25"/>
+      <c r="AN181" s="25"/>
+      <c r="AO181" s="25"/>
+      <c r="AP181" s="25"/>
+      <c r="AQ181" s="25"/>
+      <c r="AR181" s="25"/>
+      <c r="AS181" s="25"/>
+      <c r="AT181" s="25"/>
+      <c r="AU181" s="25"/>
+      <c r="AV181" s="25"/>
+      <c r="AW181" s="25"/>
+      <c r="AX181" s="25"/>
+      <c r="AY181" s="25"/>
+      <c r="AZ181" s="25"/>
+      <c r="BA181" s="25"/>
+      <c r="BB181" s="25"/>
+      <c r="BC181" s="25"/>
+      <c r="BD181" s="25"/>
+      <c r="BE181" s="25"/>
+      <c r="BF181" s="25"/>
+      <c r="BG181" s="25"/>
+      <c r="BH181" s="25"/>
+      <c r="BI181" s="25"/>
+      <c r="BJ181" s="25"/>
     </row>
     <row r="182" spans="1:62">
-      <c r="I182" s="24"/>
-      <c r="J182" s="24"/>
-      <c r="K182" s="24"/>
-      <c r="L182" s="24"/>
-      <c r="M182" s="24"/>
-      <c r="N182" s="24"/>
-      <c r="O182" s="24"/>
-      <c r="P182" s="24"/>
-      <c r="Q182" s="24"/>
-      <c r="R182" s="24"/>
-      <c r="S182" s="24"/>
-      <c r="T182" s="24"/>
-      <c r="U182" s="24"/>
-      <c r="V182" s="24"/>
-      <c r="W182" s="24"/>
-      <c r="X182" s="24"/>
-      <c r="Y182" s="24"/>
-      <c r="Z182" s="24"/>
-      <c r="AA182" s="24"/>
-      <c r="AB182" s="24"/>
-      <c r="AC182" s="24"/>
-      <c r="AD182" s="24"/>
-      <c r="AE182" s="24"/>
-      <c r="AF182" s="24"/>
-      <c r="AG182" s="24"/>
-      <c r="AH182" s="24"/>
-      <c r="AI182" s="24"/>
-      <c r="AJ182" s="24"/>
-      <c r="AK182" s="24"/>
-      <c r="AL182" s="24"/>
-      <c r="AM182" s="24"/>
-      <c r="AN182" s="24"/>
-      <c r="AO182" s="24"/>
-      <c r="AP182" s="24"/>
-      <c r="AQ182" s="24"/>
-      <c r="AR182" s="24"/>
-      <c r="AS182" s="24"/>
-      <c r="AT182" s="24"/>
-      <c r="AU182" s="24"/>
-      <c r="AV182" s="24"/>
-      <c r="AW182" s="24"/>
-      <c r="AX182" s="24"/>
-      <c r="AY182" s="24"/>
-      <c r="AZ182" s="24"/>
-      <c r="BA182" s="24"/>
-      <c r="BB182" s="24"/>
-      <c r="BC182" s="24"/>
-      <c r="BD182" s="24"/>
-      <c r="BE182" s="24"/>
-      <c r="BF182" s="24"/>
-      <c r="BG182" s="24"/>
-      <c r="BH182" s="24"/>
-      <c r="BI182" s="24"/>
-      <c r="BJ182" s="24"/>
+      <c r="I182" s="25"/>
+      <c r="J182" s="25"/>
+      <c r="K182" s="25"/>
+      <c r="L182" s="25"/>
+      <c r="M182" s="25"/>
+      <c r="N182" s="25"/>
+      <c r="O182" s="25"/>
+      <c r="P182" s="25"/>
+      <c r="Q182" s="25"/>
+      <c r="R182" s="25"/>
+      <c r="S182" s="25"/>
+      <c r="T182" s="25"/>
+      <c r="U182" s="25"/>
+      <c r="V182" s="25"/>
+      <c r="W182" s="25"/>
+      <c r="X182" s="25"/>
+      <c r="Y182" s="25"/>
+      <c r="Z182" s="25"/>
+      <c r="AA182" s="25"/>
+      <c r="AB182" s="25"/>
+      <c r="AC182" s="25"/>
+      <c r="AD182" s="25"/>
+      <c r="AE182" s="25"/>
+      <c r="AF182" s="25"/>
+      <c r="AG182" s="25"/>
+      <c r="AH182" s="25"/>
+      <c r="AI182" s="25"/>
+      <c r="AJ182" s="25"/>
+      <c r="AK182" s="25"/>
+      <c r="AL182" s="25"/>
+      <c r="AM182" s="25"/>
+      <c r="AN182" s="25"/>
+      <c r="AO182" s="25"/>
+      <c r="AP182" s="25"/>
+      <c r="AQ182" s="25"/>
+      <c r="AR182" s="25"/>
+      <c r="AS182" s="25"/>
+      <c r="AT182" s="25"/>
+      <c r="AU182" s="25"/>
+      <c r="AV182" s="25"/>
+      <c r="AW182" s="25"/>
+      <c r="AX182" s="25"/>
+      <c r="AY182" s="25"/>
+      <c r="AZ182" s="25"/>
+      <c r="BA182" s="25"/>
+      <c r="BB182" s="25"/>
+      <c r="BC182" s="25"/>
+      <c r="BD182" s="25"/>
+      <c r="BE182" s="25"/>
+      <c r="BF182" s="25"/>
+      <c r="BG182" s="25"/>
+      <c r="BH182" s="25"/>
+      <c r="BI182" s="25"/>
+      <c r="BJ182" s="25"/>
     </row>
     <row r="183" spans="1:62">
       <c r="H183" s="1" t="s">
@@ -5909,174 +6404,174 @@
       </c>
     </row>
     <row r="205" spans="2:59">
-      <c r="F205" s="23" t="s">
+      <c r="F205" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="G205" s="24"/>
-      <c r="H205" s="24"/>
-      <c r="I205" s="24"/>
-      <c r="J205" s="24"/>
-      <c r="K205" s="24"/>
-      <c r="L205" s="24"/>
-      <c r="M205" s="24"/>
-      <c r="N205" s="24"/>
-      <c r="O205" s="24"/>
-      <c r="P205" s="24"/>
-      <c r="Q205" s="24"/>
-      <c r="R205" s="24"/>
-      <c r="S205" s="24"/>
-      <c r="T205" s="24"/>
-      <c r="U205" s="24"/>
-      <c r="V205" s="24"/>
-      <c r="W205" s="24"/>
-      <c r="X205" s="24"/>
-      <c r="Y205" s="24"/>
-      <c r="Z205" s="24"/>
-      <c r="AA205" s="24"/>
-      <c r="AB205" s="24"/>
-      <c r="AC205" s="24"/>
-      <c r="AD205" s="24"/>
-      <c r="AE205" s="24"/>
-      <c r="AF205" s="24"/>
-      <c r="AG205" s="24"/>
-      <c r="AH205" s="24"/>
-      <c r="AI205" s="24"/>
-      <c r="AJ205" s="24"/>
-      <c r="AK205" s="24"/>
-      <c r="AL205" s="24"/>
-      <c r="AM205" s="24"/>
-      <c r="AN205" s="24"/>
-      <c r="AO205" s="24"/>
-      <c r="AP205" s="24"/>
-      <c r="AQ205" s="24"/>
-      <c r="AR205" s="24"/>
-      <c r="AS205" s="24"/>
-      <c r="AT205" s="24"/>
-      <c r="AU205" s="24"/>
-      <c r="AV205" s="24"/>
-      <c r="AW205" s="24"/>
-      <c r="AX205" s="24"/>
-      <c r="AY205" s="24"/>
-      <c r="AZ205" s="24"/>
-      <c r="BA205" s="24"/>
-      <c r="BB205" s="24"/>
-      <c r="BC205" s="24"/>
-      <c r="BD205" s="24"/>
-      <c r="BE205" s="24"/>
-      <c r="BF205" s="24"/>
-      <c r="BG205" s="24"/>
+      <c r="G205" s="25"/>
+      <c r="H205" s="25"/>
+      <c r="I205" s="25"/>
+      <c r="J205" s="25"/>
+      <c r="K205" s="25"/>
+      <c r="L205" s="25"/>
+      <c r="M205" s="25"/>
+      <c r="N205" s="25"/>
+      <c r="O205" s="25"/>
+      <c r="P205" s="25"/>
+      <c r="Q205" s="25"/>
+      <c r="R205" s="25"/>
+      <c r="S205" s="25"/>
+      <c r="T205" s="25"/>
+      <c r="U205" s="25"/>
+      <c r="V205" s="25"/>
+      <c r="W205" s="25"/>
+      <c r="X205" s="25"/>
+      <c r="Y205" s="25"/>
+      <c r="Z205" s="25"/>
+      <c r="AA205" s="25"/>
+      <c r="AB205" s="25"/>
+      <c r="AC205" s="25"/>
+      <c r="AD205" s="25"/>
+      <c r="AE205" s="25"/>
+      <c r="AF205" s="25"/>
+      <c r="AG205" s="25"/>
+      <c r="AH205" s="25"/>
+      <c r="AI205" s="25"/>
+      <c r="AJ205" s="25"/>
+      <c r="AK205" s="25"/>
+      <c r="AL205" s="25"/>
+      <c r="AM205" s="25"/>
+      <c r="AN205" s="25"/>
+      <c r="AO205" s="25"/>
+      <c r="AP205" s="25"/>
+      <c r="AQ205" s="25"/>
+      <c r="AR205" s="25"/>
+      <c r="AS205" s="25"/>
+      <c r="AT205" s="25"/>
+      <c r="AU205" s="25"/>
+      <c r="AV205" s="25"/>
+      <c r="AW205" s="25"/>
+      <c r="AX205" s="25"/>
+      <c r="AY205" s="25"/>
+      <c r="AZ205" s="25"/>
+      <c r="BA205" s="25"/>
+      <c r="BB205" s="25"/>
+      <c r="BC205" s="25"/>
+      <c r="BD205" s="25"/>
+      <c r="BE205" s="25"/>
+      <c r="BF205" s="25"/>
+      <c r="BG205" s="25"/>
     </row>
     <row r="206" spans="2:59">
-      <c r="F206" s="24"/>
-      <c r="G206" s="24"/>
-      <c r="H206" s="24"/>
-      <c r="I206" s="24"/>
-      <c r="J206" s="24"/>
-      <c r="K206" s="24"/>
-      <c r="L206" s="24"/>
-      <c r="M206" s="24"/>
-      <c r="N206" s="24"/>
-      <c r="O206" s="24"/>
-      <c r="P206" s="24"/>
-      <c r="Q206" s="24"/>
-      <c r="R206" s="24"/>
-      <c r="S206" s="24"/>
-      <c r="T206" s="24"/>
-      <c r="U206" s="24"/>
-      <c r="V206" s="24"/>
-      <c r="W206" s="24"/>
-      <c r="X206" s="24"/>
-      <c r="Y206" s="24"/>
-      <c r="Z206" s="24"/>
-      <c r="AA206" s="24"/>
-      <c r="AB206" s="24"/>
-      <c r="AC206" s="24"/>
-      <c r="AD206" s="24"/>
-      <c r="AE206" s="24"/>
-      <c r="AF206" s="24"/>
-      <c r="AG206" s="24"/>
-      <c r="AH206" s="24"/>
-      <c r="AI206" s="24"/>
-      <c r="AJ206" s="24"/>
-      <c r="AK206" s="24"/>
-      <c r="AL206" s="24"/>
-      <c r="AM206" s="24"/>
-      <c r="AN206" s="24"/>
-      <c r="AO206" s="24"/>
-      <c r="AP206" s="24"/>
-      <c r="AQ206" s="24"/>
-      <c r="AR206" s="24"/>
-      <c r="AS206" s="24"/>
-      <c r="AT206" s="24"/>
-      <c r="AU206" s="24"/>
-      <c r="AV206" s="24"/>
-      <c r="AW206" s="24"/>
-      <c r="AX206" s="24"/>
-      <c r="AY206" s="24"/>
-      <c r="AZ206" s="24"/>
-      <c r="BA206" s="24"/>
-      <c r="BB206" s="24"/>
-      <c r="BC206" s="24"/>
-      <c r="BD206" s="24"/>
-      <c r="BE206" s="24"/>
-      <c r="BF206" s="24"/>
-      <c r="BG206" s="24"/>
+      <c r="F206" s="25"/>
+      <c r="G206" s="25"/>
+      <c r="H206" s="25"/>
+      <c r="I206" s="25"/>
+      <c r="J206" s="25"/>
+      <c r="K206" s="25"/>
+      <c r="L206" s="25"/>
+      <c r="M206" s="25"/>
+      <c r="N206" s="25"/>
+      <c r="O206" s="25"/>
+      <c r="P206" s="25"/>
+      <c r="Q206" s="25"/>
+      <c r="R206" s="25"/>
+      <c r="S206" s="25"/>
+      <c r="T206" s="25"/>
+      <c r="U206" s="25"/>
+      <c r="V206" s="25"/>
+      <c r="W206" s="25"/>
+      <c r="X206" s="25"/>
+      <c r="Y206" s="25"/>
+      <c r="Z206" s="25"/>
+      <c r="AA206" s="25"/>
+      <c r="AB206" s="25"/>
+      <c r="AC206" s="25"/>
+      <c r="AD206" s="25"/>
+      <c r="AE206" s="25"/>
+      <c r="AF206" s="25"/>
+      <c r="AG206" s="25"/>
+      <c r="AH206" s="25"/>
+      <c r="AI206" s="25"/>
+      <c r="AJ206" s="25"/>
+      <c r="AK206" s="25"/>
+      <c r="AL206" s="25"/>
+      <c r="AM206" s="25"/>
+      <c r="AN206" s="25"/>
+      <c r="AO206" s="25"/>
+      <c r="AP206" s="25"/>
+      <c r="AQ206" s="25"/>
+      <c r="AR206" s="25"/>
+      <c r="AS206" s="25"/>
+      <c r="AT206" s="25"/>
+      <c r="AU206" s="25"/>
+      <c r="AV206" s="25"/>
+      <c r="AW206" s="25"/>
+      <c r="AX206" s="25"/>
+      <c r="AY206" s="25"/>
+      <c r="AZ206" s="25"/>
+      <c r="BA206" s="25"/>
+      <c r="BB206" s="25"/>
+      <c r="BC206" s="25"/>
+      <c r="BD206" s="25"/>
+      <c r="BE206" s="25"/>
+      <c r="BF206" s="25"/>
+      <c r="BG206" s="25"/>
     </row>
     <row r="207" spans="2:59">
-      <c r="F207" s="24"/>
-      <c r="G207" s="24"/>
-      <c r="H207" s="24"/>
-      <c r="I207" s="24"/>
-      <c r="J207" s="24"/>
-      <c r="K207" s="24"/>
-      <c r="L207" s="24"/>
-      <c r="M207" s="24"/>
-      <c r="N207" s="24"/>
-      <c r="O207" s="24"/>
-      <c r="P207" s="24"/>
-      <c r="Q207" s="24"/>
-      <c r="R207" s="24"/>
-      <c r="S207" s="24"/>
-      <c r="T207" s="24"/>
-      <c r="U207" s="24"/>
-      <c r="V207" s="24"/>
-      <c r="W207" s="24"/>
-      <c r="X207" s="24"/>
-      <c r="Y207" s="24"/>
-      <c r="Z207" s="24"/>
-      <c r="AA207" s="24"/>
-      <c r="AB207" s="24"/>
-      <c r="AC207" s="24"/>
-      <c r="AD207" s="24"/>
-      <c r="AE207" s="24"/>
-      <c r="AF207" s="24"/>
-      <c r="AG207" s="24"/>
-      <c r="AH207" s="24"/>
-      <c r="AI207" s="24"/>
-      <c r="AJ207" s="24"/>
-      <c r="AK207" s="24"/>
-      <c r="AL207" s="24"/>
-      <c r="AM207" s="24"/>
-      <c r="AN207" s="24"/>
-      <c r="AO207" s="24"/>
-      <c r="AP207" s="24"/>
-      <c r="AQ207" s="24"/>
-      <c r="AR207" s="24"/>
-      <c r="AS207" s="24"/>
-      <c r="AT207" s="24"/>
-      <c r="AU207" s="24"/>
-      <c r="AV207" s="24"/>
-      <c r="AW207" s="24"/>
-      <c r="AX207" s="24"/>
-      <c r="AY207" s="24"/>
-      <c r="AZ207" s="24"/>
-      <c r="BA207" s="24"/>
-      <c r="BB207" s="24"/>
-      <c r="BC207" s="24"/>
-      <c r="BD207" s="24"/>
-      <c r="BE207" s="24"/>
-      <c r="BF207" s="24"/>
-      <c r="BG207" s="24"/>
+      <c r="F207" s="25"/>
+      <c r="G207" s="25"/>
+      <c r="H207" s="25"/>
+      <c r="I207" s="25"/>
+      <c r="J207" s="25"/>
+      <c r="K207" s="25"/>
+      <c r="L207" s="25"/>
+      <c r="M207" s="25"/>
+      <c r="N207" s="25"/>
+      <c r="O207" s="25"/>
+      <c r="P207" s="25"/>
+      <c r="Q207" s="25"/>
+      <c r="R207" s="25"/>
+      <c r="S207" s="25"/>
+      <c r="T207" s="25"/>
+      <c r="U207" s="25"/>
+      <c r="V207" s="25"/>
+      <c r="W207" s="25"/>
+      <c r="X207" s="25"/>
+      <c r="Y207" s="25"/>
+      <c r="Z207" s="25"/>
+      <c r="AA207" s="25"/>
+      <c r="AB207" s="25"/>
+      <c r="AC207" s="25"/>
+      <c r="AD207" s="25"/>
+      <c r="AE207" s="25"/>
+      <c r="AF207" s="25"/>
+      <c r="AG207" s="25"/>
+      <c r="AH207" s="25"/>
+      <c r="AI207" s="25"/>
+      <c r="AJ207" s="25"/>
+      <c r="AK207" s="25"/>
+      <c r="AL207" s="25"/>
+      <c r="AM207" s="25"/>
+      <c r="AN207" s="25"/>
+      <c r="AO207" s="25"/>
+      <c r="AP207" s="25"/>
+      <c r="AQ207" s="25"/>
+      <c r="AR207" s="25"/>
+      <c r="AS207" s="25"/>
+      <c r="AT207" s="25"/>
+      <c r="AU207" s="25"/>
+      <c r="AV207" s="25"/>
+      <c r="AW207" s="25"/>
+      <c r="AX207" s="25"/>
+      <c r="AY207" s="25"/>
+      <c r="AZ207" s="25"/>
+      <c r="BA207" s="25"/>
+      <c r="BB207" s="25"/>
+      <c r="BC207" s="25"/>
+      <c r="BD207" s="25"/>
+      <c r="BE207" s="25"/>
+      <c r="BF207" s="25"/>
+      <c r="BG207" s="25"/>
     </row>
     <row r="208" spans="2:59">
       <c r="D208" s="7" t="s">
@@ -6296,4 +6791,1988 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72613AB1-8744-4A7E-BE40-BA46FE831296}">
+  <dimension ref="A1:BI195"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="1.625" style="2"/>
+    <col min="3" max="16384" width="1.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>研修テキスト</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="D4" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" s="3" customFormat="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" s="3" customFormat="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" s="3" customFormat="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" s="3" customFormat="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" s="3" customFormat="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="F29" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="25"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="25"/>
+      <c r="AS29" s="25"/>
+      <c r="AT29" s="25"/>
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="25"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="25"/>
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="25"/>
+      <c r="BA29" s="25"/>
+      <c r="BB29" s="25"/>
+      <c r="BC29" s="25"/>
+      <c r="BD29" s="25"/>
+      <c r="BE29" s="25"/>
+      <c r="BF29" s="25"/>
+      <c r="BG29" s="25"/>
+    </row>
+    <row r="30" spans="1:59" s="3" customFormat="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="25"/>
+      <c r="AY30" s="25"/>
+      <c r="AZ30" s="25"/>
+      <c r="BA30" s="25"/>
+      <c r="BB30" s="25"/>
+      <c r="BC30" s="25"/>
+      <c r="BD30" s="25"/>
+      <c r="BE30" s="25"/>
+      <c r="BF30" s="25"/>
+      <c r="BG30" s="25"/>
+    </row>
+    <row r="31" spans="1:59" s="3" customFormat="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="25"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="25"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="25"/>
+      <c r="AY31" s="25"/>
+      <c r="AZ31" s="25"/>
+      <c r="BA31" s="25"/>
+      <c r="BB31" s="25"/>
+      <c r="BC31" s="25"/>
+      <c r="BD31" s="25"/>
+      <c r="BE31" s="25"/>
+      <c r="BF31" s="25"/>
+      <c r="BG31" s="25"/>
+    </row>
+    <row r="32" spans="1:59" s="3" customFormat="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="F32" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" s="3" customFormat="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="D33" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:59" s="3" customFormat="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="E34" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" s="3" customFormat="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="F35" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="AL35" s="25"/>
+      <c r="AM35" s="25"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="25"/>
+      <c r="AP35" s="25"/>
+      <c r="AQ35" s="25"/>
+      <c r="AR35" s="25"/>
+      <c r="AS35" s="25"/>
+      <c r="AT35" s="25"/>
+      <c r="AU35" s="25"/>
+      <c r="AV35" s="25"/>
+      <c r="AW35" s="25"/>
+      <c r="AX35" s="25"/>
+      <c r="AY35" s="25"/>
+      <c r="AZ35" s="25"/>
+      <c r="BA35" s="25"/>
+      <c r="BB35" s="25"/>
+      <c r="BC35" s="25"/>
+      <c r="BD35" s="25"/>
+      <c r="BE35" s="25"/>
+      <c r="BF35" s="25"/>
+      <c r="BG35" s="25"/>
+    </row>
+    <row r="36" spans="1:59" s="3" customFormat="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="25"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="25"/>
+      <c r="AR36" s="25"/>
+      <c r="AS36" s="25"/>
+      <c r="AT36" s="25"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="25"/>
+      <c r="AW36" s="25"/>
+      <c r="AX36" s="25"/>
+      <c r="AY36" s="25"/>
+      <c r="AZ36" s="25"/>
+      <c r="BA36" s="25"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="25"/>
+      <c r="BD36" s="25"/>
+      <c r="BE36" s="25"/>
+      <c r="BF36" s="25"/>
+      <c r="BG36" s="25"/>
+    </row>
+    <row r="37" spans="1:59" s="3" customFormat="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="25"/>
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="25"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="25"/>
+      <c r="AP37" s="25"/>
+      <c r="AQ37" s="25"/>
+      <c r="AR37" s="25"/>
+      <c r="AS37" s="25"/>
+      <c r="AT37" s="25"/>
+      <c r="AU37" s="25"/>
+      <c r="AV37" s="25"/>
+      <c r="AW37" s="25"/>
+      <c r="AX37" s="25"/>
+      <c r="AY37" s="25"/>
+      <c r="AZ37" s="25"/>
+      <c r="BA37" s="25"/>
+      <c r="BB37" s="25"/>
+      <c r="BC37" s="25"/>
+      <c r="BD37" s="25"/>
+      <c r="BE37" s="25"/>
+      <c r="BF37" s="25"/>
+      <c r="BG37" s="25"/>
+    </row>
+    <row r="38" spans="1:59" s="3" customFormat="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59" s="3" customFormat="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="E39" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59" s="3" customFormat="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59" s="3" customFormat="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" s="3" customFormat="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="E42" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59" s="3" customFormat="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:59" s="3" customFormat="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59" s="3" customFormat="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="F45" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" s="3" customFormat="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="G46" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59" s="3" customFormat="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:59" s="3" customFormat="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:59" s="3" customFormat="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:59" s="3" customFormat="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="E50" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:59" s="3" customFormat="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="F51" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="25"/>
+      <c r="AG51" s="25"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="25"/>
+      <c r="AJ51" s="25"/>
+      <c r="AK51" s="25"/>
+      <c r="AL51" s="25"/>
+      <c r="AM51" s="25"/>
+      <c r="AN51" s="25"/>
+      <c r="AO51" s="25"/>
+      <c r="AP51" s="25"/>
+      <c r="AQ51" s="25"/>
+      <c r="AR51" s="25"/>
+      <c r="AS51" s="25"/>
+      <c r="AT51" s="25"/>
+      <c r="AU51" s="25"/>
+      <c r="AV51" s="25"/>
+      <c r="AW51" s="25"/>
+      <c r="AX51" s="25"/>
+      <c r="AY51" s="25"/>
+      <c r="AZ51" s="25"/>
+      <c r="BA51" s="25"/>
+      <c r="BB51" s="25"/>
+      <c r="BC51" s="25"/>
+      <c r="BD51" s="25"/>
+      <c r="BE51" s="25"/>
+      <c r="BF51" s="25"/>
+      <c r="BG51" s="25"/>
+    </row>
+    <row r="52" spans="1:59" s="3" customFormat="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="25"/>
+      <c r="AD52" s="25"/>
+      <c r="AE52" s="25"/>
+      <c r="AF52" s="25"/>
+      <c r="AG52" s="25"/>
+      <c r="AH52" s="25"/>
+      <c r="AI52" s="25"/>
+      <c r="AJ52" s="25"/>
+      <c r="AK52" s="25"/>
+      <c r="AL52" s="25"/>
+      <c r="AM52" s="25"/>
+      <c r="AN52" s="25"/>
+      <c r="AO52" s="25"/>
+      <c r="AP52" s="25"/>
+      <c r="AQ52" s="25"/>
+      <c r="AR52" s="25"/>
+      <c r="AS52" s="25"/>
+      <c r="AT52" s="25"/>
+      <c r="AU52" s="25"/>
+      <c r="AV52" s="25"/>
+      <c r="AW52" s="25"/>
+      <c r="AX52" s="25"/>
+      <c r="AY52" s="25"/>
+      <c r="AZ52" s="25"/>
+      <c r="BA52" s="25"/>
+      <c r="BB52" s="25"/>
+      <c r="BC52" s="25"/>
+      <c r="BD52" s="25"/>
+      <c r="BE52" s="25"/>
+      <c r="BF52" s="25"/>
+      <c r="BG52" s="25"/>
+    </row>
+    <row r="53" spans="1:59" s="3" customFormat="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+      <c r="AF53" s="25"/>
+      <c r="AG53" s="25"/>
+      <c r="AH53" s="25"/>
+      <c r="AI53" s="25"/>
+      <c r="AJ53" s="25"/>
+      <c r="AK53" s="25"/>
+      <c r="AL53" s="25"/>
+      <c r="AM53" s="25"/>
+      <c r="AN53" s="25"/>
+      <c r="AO53" s="25"/>
+      <c r="AP53" s="25"/>
+      <c r="AQ53" s="25"/>
+      <c r="AR53" s="25"/>
+      <c r="AS53" s="25"/>
+      <c r="AT53" s="25"/>
+      <c r="AU53" s="25"/>
+      <c r="AV53" s="25"/>
+      <c r="AW53" s="25"/>
+      <c r="AX53" s="25"/>
+      <c r="AY53" s="25"/>
+      <c r="AZ53" s="25"/>
+      <c r="BA53" s="25"/>
+      <c r="BB53" s="25"/>
+      <c r="BC53" s="25"/>
+      <c r="BD53" s="25"/>
+      <c r="BE53" s="25"/>
+      <c r="BF53" s="25"/>
+      <c r="BG53" s="25"/>
+    </row>
+    <row r="54" spans="1:59" s="3" customFormat="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:59" s="3" customFormat="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="E55" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59" s="3" customFormat="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="F56" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="57" spans="1:59" s="3" customFormat="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="F57" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:59" s="6" customFormat="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="G58" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="59" spans="1:59">
+      <c r="H59" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:59">
+      <c r="B61" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="62" spans="1:59">
+      <c r="C62" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:59">
+      <c r="C63" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:59">
+      <c r="D64" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="3:59">
+      <c r="C65" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66" spans="3:59">
+      <c r="D66" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="3:59">
+      <c r="E67" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68" spans="3:59">
+      <c r="D68" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69" spans="3:59">
+      <c r="E69" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="3:59">
+      <c r="F70" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="25"/>
+      <c r="AC70" s="25"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+      <c r="AF70" s="25"/>
+      <c r="AG70" s="25"/>
+      <c r="AH70" s="25"/>
+      <c r="AI70" s="25"/>
+      <c r="AJ70" s="25"/>
+      <c r="AK70" s="25"/>
+      <c r="AL70" s="25"/>
+      <c r="AM70" s="25"/>
+      <c r="AN70" s="25"/>
+      <c r="AO70" s="25"/>
+      <c r="AP70" s="25"/>
+      <c r="AQ70" s="25"/>
+      <c r="AR70" s="25"/>
+      <c r="AS70" s="25"/>
+      <c r="AT70" s="25"/>
+      <c r="AU70" s="25"/>
+      <c r="AV70" s="25"/>
+      <c r="AW70" s="25"/>
+      <c r="AX70" s="25"/>
+      <c r="AY70" s="25"/>
+      <c r="AZ70" s="25"/>
+      <c r="BA70" s="25"/>
+      <c r="BB70" s="25"/>
+      <c r="BC70" s="25"/>
+      <c r="BD70" s="25"/>
+      <c r="BE70" s="25"/>
+      <c r="BF70" s="25"/>
+      <c r="BG70" s="25"/>
+    </row>
+    <row r="71" spans="3:59">
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="25"/>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="25"/>
+      <c r="AC71" s="25"/>
+      <c r="AD71" s="25"/>
+      <c r="AE71" s="25"/>
+      <c r="AF71" s="25"/>
+      <c r="AG71" s="25"/>
+      <c r="AH71" s="25"/>
+      <c r="AI71" s="25"/>
+      <c r="AJ71" s="25"/>
+      <c r="AK71" s="25"/>
+      <c r="AL71" s="25"/>
+      <c r="AM71" s="25"/>
+      <c r="AN71" s="25"/>
+      <c r="AO71" s="25"/>
+      <c r="AP71" s="25"/>
+      <c r="AQ71" s="25"/>
+      <c r="AR71" s="25"/>
+      <c r="AS71" s="25"/>
+      <c r="AT71" s="25"/>
+      <c r="AU71" s="25"/>
+      <c r="AV71" s="25"/>
+      <c r="AW71" s="25"/>
+      <c r="AX71" s="25"/>
+      <c r="AY71" s="25"/>
+      <c r="AZ71" s="25"/>
+      <c r="BA71" s="25"/>
+      <c r="BB71" s="25"/>
+      <c r="BC71" s="25"/>
+      <c r="BD71" s="25"/>
+      <c r="BE71" s="25"/>
+      <c r="BF71" s="25"/>
+      <c r="BG71" s="25"/>
+    </row>
+    <row r="72" spans="3:59">
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
+      <c r="U72" s="25"/>
+      <c r="V72" s="25"/>
+      <c r="W72" s="25"/>
+      <c r="X72" s="25"/>
+      <c r="Y72" s="25"/>
+      <c r="Z72" s="25"/>
+      <c r="AA72" s="25"/>
+      <c r="AB72" s="25"/>
+      <c r="AC72" s="25"/>
+      <c r="AD72" s="25"/>
+      <c r="AE72" s="25"/>
+      <c r="AF72" s="25"/>
+      <c r="AG72" s="25"/>
+      <c r="AH72" s="25"/>
+      <c r="AI72" s="25"/>
+      <c r="AJ72" s="25"/>
+      <c r="AK72" s="25"/>
+      <c r="AL72" s="25"/>
+      <c r="AM72" s="25"/>
+      <c r="AN72" s="25"/>
+      <c r="AO72" s="25"/>
+      <c r="AP72" s="25"/>
+      <c r="AQ72" s="25"/>
+      <c r="AR72" s="25"/>
+      <c r="AS72" s="25"/>
+      <c r="AT72" s="25"/>
+      <c r="AU72" s="25"/>
+      <c r="AV72" s="25"/>
+      <c r="AW72" s="25"/>
+      <c r="AX72" s="25"/>
+      <c r="AY72" s="25"/>
+      <c r="AZ72" s="25"/>
+      <c r="BA72" s="25"/>
+      <c r="BB72" s="25"/>
+      <c r="BC72" s="25"/>
+      <c r="BD72" s="25"/>
+      <c r="BE72" s="25"/>
+      <c r="BF72" s="25"/>
+      <c r="BG72" s="25"/>
+    </row>
+    <row r="73" spans="3:59">
+      <c r="F73" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="20"/>
+      <c r="AB73" s="20"/>
+      <c r="AC73" s="20"/>
+      <c r="AD73" s="20"/>
+      <c r="AE73" s="20"/>
+      <c r="AF73" s="20"/>
+      <c r="AG73" s="20"/>
+      <c r="AH73" s="20"/>
+      <c r="AI73" s="20"/>
+      <c r="AJ73" s="20"/>
+      <c r="AK73" s="20"/>
+      <c r="AL73" s="20"/>
+      <c r="AM73" s="20"/>
+      <c r="AN73" s="20"/>
+      <c r="AO73" s="20"/>
+      <c r="AP73" s="20"/>
+      <c r="AQ73" s="20"/>
+      <c r="AR73" s="20"/>
+      <c r="AS73" s="20"/>
+      <c r="AT73" s="20"/>
+      <c r="AU73" s="20"/>
+      <c r="AV73" s="20"/>
+      <c r="AW73" s="20"/>
+      <c r="AX73" s="20"/>
+      <c r="AY73" s="20"/>
+      <c r="AZ73" s="20"/>
+      <c r="BA73" s="20"/>
+      <c r="BB73" s="20"/>
+      <c r="BC73" s="20"/>
+      <c r="BD73" s="20"/>
+      <c r="BE73" s="20"/>
+      <c r="BF73" s="20"/>
+      <c r="BG73" s="20"/>
+    </row>
+    <row r="74" spans="3:59">
+      <c r="E74" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="75" spans="3:59">
+      <c r="F75" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="25"/>
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="25"/>
+      <c r="AA75" s="25"/>
+      <c r="AB75" s="25"/>
+      <c r="AC75" s="25"/>
+      <c r="AD75" s="25"/>
+      <c r="AE75" s="25"/>
+      <c r="AF75" s="25"/>
+      <c r="AG75" s="25"/>
+      <c r="AH75" s="25"/>
+      <c r="AI75" s="25"/>
+      <c r="AJ75" s="25"/>
+      <c r="AK75" s="25"/>
+      <c r="AL75" s="25"/>
+      <c r="AM75" s="25"/>
+      <c r="AN75" s="25"/>
+      <c r="AO75" s="25"/>
+      <c r="AP75" s="25"/>
+      <c r="AQ75" s="25"/>
+      <c r="AR75" s="25"/>
+      <c r="AS75" s="25"/>
+      <c r="AT75" s="25"/>
+      <c r="AU75" s="25"/>
+      <c r="AV75" s="25"/>
+      <c r="AW75" s="25"/>
+      <c r="AX75" s="25"/>
+      <c r="AY75" s="25"/>
+      <c r="AZ75" s="25"/>
+      <c r="BA75" s="25"/>
+      <c r="BB75" s="25"/>
+      <c r="BC75" s="25"/>
+      <c r="BD75" s="25"/>
+      <c r="BE75" s="25"/>
+      <c r="BF75" s="25"/>
+      <c r="BG75" s="25"/>
+    </row>
+    <row r="76" spans="3:59">
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="25"/>
+      <c r="V76" s="25"/>
+      <c r="W76" s="25"/>
+      <c r="X76" s="25"/>
+      <c r="Y76" s="25"/>
+      <c r="Z76" s="25"/>
+      <c r="AA76" s="25"/>
+      <c r="AB76" s="25"/>
+      <c r="AC76" s="25"/>
+      <c r="AD76" s="25"/>
+      <c r="AE76" s="25"/>
+      <c r="AF76" s="25"/>
+      <c r="AG76" s="25"/>
+      <c r="AH76" s="25"/>
+      <c r="AI76" s="25"/>
+      <c r="AJ76" s="25"/>
+      <c r="AK76" s="25"/>
+      <c r="AL76" s="25"/>
+      <c r="AM76" s="25"/>
+      <c r="AN76" s="25"/>
+      <c r="AO76" s="25"/>
+      <c r="AP76" s="25"/>
+      <c r="AQ76" s="25"/>
+      <c r="AR76" s="25"/>
+      <c r="AS76" s="25"/>
+      <c r="AT76" s="25"/>
+      <c r="AU76" s="25"/>
+      <c r="AV76" s="25"/>
+      <c r="AW76" s="25"/>
+      <c r="AX76" s="25"/>
+      <c r="AY76" s="25"/>
+      <c r="AZ76" s="25"/>
+      <c r="BA76" s="25"/>
+      <c r="BB76" s="25"/>
+      <c r="BC76" s="25"/>
+      <c r="BD76" s="25"/>
+      <c r="BE76" s="25"/>
+      <c r="BF76" s="25"/>
+      <c r="BG76" s="25"/>
+    </row>
+    <row r="77" spans="3:59">
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="25"/>
+      <c r="V77" s="25"/>
+      <c r="W77" s="25"/>
+      <c r="X77" s="25"/>
+      <c r="Y77" s="25"/>
+      <c r="Z77" s="25"/>
+      <c r="AA77" s="25"/>
+      <c r="AB77" s="25"/>
+      <c r="AC77" s="25"/>
+      <c r="AD77" s="25"/>
+      <c r="AE77" s="25"/>
+      <c r="AF77" s="25"/>
+      <c r="AG77" s="25"/>
+      <c r="AH77" s="25"/>
+      <c r="AI77" s="25"/>
+      <c r="AJ77" s="25"/>
+      <c r="AK77" s="25"/>
+      <c r="AL77" s="25"/>
+      <c r="AM77" s="25"/>
+      <c r="AN77" s="25"/>
+      <c r="AO77" s="25"/>
+      <c r="AP77" s="25"/>
+      <c r="AQ77" s="25"/>
+      <c r="AR77" s="25"/>
+      <c r="AS77" s="25"/>
+      <c r="AT77" s="25"/>
+      <c r="AU77" s="25"/>
+      <c r="AV77" s="25"/>
+      <c r="AW77" s="25"/>
+      <c r="AX77" s="25"/>
+      <c r="AY77" s="25"/>
+      <c r="AZ77" s="25"/>
+      <c r="BA77" s="25"/>
+      <c r="BB77" s="25"/>
+      <c r="BC77" s="25"/>
+      <c r="BD77" s="25"/>
+      <c r="BE77" s="25"/>
+      <c r="BF77" s="25"/>
+      <c r="BG77" s="25"/>
+    </row>
+    <row r="78" spans="3:59">
+      <c r="F78" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="79" spans="3:59">
+      <c r="F79" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="80" spans="3:59">
+      <c r="G80" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="81" spans="5:59">
+      <c r="H81" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" spans="5:59">
+      <c r="G82" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="5:59">
+      <c r="H83" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="84" spans="5:59">
+      <c r="H84" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="85" spans="5:59">
+      <c r="G85" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="5:59">
+      <c r="H86" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="87" spans="5:59">
+      <c r="G87" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="88" spans="5:59">
+      <c r="H88" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="89" spans="5:59">
+      <c r="E89" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="5:59">
+      <c r="F90" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="91" spans="5:59">
+      <c r="G91" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="92" spans="5:59">
+      <c r="G92" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="93" spans="5:59">
+      <c r="E93" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="94" spans="5:59">
+      <c r="F94" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+      <c r="V94" s="25"/>
+      <c r="W94" s="25"/>
+      <c r="X94" s="25"/>
+      <c r="Y94" s="25"/>
+      <c r="Z94" s="25"/>
+      <c r="AA94" s="25"/>
+      <c r="AB94" s="25"/>
+      <c r="AC94" s="25"/>
+      <c r="AD94" s="25"/>
+      <c r="AE94" s="25"/>
+      <c r="AF94" s="25"/>
+      <c r="AG94" s="25"/>
+      <c r="AH94" s="25"/>
+      <c r="AI94" s="25"/>
+      <c r="AJ94" s="25"/>
+      <c r="AK94" s="25"/>
+      <c r="AL94" s="25"/>
+      <c r="AM94" s="25"/>
+      <c r="AN94" s="25"/>
+      <c r="AO94" s="25"/>
+      <c r="AP94" s="25"/>
+      <c r="AQ94" s="25"/>
+      <c r="AR94" s="25"/>
+      <c r="AS94" s="25"/>
+      <c r="AT94" s="25"/>
+      <c r="AU94" s="25"/>
+      <c r="AV94" s="25"/>
+      <c r="AW94" s="25"/>
+      <c r="AX94" s="25"/>
+      <c r="AY94" s="25"/>
+      <c r="AZ94" s="25"/>
+      <c r="BA94" s="25"/>
+      <c r="BB94" s="25"/>
+      <c r="BC94" s="25"/>
+      <c r="BD94" s="25"/>
+      <c r="BE94" s="25"/>
+      <c r="BF94" s="25"/>
+      <c r="BG94" s="25"/>
+    </row>
+    <row r="95" spans="5:59">
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="25"/>
+      <c r="R95" s="25"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="25"/>
+      <c r="U95" s="25"/>
+      <c r="V95" s="25"/>
+      <c r="W95" s="25"/>
+      <c r="X95" s="25"/>
+      <c r="Y95" s="25"/>
+      <c r="Z95" s="25"/>
+      <c r="AA95" s="25"/>
+      <c r="AB95" s="25"/>
+      <c r="AC95" s="25"/>
+      <c r="AD95" s="25"/>
+      <c r="AE95" s="25"/>
+      <c r="AF95" s="25"/>
+      <c r="AG95" s="25"/>
+      <c r="AH95" s="25"/>
+      <c r="AI95" s="25"/>
+      <c r="AJ95" s="25"/>
+      <c r="AK95" s="25"/>
+      <c r="AL95" s="25"/>
+      <c r="AM95" s="25"/>
+      <c r="AN95" s="25"/>
+      <c r="AO95" s="25"/>
+      <c r="AP95" s="25"/>
+      <c r="AQ95" s="25"/>
+      <c r="AR95" s="25"/>
+      <c r="AS95" s="25"/>
+      <c r="AT95" s="25"/>
+      <c r="AU95" s="25"/>
+      <c r="AV95" s="25"/>
+      <c r="AW95" s="25"/>
+      <c r="AX95" s="25"/>
+      <c r="AY95" s="25"/>
+      <c r="AZ95" s="25"/>
+      <c r="BA95" s="25"/>
+      <c r="BB95" s="25"/>
+      <c r="BC95" s="25"/>
+      <c r="BD95" s="25"/>
+      <c r="BE95" s="25"/>
+      <c r="BF95" s="25"/>
+      <c r="BG95" s="25"/>
+    </row>
+    <row r="96" spans="5:59">
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="25"/>
+      <c r="X96" s="25"/>
+      <c r="Y96" s="25"/>
+      <c r="Z96" s="25"/>
+      <c r="AA96" s="25"/>
+      <c r="AB96" s="25"/>
+      <c r="AC96" s="25"/>
+      <c r="AD96" s="25"/>
+      <c r="AE96" s="25"/>
+      <c r="AF96" s="25"/>
+      <c r="AG96" s="25"/>
+      <c r="AH96" s="25"/>
+      <c r="AI96" s="25"/>
+      <c r="AJ96" s="25"/>
+      <c r="AK96" s="25"/>
+      <c r="AL96" s="25"/>
+      <c r="AM96" s="25"/>
+      <c r="AN96" s="25"/>
+      <c r="AO96" s="25"/>
+      <c r="AP96" s="25"/>
+      <c r="AQ96" s="25"/>
+      <c r="AR96" s="25"/>
+      <c r="AS96" s="25"/>
+      <c r="AT96" s="25"/>
+      <c r="AU96" s="25"/>
+      <c r="AV96" s="25"/>
+      <c r="AW96" s="25"/>
+      <c r="AX96" s="25"/>
+      <c r="AY96" s="25"/>
+      <c r="AZ96" s="25"/>
+      <c r="BA96" s="25"/>
+      <c r="BB96" s="25"/>
+      <c r="BC96" s="25"/>
+      <c r="BD96" s="25"/>
+      <c r="BE96" s="25"/>
+      <c r="BF96" s="25"/>
+      <c r="BG96" s="25"/>
+    </row>
+    <row r="97" spans="5:61">
+      <c r="F97" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98" spans="5:61">
+      <c r="F98" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="5:61">
+      <c r="E100" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="5:61">
+      <c r="F101" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="5:61">
+      <c r="G102" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="103" spans="5:61">
+      <c r="H103" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="25"/>
+      <c r="T103" s="25"/>
+      <c r="U103" s="25"/>
+      <c r="V103" s="25"/>
+      <c r="W103" s="25"/>
+      <c r="X103" s="25"/>
+      <c r="Y103" s="25"/>
+      <c r="Z103" s="25"/>
+      <c r="AA103" s="25"/>
+      <c r="AB103" s="25"/>
+      <c r="AC103" s="25"/>
+      <c r="AD103" s="25"/>
+      <c r="AE103" s="25"/>
+      <c r="AF103" s="25"/>
+      <c r="AG103" s="25"/>
+      <c r="AH103" s="25"/>
+      <c r="AI103" s="25"/>
+      <c r="AJ103" s="25"/>
+      <c r="AK103" s="25"/>
+      <c r="AL103" s="25"/>
+      <c r="AM103" s="25"/>
+      <c r="AN103" s="25"/>
+      <c r="AO103" s="25"/>
+      <c r="AP103" s="25"/>
+      <c r="AQ103" s="25"/>
+      <c r="AR103" s="25"/>
+      <c r="AS103" s="25"/>
+      <c r="AT103" s="25"/>
+      <c r="AU103" s="25"/>
+      <c r="AV103" s="25"/>
+      <c r="AW103" s="25"/>
+      <c r="AX103" s="25"/>
+      <c r="AY103" s="25"/>
+      <c r="AZ103" s="25"/>
+      <c r="BA103" s="25"/>
+      <c r="BB103" s="25"/>
+      <c r="BC103" s="25"/>
+      <c r="BD103" s="25"/>
+      <c r="BE103" s="25"/>
+      <c r="BF103" s="25"/>
+      <c r="BG103" s="25"/>
+      <c r="BH103" s="25"/>
+      <c r="BI103" s="25"/>
+    </row>
+    <row r="104" spans="5:61">
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="25"/>
+      <c r="S104" s="25"/>
+      <c r="T104" s="25"/>
+      <c r="U104" s="25"/>
+      <c r="V104" s="25"/>
+      <c r="W104" s="25"/>
+      <c r="X104" s="25"/>
+      <c r="Y104" s="25"/>
+      <c r="Z104" s="25"/>
+      <c r="AA104" s="25"/>
+      <c r="AB104" s="25"/>
+      <c r="AC104" s="25"/>
+      <c r="AD104" s="25"/>
+      <c r="AE104" s="25"/>
+      <c r="AF104" s="25"/>
+      <c r="AG104" s="25"/>
+      <c r="AH104" s="25"/>
+      <c r="AI104" s="25"/>
+      <c r="AJ104" s="25"/>
+      <c r="AK104" s="25"/>
+      <c r="AL104" s="25"/>
+      <c r="AM104" s="25"/>
+      <c r="AN104" s="25"/>
+      <c r="AO104" s="25"/>
+      <c r="AP104" s="25"/>
+      <c r="AQ104" s="25"/>
+      <c r="AR104" s="25"/>
+      <c r="AS104" s="25"/>
+      <c r="AT104" s="25"/>
+      <c r="AU104" s="25"/>
+      <c r="AV104" s="25"/>
+      <c r="AW104" s="25"/>
+      <c r="AX104" s="25"/>
+      <c r="AY104" s="25"/>
+      <c r="AZ104" s="25"/>
+      <c r="BA104" s="25"/>
+      <c r="BB104" s="25"/>
+      <c r="BC104" s="25"/>
+      <c r="BD104" s="25"/>
+      <c r="BE104" s="25"/>
+      <c r="BF104" s="25"/>
+      <c r="BG104" s="25"/>
+      <c r="BH104" s="25"/>
+      <c r="BI104" s="25"/>
+    </row>
+    <row r="105" spans="5:61">
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="25"/>
+      <c r="Q105" s="25"/>
+      <c r="R105" s="25"/>
+      <c r="S105" s="25"/>
+      <c r="T105" s="25"/>
+      <c r="U105" s="25"/>
+      <c r="V105" s="25"/>
+      <c r="W105" s="25"/>
+      <c r="X105" s="25"/>
+      <c r="Y105" s="25"/>
+      <c r="Z105" s="25"/>
+      <c r="AA105" s="25"/>
+      <c r="AB105" s="25"/>
+      <c r="AC105" s="25"/>
+      <c r="AD105" s="25"/>
+      <c r="AE105" s="25"/>
+      <c r="AF105" s="25"/>
+      <c r="AG105" s="25"/>
+      <c r="AH105" s="25"/>
+      <c r="AI105" s="25"/>
+      <c r="AJ105" s="25"/>
+      <c r="AK105" s="25"/>
+      <c r="AL105" s="25"/>
+      <c r="AM105" s="25"/>
+      <c r="AN105" s="25"/>
+      <c r="AO105" s="25"/>
+      <c r="AP105" s="25"/>
+      <c r="AQ105" s="25"/>
+      <c r="AR105" s="25"/>
+      <c r="AS105" s="25"/>
+      <c r="AT105" s="25"/>
+      <c r="AU105" s="25"/>
+      <c r="AV105" s="25"/>
+      <c r="AW105" s="25"/>
+      <c r="AX105" s="25"/>
+      <c r="AY105" s="25"/>
+      <c r="AZ105" s="25"/>
+      <c r="BA105" s="25"/>
+      <c r="BB105" s="25"/>
+      <c r="BC105" s="25"/>
+      <c r="BD105" s="25"/>
+      <c r="BE105" s="25"/>
+      <c r="BF105" s="25"/>
+      <c r="BG105" s="25"/>
+      <c r="BH105" s="25"/>
+      <c r="BI105" s="25"/>
+    </row>
+    <row r="106" spans="5:61">
+      <c r="H106" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="107" spans="5:61">
+      <c r="H107" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="108" spans="5:61">
+      <c r="F108" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="109" spans="5:61">
+      <c r="G109" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="25"/>
+      <c r="T109" s="25"/>
+      <c r="U109" s="25"/>
+      <c r="V109" s="25"/>
+      <c r="W109" s="25"/>
+      <c r="X109" s="25"/>
+      <c r="Y109" s="25"/>
+      <c r="Z109" s="25"/>
+      <c r="AA109" s="25"/>
+      <c r="AB109" s="25"/>
+      <c r="AC109" s="25"/>
+      <c r="AD109" s="25"/>
+      <c r="AE109" s="25"/>
+      <c r="AF109" s="25"/>
+      <c r="AG109" s="25"/>
+      <c r="AH109" s="25"/>
+      <c r="AI109" s="25"/>
+      <c r="AJ109" s="25"/>
+      <c r="AK109" s="25"/>
+      <c r="AL109" s="25"/>
+      <c r="AM109" s="25"/>
+      <c r="AN109" s="25"/>
+      <c r="AO109" s="25"/>
+      <c r="AP109" s="25"/>
+      <c r="AQ109" s="25"/>
+      <c r="AR109" s="25"/>
+      <c r="AS109" s="25"/>
+      <c r="AT109" s="25"/>
+      <c r="AU109" s="25"/>
+      <c r="AV109" s="25"/>
+      <c r="AW109" s="25"/>
+      <c r="AX109" s="25"/>
+      <c r="AY109" s="25"/>
+      <c r="AZ109" s="25"/>
+      <c r="BA109" s="25"/>
+      <c r="BB109" s="25"/>
+      <c r="BC109" s="25"/>
+      <c r="BD109" s="25"/>
+      <c r="BE109" s="25"/>
+      <c r="BF109" s="25"/>
+      <c r="BG109" s="25"/>
+      <c r="BH109" s="25"/>
+    </row>
+    <row r="110" spans="5:61">
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="25"/>
+      <c r="T110" s="25"/>
+      <c r="U110" s="25"/>
+      <c r="V110" s="25"/>
+      <c r="W110" s="25"/>
+      <c r="X110" s="25"/>
+      <c r="Y110" s="25"/>
+      <c r="Z110" s="25"/>
+      <c r="AA110" s="25"/>
+      <c r="AB110" s="25"/>
+      <c r="AC110" s="25"/>
+      <c r="AD110" s="25"/>
+      <c r="AE110" s="25"/>
+      <c r="AF110" s="25"/>
+      <c r="AG110" s="25"/>
+      <c r="AH110" s="25"/>
+      <c r="AI110" s="25"/>
+      <c r="AJ110" s="25"/>
+      <c r="AK110" s="25"/>
+      <c r="AL110" s="25"/>
+      <c r="AM110" s="25"/>
+      <c r="AN110" s="25"/>
+      <c r="AO110" s="25"/>
+      <c r="AP110" s="25"/>
+      <c r="AQ110" s="25"/>
+      <c r="AR110" s="25"/>
+      <c r="AS110" s="25"/>
+      <c r="AT110" s="25"/>
+      <c r="AU110" s="25"/>
+      <c r="AV110" s="25"/>
+      <c r="AW110" s="25"/>
+      <c r="AX110" s="25"/>
+      <c r="AY110" s="25"/>
+      <c r="AZ110" s="25"/>
+      <c r="BA110" s="25"/>
+      <c r="BB110" s="25"/>
+      <c r="BC110" s="25"/>
+      <c r="BD110" s="25"/>
+      <c r="BE110" s="25"/>
+      <c r="BF110" s="25"/>
+      <c r="BG110" s="25"/>
+      <c r="BH110" s="25"/>
+    </row>
+    <row r="111" spans="5:61">
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="25"/>
+      <c r="R111" s="25"/>
+      <c r="S111" s="25"/>
+      <c r="T111" s="25"/>
+      <c r="U111" s="25"/>
+      <c r="V111" s="25"/>
+      <c r="W111" s="25"/>
+      <c r="X111" s="25"/>
+      <c r="Y111" s="25"/>
+      <c r="Z111" s="25"/>
+      <c r="AA111" s="25"/>
+      <c r="AB111" s="25"/>
+      <c r="AC111" s="25"/>
+      <c r="AD111" s="25"/>
+      <c r="AE111" s="25"/>
+      <c r="AF111" s="25"/>
+      <c r="AG111" s="25"/>
+      <c r="AH111" s="25"/>
+      <c r="AI111" s="25"/>
+      <c r="AJ111" s="25"/>
+      <c r="AK111" s="25"/>
+      <c r="AL111" s="25"/>
+      <c r="AM111" s="25"/>
+      <c r="AN111" s="25"/>
+      <c r="AO111" s="25"/>
+      <c r="AP111" s="25"/>
+      <c r="AQ111" s="25"/>
+      <c r="AR111" s="25"/>
+      <c r="AS111" s="25"/>
+      <c r="AT111" s="25"/>
+      <c r="AU111" s="25"/>
+      <c r="AV111" s="25"/>
+      <c r="AW111" s="25"/>
+      <c r="AX111" s="25"/>
+      <c r="AY111" s="25"/>
+      <c r="AZ111" s="25"/>
+      <c r="BA111" s="25"/>
+      <c r="BB111" s="25"/>
+      <c r="BC111" s="25"/>
+      <c r="BD111" s="25"/>
+      <c r="BE111" s="25"/>
+      <c r="BF111" s="25"/>
+      <c r="BG111" s="25"/>
+      <c r="BH111" s="25"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="C114" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" s="6" customFormat="1">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="1:2" s="6" customFormat="1">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="1:2" s="6" customFormat="1">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+    </row>
+    <row r="195" spans="1:2" s="6" customFormat="1">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F75:BG77"/>
+    <mergeCell ref="F94:BG96"/>
+    <mergeCell ref="H103:BI105"/>
+    <mergeCell ref="G109:BH111"/>
+    <mergeCell ref="F29:BG31"/>
+    <mergeCell ref="F35:BG37"/>
+    <mergeCell ref="F51:BG53"/>
+    <mergeCell ref="F70:BG72"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Scala/Reference/Scala_学習.xlsx
+++ b/Scala/Reference/Scala_学習.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Git\Cal_Master\Scala\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353161DF-9456-4C1D-A791-970A74325CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1E82B2-37A4-4901-B87A-DC540A97DA91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13365" yWindow="1395" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学習" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="474">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -2848,6 +2848,91 @@
   </si>
   <si>
     <t>Git</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scalaで開発する際のIDEはIntelliJ IDEA + Scala Pluginと</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scala IDE for Eclipseの2種類がある</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IntelliJ IDEAの方がIDEとして高機能</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JetBrains社が開発しているIDE</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>有料だが多機能</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Ultimate Edition</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Community Edition</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>オープンソースで無料</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scalaプラグインをインストールすることで</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Scala開発をすることが可能</t>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>インストール</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sbtプロジェクトのインポート</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>GitHub - scala-text/scala-sandbox: scala_text用sample project</t>
+  </si>
+  <si>
+    <t>https://github.com/scala-text/scala-sandbox</t>
+  </si>
+  <si>
+    <t>サンドボックスプロジェクトダウンロード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>├src/main/scala/HelloWorld.scala</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>├project/build.properties</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>└build.sbt</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sandbox</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\Tutorial\研修テキスト\02_sandbox</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -3413,7 +3498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6795,9 +6880,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72613AB1-8744-4A7E-BE40-BA46FE831296}">
-  <dimension ref="A1:BI195"/>
+  <dimension ref="A1:BI194"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -8734,15 +8821,129 @@
       <c r="BG111" s="25"/>
       <c r="BH111" s="25"/>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:5">
       <c r="B113" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
+    <row r="114" spans="2:5">
       <c r="C114" s="1" t="s">
         <v>449</v>
       </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="C115" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="C116" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="C117" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="C118" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="D119" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="D120" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="E121" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="D122" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="E123" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="E124" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="E125" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="C126" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="C128" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="129" spans="4:9">
+      <c r="D129" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="130" spans="4:9">
+      <c r="E130" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="131" spans="4:9">
+      <c r="F131" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="132" spans="4:9">
+      <c r="F132" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="133" spans="4:9">
+      <c r="G133" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="134" spans="4:9">
+      <c r="H134" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="135" spans="4:9">
+      <c r="I135" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="136" spans="4:9">
+      <c r="I136" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="137" spans="4:9">
+      <c r="I137" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" s="6" customFormat="1">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
     </row>
     <row r="192" spans="1:2" s="6" customFormat="1">
       <c r="A192" s="5"/>
@@ -8755,10 +8956,6 @@
     <row r="194" spans="1:2" s="6" customFormat="1">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
-    </row>
-    <row r="195" spans="1:2" s="6" customFormat="1">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
